--- a/tabtoy/equip11.xlsx
+++ b/tabtoy/equip11.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="43">
   <si>
     <t>ID</t>
   </si>
@@ -25,16 +25,19 @@
     <t>品质</t>
   </si>
   <si>
-    <t>基础防御</t>
+    <t>等级加成</t>
   </si>
   <si>
-    <t>等级加成</t>
+    <t>基础防御</t>
   </si>
   <si>
     <t>攻击x</t>
   </si>
   <si>
     <t>生命x</t>
+  </si>
+  <si>
+    <t>攻速</t>
   </si>
   <si>
     <t>资源</t>
@@ -394,7 +397,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="4" max="4" width="28.0"/>
+    <col customWidth="1" min="4" max="4" width="33.75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -428,7 +431,9 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2"/>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
@@ -448,39 +453,42 @@
       <c r="AB1" s="2"/>
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2"/>
+      <c r="K2" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
@@ -500,39 +508,42 @@
       <c r="AB2" s="2"/>
       <c r="AC2" s="2"/>
       <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -552,39 +563,42 @@
       <c r="AB3" s="2"/>
       <c r="AC3" s="2"/>
       <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="2"/>
+      <c r="K4" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -604,39 +618,42 @@
       <c r="AB4" s="2"/>
       <c r="AC4" s="2"/>
       <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="2"/>
+      <c r="K5" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -656,39 +673,42 @@
       <c r="AB5" s="2"/>
       <c r="AC5" s="2"/>
       <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -708,39 +728,42 @@
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -760,39 +783,42 @@
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
@@ -812,39 +838,42 @@
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
@@ -864,39 +893,42 @@
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -916,39 +948,42 @@
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -968,39 +1003,42 @@
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1020,39 +1058,42 @@
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -1072,39 +1113,42 @@
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="2"/>
+      <c r="K14" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -1124,39 +1168,42 @@
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -1176,39 +1223,42 @@
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -1228,39 +1278,42 @@
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -1280,39 +1333,42 @@
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -1332,39 +1388,42 @@
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="2"/>
+      <c r="K19" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -1384,39 +1443,42 @@
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -1436,6 +1498,7 @@
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
     </row>
     <row r="21">
       <c r="A21" s="2"/>
@@ -1468,6 +1531,7 @@
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
       <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
     </row>
     <row r="22">
       <c r="A22" s="2"/>
@@ -1500,6 +1564,7 @@
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
     </row>
     <row r="23">
       <c r="A23" s="2"/>
@@ -1532,6 +1597,7 @@
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
     </row>
     <row r="24">
       <c r="A24" s="2"/>
@@ -1564,6 +1630,7 @@
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
     </row>
     <row r="25">
       <c r="A25" s="2"/>
@@ -1596,6 +1663,7 @@
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
     </row>
     <row r="26">
       <c r="A26" s="2"/>
@@ -1628,6 +1696,7 @@
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
     </row>
     <row r="27">
       <c r="A27" s="2"/>
@@ -1660,6 +1729,7 @@
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
     </row>
     <row r="28">
       <c r="A28" s="2"/>
@@ -1692,6 +1762,7 @@
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
     </row>
     <row r="29">
       <c r="A29" s="2"/>
@@ -1724,6 +1795,7 @@
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
     </row>
     <row r="30">
       <c r="A30" s="2"/>
@@ -1756,6 +1828,7 @@
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
     </row>
     <row r="31">
       <c r="A31" s="2"/>
@@ -1788,6 +1861,7 @@
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
     </row>
     <row r="32">
       <c r="A32" s="2"/>
@@ -1820,6 +1894,7 @@
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
     </row>
     <row r="33">
       <c r="A33" s="2"/>
@@ -1852,6 +1927,7 @@
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
     </row>
     <row r="34">
       <c r="A34" s="2"/>
@@ -1884,6 +1960,7 @@
       <c r="AB34" s="2"/>
       <c r="AC34" s="2"/>
       <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
     </row>
     <row r="35">
       <c r="A35" s="2"/>
@@ -1916,6 +1993,7 @@
       <c r="AB35" s="2"/>
       <c r="AC35" s="2"/>
       <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
     </row>
     <row r="36">
       <c r="A36" s="2"/>
@@ -1948,6 +2026,7 @@
       <c r="AB36" s="2"/>
       <c r="AC36" s="2"/>
       <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
     </row>
     <row r="37">
       <c r="A37" s="2"/>
@@ -1980,6 +2059,7 @@
       <c r="AB37" s="2"/>
       <c r="AC37" s="2"/>
       <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
     </row>
     <row r="38">
       <c r="A38" s="2"/>
@@ -2012,6 +2092,7 @@
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
       <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
     </row>
     <row r="39">
       <c r="A39" s="2"/>
@@ -2044,6 +2125,7 @@
       <c r="AB39" s="2"/>
       <c r="AC39" s="2"/>
       <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
     </row>
     <row r="40">
       <c r="A40" s="2"/>
@@ -2076,6 +2158,7 @@
       <c r="AB40" s="2"/>
       <c r="AC40" s="2"/>
       <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
     </row>
     <row r="41">
       <c r="A41" s="2"/>
@@ -2108,6 +2191,7 @@
       <c r="AB41" s="2"/>
       <c r="AC41" s="2"/>
       <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
     </row>
     <row r="42">
       <c r="A42" s="2"/>
@@ -2140,6 +2224,7 @@
       <c r="AB42" s="2"/>
       <c r="AC42" s="2"/>
       <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
     </row>
     <row r="43">
       <c r="A43" s="2"/>
@@ -2172,6 +2257,7 @@
       <c r="AB43" s="2"/>
       <c r="AC43" s="2"/>
       <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
     </row>
     <row r="44">
       <c r="A44" s="2"/>
@@ -2204,6 +2290,7 @@
       <c r="AB44" s="2"/>
       <c r="AC44" s="2"/>
       <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
     </row>
     <row r="45">
       <c r="A45" s="2"/>
@@ -2236,6 +2323,7 @@
       <c r="AB45" s="2"/>
       <c r="AC45" s="2"/>
       <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
     </row>
     <row r="46">
       <c r="A46" s="2"/>
@@ -2268,6 +2356,7 @@
       <c r="AB46" s="2"/>
       <c r="AC46" s="2"/>
       <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
     </row>
     <row r="47">
       <c r="A47" s="2"/>
@@ -2300,6 +2389,7 @@
       <c r="AB47" s="2"/>
       <c r="AC47" s="2"/>
       <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
     </row>
     <row r="48">
       <c r="A48" s="2"/>
@@ -2332,6 +2422,7 @@
       <c r="AB48" s="2"/>
       <c r="AC48" s="2"/>
       <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
     </row>
     <row r="49">
       <c r="A49" s="2"/>
@@ -2364,6 +2455,7 @@
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
       <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
     </row>
     <row r="50">
       <c r="A50" s="2"/>
@@ -2396,6 +2488,7 @@
       <c r="AB50" s="2"/>
       <c r="AC50" s="2"/>
       <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
     </row>
     <row r="51">
       <c r="A51" s="2"/>
@@ -2428,6 +2521,7 @@
       <c r="AB51" s="2"/>
       <c r="AC51" s="2"/>
       <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
     </row>
     <row r="52">
       <c r="A52" s="2"/>
@@ -2460,6 +2554,7 @@
       <c r="AB52" s="2"/>
       <c r="AC52" s="2"/>
       <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
     </row>
     <row r="53">
       <c r="A53" s="2"/>
@@ -2492,6 +2587,7 @@
       <c r="AB53" s="2"/>
       <c r="AC53" s="2"/>
       <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
     </row>
     <row r="54">
       <c r="A54" s="2"/>
@@ -2524,6 +2620,7 @@
       <c r="AB54" s="2"/>
       <c r="AC54" s="2"/>
       <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
     </row>
     <row r="55">
       <c r="A55" s="2"/>
@@ -2556,6 +2653,7 @@
       <c r="AB55" s="2"/>
       <c r="AC55" s="2"/>
       <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
     </row>
     <row r="56">
       <c r="A56" s="2"/>
@@ -2588,6 +2686,7 @@
       <c r="AB56" s="2"/>
       <c r="AC56" s="2"/>
       <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
     </row>
     <row r="57">
       <c r="A57" s="2"/>
@@ -2620,6 +2719,7 @@
       <c r="AB57" s="2"/>
       <c r="AC57" s="2"/>
       <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
     </row>
     <row r="58">
       <c r="A58" s="2"/>
@@ -2652,6 +2752,7 @@
       <c r="AB58" s="2"/>
       <c r="AC58" s="2"/>
       <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
     </row>
     <row r="59">
       <c r="A59" s="2"/>
@@ -2684,6 +2785,7 @@
       <c r="AB59" s="2"/>
       <c r="AC59" s="2"/>
       <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
     </row>
     <row r="60">
       <c r="A60" s="2"/>
@@ -2716,6 +2818,7 @@
       <c r="AB60" s="2"/>
       <c r="AC60" s="2"/>
       <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
     </row>
     <row r="61">
       <c r="A61" s="2"/>
@@ -2748,6 +2851,7 @@
       <c r="AB61" s="2"/>
       <c r="AC61" s="2"/>
       <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
     </row>
     <row r="62">
       <c r="A62" s="2"/>
@@ -2780,6 +2884,7 @@
       <c r="AB62" s="2"/>
       <c r="AC62" s="2"/>
       <c r="AD62" s="2"/>
+      <c r="AE62" s="2"/>
     </row>
     <row r="63">
       <c r="A63" s="2"/>
@@ -2812,6 +2917,7 @@
       <c r="AB63" s="2"/>
       <c r="AC63" s="2"/>
       <c r="AD63" s="2"/>
+      <c r="AE63" s="2"/>
     </row>
     <row r="64">
       <c r="A64" s="2"/>
@@ -2844,6 +2950,7 @@
       <c r="AB64" s="2"/>
       <c r="AC64" s="2"/>
       <c r="AD64" s="2"/>
+      <c r="AE64" s="2"/>
     </row>
     <row r="65">
       <c r="A65" s="2"/>
@@ -2876,6 +2983,7 @@
       <c r="AB65" s="2"/>
       <c r="AC65" s="2"/>
       <c r="AD65" s="2"/>
+      <c r="AE65" s="2"/>
     </row>
     <row r="66">
       <c r="A66" s="2"/>
@@ -2908,6 +3016,7 @@
       <c r="AB66" s="2"/>
       <c r="AC66" s="2"/>
       <c r="AD66" s="2"/>
+      <c r="AE66" s="2"/>
     </row>
     <row r="67">
       <c r="A67" s="2"/>
@@ -2940,6 +3049,7 @@
       <c r="AB67" s="2"/>
       <c r="AC67" s="2"/>
       <c r="AD67" s="2"/>
+      <c r="AE67" s="2"/>
     </row>
     <row r="68">
       <c r="A68" s="2"/>
@@ -2972,6 +3082,7 @@
       <c r="AB68" s="2"/>
       <c r="AC68" s="2"/>
       <c r="AD68" s="2"/>
+      <c r="AE68" s="2"/>
     </row>
     <row r="69">
       <c r="A69" s="2"/>
@@ -3004,6 +3115,7 @@
       <c r="AB69" s="2"/>
       <c r="AC69" s="2"/>
       <c r="AD69" s="2"/>
+      <c r="AE69" s="2"/>
     </row>
     <row r="70">
       <c r="A70" s="2"/>
@@ -3036,6 +3148,7 @@
       <c r="AB70" s="2"/>
       <c r="AC70" s="2"/>
       <c r="AD70" s="2"/>
+      <c r="AE70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" s="2"/>
@@ -3068,6 +3181,7 @@
       <c r="AB71" s="2"/>
       <c r="AC71" s="2"/>
       <c r="AD71" s="2"/>
+      <c r="AE71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" s="2"/>
@@ -3100,6 +3214,7 @@
       <c r="AB72" s="2"/>
       <c r="AC72" s="2"/>
       <c r="AD72" s="2"/>
+      <c r="AE72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" s="2"/>
@@ -3132,6 +3247,7 @@
       <c r="AB73" s="2"/>
       <c r="AC73" s="2"/>
       <c r="AD73" s="2"/>
+      <c r="AE73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" s="2"/>
@@ -3164,6 +3280,7 @@
       <c r="AB74" s="2"/>
       <c r="AC74" s="2"/>
       <c r="AD74" s="2"/>
+      <c r="AE74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" s="2"/>
@@ -3196,6 +3313,7 @@
       <c r="AB75" s="2"/>
       <c r="AC75" s="2"/>
       <c r="AD75" s="2"/>
+      <c r="AE75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" s="2"/>
@@ -3228,6 +3346,7 @@
       <c r="AB76" s="2"/>
       <c r="AC76" s="2"/>
       <c r="AD76" s="2"/>
+      <c r="AE76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" s="2"/>
@@ -3260,6 +3379,7 @@
       <c r="AB77" s="2"/>
       <c r="AC77" s="2"/>
       <c r="AD77" s="2"/>
+      <c r="AE77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" s="2"/>
@@ -3292,6 +3412,7 @@
       <c r="AB78" s="2"/>
       <c r="AC78" s="2"/>
       <c r="AD78" s="2"/>
+      <c r="AE78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" s="2"/>
@@ -3324,6 +3445,7 @@
       <c r="AB79" s="2"/>
       <c r="AC79" s="2"/>
       <c r="AD79" s="2"/>
+      <c r="AE79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" s="2"/>
@@ -3356,6 +3478,7 @@
       <c r="AB80" s="2"/>
       <c r="AC80" s="2"/>
       <c r="AD80" s="2"/>
+      <c r="AE80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" s="2"/>
@@ -3388,6 +3511,7 @@
       <c r="AB81" s="2"/>
       <c r="AC81" s="2"/>
       <c r="AD81" s="2"/>
+      <c r="AE81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" s="2"/>
@@ -3420,6 +3544,7 @@
       <c r="AB82" s="2"/>
       <c r="AC82" s="2"/>
       <c r="AD82" s="2"/>
+      <c r="AE82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" s="2"/>
@@ -3452,6 +3577,7 @@
       <c r="AB83" s="2"/>
       <c r="AC83" s="2"/>
       <c r="AD83" s="2"/>
+      <c r="AE83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" s="2"/>
@@ -3484,6 +3610,7 @@
       <c r="AB84" s="2"/>
       <c r="AC84" s="2"/>
       <c r="AD84" s="2"/>
+      <c r="AE84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" s="2"/>
@@ -3516,6 +3643,7 @@
       <c r="AB85" s="2"/>
       <c r="AC85" s="2"/>
       <c r="AD85" s="2"/>
+      <c r="AE85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" s="2"/>
@@ -3548,6 +3676,7 @@
       <c r="AB86" s="2"/>
       <c r="AC86" s="2"/>
       <c r="AD86" s="2"/>
+      <c r="AE86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" s="2"/>
@@ -3580,6 +3709,7 @@
       <c r="AB87" s="2"/>
       <c r="AC87" s="2"/>
       <c r="AD87" s="2"/>
+      <c r="AE87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" s="2"/>
@@ -3612,6 +3742,7 @@
       <c r="AB88" s="2"/>
       <c r="AC88" s="2"/>
       <c r="AD88" s="2"/>
+      <c r="AE88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" s="2"/>
@@ -3644,6 +3775,7 @@
       <c r="AB89" s="2"/>
       <c r="AC89" s="2"/>
       <c r="AD89" s="2"/>
+      <c r="AE89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" s="2"/>
@@ -3676,6 +3808,7 @@
       <c r="AB90" s="2"/>
       <c r="AC90" s="2"/>
       <c r="AD90" s="2"/>
+      <c r="AE90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" s="2"/>
@@ -3708,6 +3841,7 @@
       <c r="AB91" s="2"/>
       <c r="AC91" s="2"/>
       <c r="AD91" s="2"/>
+      <c r="AE91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" s="2"/>
@@ -3740,6 +3874,7 @@
       <c r="AB92" s="2"/>
       <c r="AC92" s="2"/>
       <c r="AD92" s="2"/>
+      <c r="AE92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" s="2"/>
@@ -3772,6 +3907,7 @@
       <c r="AB93" s="2"/>
       <c r="AC93" s="2"/>
       <c r="AD93" s="2"/>
+      <c r="AE93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" s="2"/>
@@ -3804,6 +3940,7 @@
       <c r="AB94" s="2"/>
       <c r="AC94" s="2"/>
       <c r="AD94" s="2"/>
+      <c r="AE94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" s="2"/>
@@ -3836,6 +3973,7 @@
       <c r="AB95" s="2"/>
       <c r="AC95" s="2"/>
       <c r="AD95" s="2"/>
+      <c r="AE95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" s="2"/>
@@ -3868,6 +4006,7 @@
       <c r="AB96" s="2"/>
       <c r="AC96" s="2"/>
       <c r="AD96" s="2"/>
+      <c r="AE96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" s="2"/>
@@ -3900,6 +4039,7 @@
       <c r="AB97" s="2"/>
       <c r="AC97" s="2"/>
       <c r="AD97" s="2"/>
+      <c r="AE97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" s="2"/>
@@ -3932,6 +4072,7 @@
       <c r="AB98" s="2"/>
       <c r="AC98" s="2"/>
       <c r="AD98" s="2"/>
+      <c r="AE98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" s="2"/>
@@ -3964,6 +4105,7 @@
       <c r="AB99" s="2"/>
       <c r="AC99" s="2"/>
       <c r="AD99" s="2"/>
+      <c r="AE99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" s="2"/>
@@ -3996,6 +4138,7 @@
       <c r="AB100" s="2"/>
       <c r="AC100" s="2"/>
       <c r="AD100" s="2"/>
+      <c r="AE100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" s="2"/>
@@ -4028,6 +4171,7 @@
       <c r="AB101" s="2"/>
       <c r="AC101" s="2"/>
       <c r="AD101" s="2"/>
+      <c r="AE101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" s="2"/>
@@ -4060,6 +4204,7 @@
       <c r="AB102" s="2"/>
       <c r="AC102" s="2"/>
       <c r="AD102" s="2"/>
+      <c r="AE102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" s="2"/>
@@ -4092,6 +4237,7 @@
       <c r="AB103" s="2"/>
       <c r="AC103" s="2"/>
       <c r="AD103" s="2"/>
+      <c r="AE103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" s="2"/>
@@ -4124,6 +4270,7 @@
       <c r="AB104" s="2"/>
       <c r="AC104" s="2"/>
       <c r="AD104" s="2"/>
+      <c r="AE104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" s="2"/>
@@ -4156,6 +4303,7 @@
       <c r="AB105" s="2"/>
       <c r="AC105" s="2"/>
       <c r="AD105" s="2"/>
+      <c r="AE105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" s="2"/>
@@ -4188,6 +4336,7 @@
       <c r="AB106" s="2"/>
       <c r="AC106" s="2"/>
       <c r="AD106" s="2"/>
+      <c r="AE106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" s="2"/>
@@ -4220,6 +4369,7 @@
       <c r="AB107" s="2"/>
       <c r="AC107" s="2"/>
       <c r="AD107" s="2"/>
+      <c r="AE107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" s="2"/>
@@ -4252,6 +4402,7 @@
       <c r="AB108" s="2"/>
       <c r="AC108" s="2"/>
       <c r="AD108" s="2"/>
+      <c r="AE108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" s="2"/>
@@ -4284,6 +4435,7 @@
       <c r="AB109" s="2"/>
       <c r="AC109" s="2"/>
       <c r="AD109" s="2"/>
+      <c r="AE109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" s="2"/>
@@ -4316,6 +4468,7 @@
       <c r="AB110" s="2"/>
       <c r="AC110" s="2"/>
       <c r="AD110" s="2"/>
+      <c r="AE110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" s="2"/>
@@ -4348,6 +4501,7 @@
       <c r="AB111" s="2"/>
       <c r="AC111" s="2"/>
       <c r="AD111" s="2"/>
+      <c r="AE111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" s="2"/>
@@ -4380,6 +4534,7 @@
       <c r="AB112" s="2"/>
       <c r="AC112" s="2"/>
       <c r="AD112" s="2"/>
+      <c r="AE112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" s="2"/>
@@ -4412,6 +4567,7 @@
       <c r="AB113" s="2"/>
       <c r="AC113" s="2"/>
       <c r="AD113" s="2"/>
+      <c r="AE113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" s="2"/>
@@ -4444,6 +4600,7 @@
       <c r="AB114" s="2"/>
       <c r="AC114" s="2"/>
       <c r="AD114" s="2"/>
+      <c r="AE114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" s="2"/>
@@ -4476,6 +4633,7 @@
       <c r="AB115" s="2"/>
       <c r="AC115" s="2"/>
       <c r="AD115" s="2"/>
+      <c r="AE115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" s="2"/>
@@ -4508,6 +4666,7 @@
       <c r="AB116" s="2"/>
       <c r="AC116" s="2"/>
       <c r="AD116" s="2"/>
+      <c r="AE116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" s="2"/>
@@ -4540,6 +4699,7 @@
       <c r="AB117" s="2"/>
       <c r="AC117" s="2"/>
       <c r="AD117" s="2"/>
+      <c r="AE117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" s="2"/>
@@ -4572,6 +4732,7 @@
       <c r="AB118" s="2"/>
       <c r="AC118" s="2"/>
       <c r="AD118" s="2"/>
+      <c r="AE118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" s="2"/>
@@ -4604,6 +4765,7 @@
       <c r="AB119" s="2"/>
       <c r="AC119" s="2"/>
       <c r="AD119" s="2"/>
+      <c r="AE119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" s="2"/>
@@ -4636,6 +4798,7 @@
       <c r="AB120" s="2"/>
       <c r="AC120" s="2"/>
       <c r="AD120" s="2"/>
+      <c r="AE120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" s="2"/>
@@ -4668,6 +4831,7 @@
       <c r="AB121" s="2"/>
       <c r="AC121" s="2"/>
       <c r="AD121" s="2"/>
+      <c r="AE121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" s="2"/>
@@ -4700,6 +4864,7 @@
       <c r="AB122" s="2"/>
       <c r="AC122" s="2"/>
       <c r="AD122" s="2"/>
+      <c r="AE122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" s="2"/>
@@ -4732,6 +4897,7 @@
       <c r="AB123" s="2"/>
       <c r="AC123" s="2"/>
       <c r="AD123" s="2"/>
+      <c r="AE123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" s="2"/>
@@ -4764,6 +4930,7 @@
       <c r="AB124" s="2"/>
       <c r="AC124" s="2"/>
       <c r="AD124" s="2"/>
+      <c r="AE124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" s="2"/>
@@ -4796,6 +4963,7 @@
       <c r="AB125" s="2"/>
       <c r="AC125" s="2"/>
       <c r="AD125" s="2"/>
+      <c r="AE125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" s="2"/>
@@ -4828,6 +4996,7 @@
       <c r="AB126" s="2"/>
       <c r="AC126" s="2"/>
       <c r="AD126" s="2"/>
+      <c r="AE126" s="2"/>
     </row>
     <row r="127">
       <c r="A127" s="2"/>
@@ -4860,6 +5029,7 @@
       <c r="AB127" s="2"/>
       <c r="AC127" s="2"/>
       <c r="AD127" s="2"/>
+      <c r="AE127" s="2"/>
     </row>
     <row r="128">
       <c r="A128" s="2"/>
@@ -4892,6 +5062,7 @@
       <c r="AB128" s="2"/>
       <c r="AC128" s="2"/>
       <c r="AD128" s="2"/>
+      <c r="AE128" s="2"/>
     </row>
     <row r="129">
       <c r="A129" s="2"/>
@@ -4924,6 +5095,7 @@
       <c r="AB129" s="2"/>
       <c r="AC129" s="2"/>
       <c r="AD129" s="2"/>
+      <c r="AE129" s="2"/>
     </row>
     <row r="130">
       <c r="A130" s="2"/>
@@ -4956,6 +5128,7 @@
       <c r="AB130" s="2"/>
       <c r="AC130" s="2"/>
       <c r="AD130" s="2"/>
+      <c r="AE130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2"/>
@@ -4988,6 +5161,7 @@
       <c r="AB131" s="2"/>
       <c r="AC131" s="2"/>
       <c r="AD131" s="2"/>
+      <c r="AE131" s="2"/>
     </row>
     <row r="132">
       <c r="A132" s="2"/>
@@ -5020,6 +5194,7 @@
       <c r="AB132" s="2"/>
       <c r="AC132" s="2"/>
       <c r="AD132" s="2"/>
+      <c r="AE132" s="2"/>
     </row>
     <row r="133">
       <c r="A133" s="2"/>
@@ -5052,6 +5227,7 @@
       <c r="AB133" s="2"/>
       <c r="AC133" s="2"/>
       <c r="AD133" s="2"/>
+      <c r="AE133" s="2"/>
     </row>
     <row r="134">
       <c r="A134" s="2"/>
@@ -5084,6 +5260,7 @@
       <c r="AB134" s="2"/>
       <c r="AC134" s="2"/>
       <c r="AD134" s="2"/>
+      <c r="AE134" s="2"/>
     </row>
     <row r="135">
       <c r="A135" s="2"/>
@@ -5116,6 +5293,7 @@
       <c r="AB135" s="2"/>
       <c r="AC135" s="2"/>
       <c r="AD135" s="2"/>
+      <c r="AE135" s="2"/>
     </row>
     <row r="136">
       <c r="A136" s="2"/>
@@ -5148,6 +5326,7 @@
       <c r="AB136" s="2"/>
       <c r="AC136" s="2"/>
       <c r="AD136" s="2"/>
+      <c r="AE136" s="2"/>
     </row>
     <row r="137">
       <c r="A137" s="2"/>
@@ -5180,6 +5359,7 @@
       <c r="AB137" s="2"/>
       <c r="AC137" s="2"/>
       <c r="AD137" s="2"/>
+      <c r="AE137" s="2"/>
     </row>
     <row r="138">
       <c r="A138" s="2"/>
@@ -5212,6 +5392,7 @@
       <c r="AB138" s="2"/>
       <c r="AC138" s="2"/>
       <c r="AD138" s="2"/>
+      <c r="AE138" s="2"/>
     </row>
     <row r="139">
       <c r="A139" s="2"/>
@@ -5244,6 +5425,7 @@
       <c r="AB139" s="2"/>
       <c r="AC139" s="2"/>
       <c r="AD139" s="2"/>
+      <c r="AE139" s="2"/>
     </row>
     <row r="140">
       <c r="A140" s="2"/>
@@ -5276,6 +5458,7 @@
       <c r="AB140" s="2"/>
       <c r="AC140" s="2"/>
       <c r="AD140" s="2"/>
+      <c r="AE140" s="2"/>
     </row>
     <row r="141">
       <c r="A141" s="2"/>
@@ -5308,6 +5491,7 @@
       <c r="AB141" s="2"/>
       <c r="AC141" s="2"/>
       <c r="AD141" s="2"/>
+      <c r="AE141" s="2"/>
     </row>
     <row r="142">
       <c r="A142" s="2"/>
@@ -5340,6 +5524,7 @@
       <c r="AB142" s="2"/>
       <c r="AC142" s="2"/>
       <c r="AD142" s="2"/>
+      <c r="AE142" s="2"/>
     </row>
     <row r="143">
       <c r="A143" s="2"/>
@@ -5372,6 +5557,7 @@
       <c r="AB143" s="2"/>
       <c r="AC143" s="2"/>
       <c r="AD143" s="2"/>
+      <c r="AE143" s="2"/>
     </row>
     <row r="144">
       <c r="A144" s="2"/>
@@ -5404,6 +5590,7 @@
       <c r="AB144" s="2"/>
       <c r="AC144" s="2"/>
       <c r="AD144" s="2"/>
+      <c r="AE144" s="2"/>
     </row>
     <row r="145">
       <c r="A145" s="2"/>
@@ -5436,6 +5623,7 @@
       <c r="AB145" s="2"/>
       <c r="AC145" s="2"/>
       <c r="AD145" s="2"/>
+      <c r="AE145" s="2"/>
     </row>
     <row r="146">
       <c r="A146" s="2"/>
@@ -5468,6 +5656,7 @@
       <c r="AB146" s="2"/>
       <c r="AC146" s="2"/>
       <c r="AD146" s="2"/>
+      <c r="AE146" s="2"/>
     </row>
     <row r="147">
       <c r="A147" s="2"/>
@@ -5500,6 +5689,7 @@
       <c r="AB147" s="2"/>
       <c r="AC147" s="2"/>
       <c r="AD147" s="2"/>
+      <c r="AE147" s="2"/>
     </row>
     <row r="148">
       <c r="A148" s="2"/>
@@ -5532,6 +5722,7 @@
       <c r="AB148" s="2"/>
       <c r="AC148" s="2"/>
       <c r="AD148" s="2"/>
+      <c r="AE148" s="2"/>
     </row>
     <row r="149">
       <c r="A149" s="2"/>
@@ -5564,6 +5755,7 @@
       <c r="AB149" s="2"/>
       <c r="AC149" s="2"/>
       <c r="AD149" s="2"/>
+      <c r="AE149" s="2"/>
     </row>
     <row r="150">
       <c r="A150" s="2"/>
@@ -5596,6 +5788,7 @@
       <c r="AB150" s="2"/>
       <c r="AC150" s="2"/>
       <c r="AD150" s="2"/>
+      <c r="AE150" s="2"/>
     </row>
     <row r="151">
       <c r="A151" s="2"/>
@@ -5628,6 +5821,7 @@
       <c r="AB151" s="2"/>
       <c r="AC151" s="2"/>
       <c r="AD151" s="2"/>
+      <c r="AE151" s="2"/>
     </row>
     <row r="152">
       <c r="A152" s="2"/>
@@ -5660,6 +5854,7 @@
       <c r="AB152" s="2"/>
       <c r="AC152" s="2"/>
       <c r="AD152" s="2"/>
+      <c r="AE152" s="2"/>
     </row>
     <row r="153">
       <c r="A153" s="2"/>
@@ -5692,6 +5887,7 @@
       <c r="AB153" s="2"/>
       <c r="AC153" s="2"/>
       <c r="AD153" s="2"/>
+      <c r="AE153" s="2"/>
     </row>
     <row r="154">
       <c r="A154" s="2"/>
@@ -5724,6 +5920,7 @@
       <c r="AB154" s="2"/>
       <c r="AC154" s="2"/>
       <c r="AD154" s="2"/>
+      <c r="AE154" s="2"/>
     </row>
     <row r="155">
       <c r="A155" s="2"/>
@@ -5756,6 +5953,7 @@
       <c r="AB155" s="2"/>
       <c r="AC155" s="2"/>
       <c r="AD155" s="2"/>
+      <c r="AE155" s="2"/>
     </row>
     <row r="156">
       <c r="A156" s="2"/>
@@ -5788,6 +5986,7 @@
       <c r="AB156" s="2"/>
       <c r="AC156" s="2"/>
       <c r="AD156" s="2"/>
+      <c r="AE156" s="2"/>
     </row>
     <row r="157">
       <c r="A157" s="2"/>
@@ -5820,6 +6019,7 @@
       <c r="AB157" s="2"/>
       <c r="AC157" s="2"/>
       <c r="AD157" s="2"/>
+      <c r="AE157" s="2"/>
     </row>
     <row r="158">
       <c r="A158" s="2"/>
@@ -5852,6 +6052,7 @@
       <c r="AB158" s="2"/>
       <c r="AC158" s="2"/>
       <c r="AD158" s="2"/>
+      <c r="AE158" s="2"/>
     </row>
     <row r="159">
       <c r="A159" s="2"/>
@@ -5884,6 +6085,7 @@
       <c r="AB159" s="2"/>
       <c r="AC159" s="2"/>
       <c r="AD159" s="2"/>
+      <c r="AE159" s="2"/>
     </row>
     <row r="160">
       <c r="A160" s="2"/>
@@ -5916,6 +6118,7 @@
       <c r="AB160" s="2"/>
       <c r="AC160" s="2"/>
       <c r="AD160" s="2"/>
+      <c r="AE160" s="2"/>
     </row>
     <row r="161">
       <c r="A161" s="2"/>
@@ -5948,6 +6151,7 @@
       <c r="AB161" s="2"/>
       <c r="AC161" s="2"/>
       <c r="AD161" s="2"/>
+      <c r="AE161" s="2"/>
     </row>
     <row r="162">
       <c r="A162" s="2"/>
@@ -5980,6 +6184,7 @@
       <c r="AB162" s="2"/>
       <c r="AC162" s="2"/>
       <c r="AD162" s="2"/>
+      <c r="AE162" s="2"/>
     </row>
     <row r="163">
       <c r="A163" s="2"/>
@@ -6012,6 +6217,7 @@
       <c r="AB163" s="2"/>
       <c r="AC163" s="2"/>
       <c r="AD163" s="2"/>
+      <c r="AE163" s="2"/>
     </row>
     <row r="164">
       <c r="A164" s="2"/>
@@ -6044,6 +6250,7 @@
       <c r="AB164" s="2"/>
       <c r="AC164" s="2"/>
       <c r="AD164" s="2"/>
+      <c r="AE164" s="2"/>
     </row>
     <row r="165">
       <c r="A165" s="2"/>
@@ -6076,6 +6283,7 @@
       <c r="AB165" s="2"/>
       <c r="AC165" s="2"/>
       <c r="AD165" s="2"/>
+      <c r="AE165" s="2"/>
     </row>
     <row r="166">
       <c r="A166" s="2"/>
@@ -6108,6 +6316,7 @@
       <c r="AB166" s="2"/>
       <c r="AC166" s="2"/>
       <c r="AD166" s="2"/>
+      <c r="AE166" s="2"/>
     </row>
     <row r="167">
       <c r="A167" s="2"/>
@@ -6140,6 +6349,7 @@
       <c r="AB167" s="2"/>
       <c r="AC167" s="2"/>
       <c r="AD167" s="2"/>
+      <c r="AE167" s="2"/>
     </row>
     <row r="168">
       <c r="A168" s="2"/>
@@ -6172,6 +6382,7 @@
       <c r="AB168" s="2"/>
       <c r="AC168" s="2"/>
       <c r="AD168" s="2"/>
+      <c r="AE168" s="2"/>
     </row>
     <row r="169">
       <c r="A169" s="2"/>
@@ -6204,6 +6415,7 @@
       <c r="AB169" s="2"/>
       <c r="AC169" s="2"/>
       <c r="AD169" s="2"/>
+      <c r="AE169" s="2"/>
     </row>
     <row r="170">
       <c r="A170" s="2"/>
@@ -6236,6 +6448,7 @@
       <c r="AB170" s="2"/>
       <c r="AC170" s="2"/>
       <c r="AD170" s="2"/>
+      <c r="AE170" s="2"/>
     </row>
     <row r="171">
       <c r="A171" s="2"/>
@@ -6268,6 +6481,7 @@
       <c r="AB171" s="2"/>
       <c r="AC171" s="2"/>
       <c r="AD171" s="2"/>
+      <c r="AE171" s="2"/>
     </row>
     <row r="172">
       <c r="A172" s="2"/>
@@ -6300,6 +6514,7 @@
       <c r="AB172" s="2"/>
       <c r="AC172" s="2"/>
       <c r="AD172" s="2"/>
+      <c r="AE172" s="2"/>
     </row>
     <row r="173">
       <c r="A173" s="2"/>
@@ -6332,6 +6547,7 @@
       <c r="AB173" s="2"/>
       <c r="AC173" s="2"/>
       <c r="AD173" s="2"/>
+      <c r="AE173" s="2"/>
     </row>
     <row r="174">
       <c r="A174" s="2"/>
@@ -6364,6 +6580,7 @@
       <c r="AB174" s="2"/>
       <c r="AC174" s="2"/>
       <c r="AD174" s="2"/>
+      <c r="AE174" s="2"/>
     </row>
     <row r="175">
       <c r="A175" s="2"/>
@@ -6396,6 +6613,7 @@
       <c r="AB175" s="2"/>
       <c r="AC175" s="2"/>
       <c r="AD175" s="2"/>
+      <c r="AE175" s="2"/>
     </row>
     <row r="176">
       <c r="A176" s="2"/>
@@ -6428,6 +6646,7 @@
       <c r="AB176" s="2"/>
       <c r="AC176" s="2"/>
       <c r="AD176" s="2"/>
+      <c r="AE176" s="2"/>
     </row>
     <row r="177">
       <c r="A177" s="2"/>
@@ -6460,6 +6679,7 @@
       <c r="AB177" s="2"/>
       <c r="AC177" s="2"/>
       <c r="AD177" s="2"/>
+      <c r="AE177" s="2"/>
     </row>
     <row r="178">
       <c r="A178" s="2"/>
@@ -6492,6 +6712,7 @@
       <c r="AB178" s="2"/>
       <c r="AC178" s="2"/>
       <c r="AD178" s="2"/>
+      <c r="AE178" s="2"/>
     </row>
     <row r="179">
       <c r="A179" s="2"/>
@@ -6524,6 +6745,7 @@
       <c r="AB179" s="2"/>
       <c r="AC179" s="2"/>
       <c r="AD179" s="2"/>
+      <c r="AE179" s="2"/>
     </row>
     <row r="180">
       <c r="A180" s="2"/>
@@ -6556,6 +6778,7 @@
       <c r="AB180" s="2"/>
       <c r="AC180" s="2"/>
       <c r="AD180" s="2"/>
+      <c r="AE180" s="2"/>
     </row>
     <row r="181">
       <c r="A181" s="2"/>
@@ -6588,6 +6811,7 @@
       <c r="AB181" s="2"/>
       <c r="AC181" s="2"/>
       <c r="AD181" s="2"/>
+      <c r="AE181" s="2"/>
     </row>
     <row r="182">
       <c r="A182" s="2"/>
@@ -6620,6 +6844,7 @@
       <c r="AB182" s="2"/>
       <c r="AC182" s="2"/>
       <c r="AD182" s="2"/>
+      <c r="AE182" s="2"/>
     </row>
     <row r="183">
       <c r="A183" s="2"/>
@@ -6652,6 +6877,7 @@
       <c r="AB183" s="2"/>
       <c r="AC183" s="2"/>
       <c r="AD183" s="2"/>
+      <c r="AE183" s="2"/>
     </row>
     <row r="184">
       <c r="A184" s="2"/>
@@ -6684,6 +6910,7 @@
       <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
       <c r="AD184" s="2"/>
+      <c r="AE184" s="2"/>
     </row>
     <row r="185">
       <c r="A185" s="2"/>
@@ -6716,6 +6943,7 @@
       <c r="AB185" s="2"/>
       <c r="AC185" s="2"/>
       <c r="AD185" s="2"/>
+      <c r="AE185" s="2"/>
     </row>
     <row r="186">
       <c r="A186" s="2"/>
@@ -6748,6 +6976,7 @@
       <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
       <c r="AD186" s="2"/>
+      <c r="AE186" s="2"/>
     </row>
     <row r="187">
       <c r="A187" s="2"/>
@@ -6780,6 +7009,7 @@
       <c r="AB187" s="2"/>
       <c r="AC187" s="2"/>
       <c r="AD187" s="2"/>
+      <c r="AE187" s="2"/>
     </row>
     <row r="188">
       <c r="A188" s="2"/>
@@ -6812,6 +7042,7 @@
       <c r="AB188" s="2"/>
       <c r="AC188" s="2"/>
       <c r="AD188" s="2"/>
+      <c r="AE188" s="2"/>
     </row>
     <row r="189">
       <c r="A189" s="2"/>
@@ -6844,6 +7075,7 @@
       <c r="AB189" s="2"/>
       <c r="AC189" s="2"/>
       <c r="AD189" s="2"/>
+      <c r="AE189" s="2"/>
     </row>
     <row r="190">
       <c r="A190" s="2"/>
@@ -6876,6 +7108,7 @@
       <c r="AB190" s="2"/>
       <c r="AC190" s="2"/>
       <c r="AD190" s="2"/>
+      <c r="AE190" s="2"/>
     </row>
     <row r="191">
       <c r="A191" s="2"/>
@@ -6908,6 +7141,7 @@
       <c r="AB191" s="2"/>
       <c r="AC191" s="2"/>
       <c r="AD191" s="2"/>
+      <c r="AE191" s="2"/>
     </row>
     <row r="192">
       <c r="A192" s="2"/>
@@ -6940,6 +7174,7 @@
       <c r="AB192" s="2"/>
       <c r="AC192" s="2"/>
       <c r="AD192" s="2"/>
+      <c r="AE192" s="2"/>
     </row>
     <row r="193">
       <c r="A193" s="2"/>
@@ -6972,6 +7207,7 @@
       <c r="AB193" s="2"/>
       <c r="AC193" s="2"/>
       <c r="AD193" s="2"/>
+      <c r="AE193" s="2"/>
     </row>
     <row r="194">
       <c r="A194" s="2"/>
@@ -7004,6 +7240,7 @@
       <c r="AB194" s="2"/>
       <c r="AC194" s="2"/>
       <c r="AD194" s="2"/>
+      <c r="AE194" s="2"/>
     </row>
     <row r="195">
       <c r="A195" s="2"/>
@@ -7036,6 +7273,7 @@
       <c r="AB195" s="2"/>
       <c r="AC195" s="2"/>
       <c r="AD195" s="2"/>
+      <c r="AE195" s="2"/>
     </row>
     <row r="196">
       <c r="A196" s="2"/>
@@ -7068,6 +7306,7 @@
       <c r="AB196" s="2"/>
       <c r="AC196" s="2"/>
       <c r="AD196" s="2"/>
+      <c r="AE196" s="2"/>
     </row>
     <row r="197">
       <c r="A197" s="2"/>
@@ -7100,6 +7339,7 @@
       <c r="AB197" s="2"/>
       <c r="AC197" s="2"/>
       <c r="AD197" s="2"/>
+      <c r="AE197" s="2"/>
     </row>
     <row r="198">
       <c r="A198" s="2"/>
@@ -7132,6 +7372,7 @@
       <c r="AB198" s="2"/>
       <c r="AC198" s="2"/>
       <c r="AD198" s="2"/>
+      <c r="AE198" s="2"/>
     </row>
     <row r="199">
       <c r="A199" s="2"/>
@@ -7164,6 +7405,7 @@
       <c r="AB199" s="2"/>
       <c r="AC199" s="2"/>
       <c r="AD199" s="2"/>
+      <c r="AE199" s="2"/>
     </row>
     <row r="200">
       <c r="A200" s="2"/>
@@ -7196,6 +7438,7 @@
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
       <c r="AD200" s="2"/>
+      <c r="AE200" s="2"/>
     </row>
     <row r="201">
       <c r="A201" s="2"/>
@@ -7228,6 +7471,7 @@
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
       <c r="AD201" s="2"/>
+      <c r="AE201" s="2"/>
     </row>
     <row r="202">
       <c r="A202" s="2"/>
@@ -7260,6 +7504,7 @@
       <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
       <c r="AD202" s="2"/>
+      <c r="AE202" s="2"/>
     </row>
     <row r="203">
       <c r="A203" s="2"/>
@@ -7292,6 +7537,7 @@
       <c r="AB203" s="2"/>
       <c r="AC203" s="2"/>
       <c r="AD203" s="2"/>
+      <c r="AE203" s="2"/>
     </row>
     <row r="204">
       <c r="A204" s="2"/>
@@ -7324,6 +7570,7 @@
       <c r="AB204" s="2"/>
       <c r="AC204" s="2"/>
       <c r="AD204" s="2"/>
+      <c r="AE204" s="2"/>
     </row>
     <row r="205">
       <c r="A205" s="2"/>
@@ -7356,6 +7603,7 @@
       <c r="AB205" s="2"/>
       <c r="AC205" s="2"/>
       <c r="AD205" s="2"/>
+      <c r="AE205" s="2"/>
     </row>
     <row r="206">
       <c r="A206" s="2"/>
@@ -7388,6 +7636,7 @@
       <c r="AB206" s="2"/>
       <c r="AC206" s="2"/>
       <c r="AD206" s="2"/>
+      <c r="AE206" s="2"/>
     </row>
     <row r="207">
       <c r="A207" s="2"/>
@@ -7420,6 +7669,7 @@
       <c r="AB207" s="2"/>
       <c r="AC207" s="2"/>
       <c r="AD207" s="2"/>
+      <c r="AE207" s="2"/>
     </row>
     <row r="208">
       <c r="A208" s="2"/>
@@ -7452,6 +7702,7 @@
       <c r="AB208" s="2"/>
       <c r="AC208" s="2"/>
       <c r="AD208" s="2"/>
+      <c r="AE208" s="2"/>
     </row>
     <row r="209">
       <c r="A209" s="2"/>
@@ -7484,6 +7735,7 @@
       <c r="AB209" s="2"/>
       <c r="AC209" s="2"/>
       <c r="AD209" s="2"/>
+      <c r="AE209" s="2"/>
     </row>
     <row r="210">
       <c r="A210" s="2"/>
@@ -7516,6 +7768,7 @@
       <c r="AB210" s="2"/>
       <c r="AC210" s="2"/>
       <c r="AD210" s="2"/>
+      <c r="AE210" s="2"/>
     </row>
     <row r="211">
       <c r="A211" s="2"/>
@@ -7548,6 +7801,7 @@
       <c r="AB211" s="2"/>
       <c r="AC211" s="2"/>
       <c r="AD211" s="2"/>
+      <c r="AE211" s="2"/>
     </row>
     <row r="212">
       <c r="A212" s="2"/>
@@ -7580,6 +7834,7 @@
       <c r="AB212" s="2"/>
       <c r="AC212" s="2"/>
       <c r="AD212" s="2"/>
+      <c r="AE212" s="2"/>
     </row>
     <row r="213">
       <c r="A213" s="2"/>
@@ -7612,6 +7867,7 @@
       <c r="AB213" s="2"/>
       <c r="AC213" s="2"/>
       <c r="AD213" s="2"/>
+      <c r="AE213" s="2"/>
     </row>
     <row r="214">
       <c r="A214" s="2"/>
@@ -7644,6 +7900,7 @@
       <c r="AB214" s="2"/>
       <c r="AC214" s="2"/>
       <c r="AD214" s="2"/>
+      <c r="AE214" s="2"/>
     </row>
     <row r="215">
       <c r="A215" s="2"/>
@@ -7676,6 +7933,7 @@
       <c r="AB215" s="2"/>
       <c r="AC215" s="2"/>
       <c r="AD215" s="2"/>
+      <c r="AE215" s="2"/>
     </row>
     <row r="216">
       <c r="A216" s="2"/>
@@ -7708,6 +7966,7 @@
       <c r="AB216" s="2"/>
       <c r="AC216" s="2"/>
       <c r="AD216" s="2"/>
+      <c r="AE216" s="2"/>
     </row>
     <row r="217">
       <c r="A217" s="2"/>
@@ -7740,6 +7999,7 @@
       <c r="AB217" s="2"/>
       <c r="AC217" s="2"/>
       <c r="AD217" s="2"/>
+      <c r="AE217" s="2"/>
     </row>
     <row r="218">
       <c r="A218" s="2"/>
@@ -7772,6 +8032,7 @@
       <c r="AB218" s="2"/>
       <c r="AC218" s="2"/>
       <c r="AD218" s="2"/>
+      <c r="AE218" s="2"/>
     </row>
     <row r="219">
       <c r="A219" s="2"/>
@@ -7804,6 +8065,7 @@
       <c r="AB219" s="2"/>
       <c r="AC219" s="2"/>
       <c r="AD219" s="2"/>
+      <c r="AE219" s="2"/>
     </row>
     <row r="220">
       <c r="A220" s="2"/>
@@ -7836,6 +8098,7 @@
       <c r="AB220" s="2"/>
       <c r="AC220" s="2"/>
       <c r="AD220" s="2"/>
+      <c r="AE220" s="2"/>
     </row>
     <row r="221">
       <c r="A221" s="2"/>
@@ -7868,6 +8131,7 @@
       <c r="AB221" s="2"/>
       <c r="AC221" s="2"/>
       <c r="AD221" s="2"/>
+      <c r="AE221" s="2"/>
     </row>
     <row r="222">
       <c r="A222" s="2"/>
@@ -7900,6 +8164,7 @@
       <c r="AB222" s="2"/>
       <c r="AC222" s="2"/>
       <c r="AD222" s="2"/>
+      <c r="AE222" s="2"/>
     </row>
     <row r="223">
       <c r="A223" s="2"/>
@@ -7932,6 +8197,7 @@
       <c r="AB223" s="2"/>
       <c r="AC223" s="2"/>
       <c r="AD223" s="2"/>
+      <c r="AE223" s="2"/>
     </row>
     <row r="224">
       <c r="A224" s="2"/>
@@ -7964,6 +8230,7 @@
       <c r="AB224" s="2"/>
       <c r="AC224" s="2"/>
       <c r="AD224" s="2"/>
+      <c r="AE224" s="2"/>
     </row>
     <row r="225">
       <c r="A225" s="2"/>
@@ -7996,6 +8263,7 @@
       <c r="AB225" s="2"/>
       <c r="AC225" s="2"/>
       <c r="AD225" s="2"/>
+      <c r="AE225" s="2"/>
     </row>
     <row r="226">
       <c r="A226" s="2"/>
@@ -8028,6 +8296,7 @@
       <c r="AB226" s="2"/>
       <c r="AC226" s="2"/>
       <c r="AD226" s="2"/>
+      <c r="AE226" s="2"/>
     </row>
     <row r="227">
       <c r="A227" s="2"/>
@@ -8060,6 +8329,7 @@
       <c r="AB227" s="2"/>
       <c r="AC227" s="2"/>
       <c r="AD227" s="2"/>
+      <c r="AE227" s="2"/>
     </row>
     <row r="228">
       <c r="A228" s="2"/>
@@ -8092,6 +8362,7 @@
       <c r="AB228" s="2"/>
       <c r="AC228" s="2"/>
       <c r="AD228" s="2"/>
+      <c r="AE228" s="2"/>
     </row>
     <row r="229">
       <c r="A229" s="2"/>
@@ -8124,6 +8395,7 @@
       <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
       <c r="AD229" s="2"/>
+      <c r="AE229" s="2"/>
     </row>
     <row r="230">
       <c r="A230" s="2"/>
@@ -8156,6 +8428,7 @@
       <c r="AB230" s="2"/>
       <c r="AC230" s="2"/>
       <c r="AD230" s="2"/>
+      <c r="AE230" s="2"/>
     </row>
     <row r="231">
       <c r="A231" s="2"/>
@@ -8188,6 +8461,7 @@
       <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
       <c r="AD231" s="2"/>
+      <c r="AE231" s="2"/>
     </row>
     <row r="232">
       <c r="A232" s="2"/>
@@ -8220,6 +8494,7 @@
       <c r="AB232" s="2"/>
       <c r="AC232" s="2"/>
       <c r="AD232" s="2"/>
+      <c r="AE232" s="2"/>
     </row>
     <row r="233">
       <c r="A233" s="2"/>
@@ -8252,6 +8527,7 @@
       <c r="AB233" s="2"/>
       <c r="AC233" s="2"/>
       <c r="AD233" s="2"/>
+      <c r="AE233" s="2"/>
     </row>
     <row r="234">
       <c r="A234" s="2"/>
@@ -8284,6 +8560,7 @@
       <c r="AB234" s="2"/>
       <c r="AC234" s="2"/>
       <c r="AD234" s="2"/>
+      <c r="AE234" s="2"/>
     </row>
     <row r="235">
       <c r="A235" s="2"/>
@@ -8316,6 +8593,7 @@
       <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
       <c r="AD235" s="2"/>
+      <c r="AE235" s="2"/>
     </row>
     <row r="236">
       <c r="A236" s="2"/>
@@ -8348,6 +8626,7 @@
       <c r="AB236" s="2"/>
       <c r="AC236" s="2"/>
       <c r="AD236" s="2"/>
+      <c r="AE236" s="2"/>
     </row>
     <row r="237">
       <c r="A237" s="2"/>
@@ -8380,6 +8659,7 @@
       <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
       <c r="AD237" s="2"/>
+      <c r="AE237" s="2"/>
     </row>
     <row r="238">
       <c r="A238" s="2"/>
@@ -8412,6 +8692,7 @@
       <c r="AB238" s="2"/>
       <c r="AC238" s="2"/>
       <c r="AD238" s="2"/>
+      <c r="AE238" s="2"/>
     </row>
     <row r="239">
       <c r="A239" s="2"/>
@@ -8444,6 +8725,7 @@
       <c r="AB239" s="2"/>
       <c r="AC239" s="2"/>
       <c r="AD239" s="2"/>
+      <c r="AE239" s="2"/>
     </row>
     <row r="240">
       <c r="A240" s="2"/>
@@ -8476,6 +8758,7 @@
       <c r="AB240" s="2"/>
       <c r="AC240" s="2"/>
       <c r="AD240" s="2"/>
+      <c r="AE240" s="2"/>
     </row>
     <row r="241">
       <c r="A241" s="2"/>
@@ -8508,6 +8791,7 @@
       <c r="AB241" s="2"/>
       <c r="AC241" s="2"/>
       <c r="AD241" s="2"/>
+      <c r="AE241" s="2"/>
     </row>
     <row r="242">
       <c r="A242" s="2"/>
@@ -8540,6 +8824,7 @@
       <c r="AB242" s="2"/>
       <c r="AC242" s="2"/>
       <c r="AD242" s="2"/>
+      <c r="AE242" s="2"/>
     </row>
     <row r="243">
       <c r="A243" s="2"/>
@@ -8572,6 +8857,7 @@
       <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
       <c r="AD243" s="2"/>
+      <c r="AE243" s="2"/>
     </row>
     <row r="244">
       <c r="A244" s="2"/>
@@ -8604,6 +8890,7 @@
       <c r="AB244" s="2"/>
       <c r="AC244" s="2"/>
       <c r="AD244" s="2"/>
+      <c r="AE244" s="2"/>
     </row>
     <row r="245">
       <c r="A245" s="2"/>
@@ -8636,6 +8923,7 @@
       <c r="AB245" s="2"/>
       <c r="AC245" s="2"/>
       <c r="AD245" s="2"/>
+      <c r="AE245" s="2"/>
     </row>
     <row r="246">
       <c r="A246" s="2"/>
@@ -8668,6 +8956,7 @@
       <c r="AB246" s="2"/>
       <c r="AC246" s="2"/>
       <c r="AD246" s="2"/>
+      <c r="AE246" s="2"/>
     </row>
     <row r="247">
       <c r="A247" s="2"/>
@@ -8700,6 +8989,7 @@
       <c r="AB247" s="2"/>
       <c r="AC247" s="2"/>
       <c r="AD247" s="2"/>
+      <c r="AE247" s="2"/>
     </row>
     <row r="248">
       <c r="A248" s="2"/>
@@ -8732,6 +9022,7 @@
       <c r="AB248" s="2"/>
       <c r="AC248" s="2"/>
       <c r="AD248" s="2"/>
+      <c r="AE248" s="2"/>
     </row>
     <row r="249">
       <c r="A249" s="2"/>
@@ -8764,6 +9055,7 @@
       <c r="AB249" s="2"/>
       <c r="AC249" s="2"/>
       <c r="AD249" s="2"/>
+      <c r="AE249" s="2"/>
     </row>
     <row r="250">
       <c r="A250" s="2"/>
@@ -8796,6 +9088,7 @@
       <c r="AB250" s="2"/>
       <c r="AC250" s="2"/>
       <c r="AD250" s="2"/>
+      <c r="AE250" s="2"/>
     </row>
     <row r="251">
       <c r="A251" s="2"/>
@@ -8828,6 +9121,7 @@
       <c r="AB251" s="2"/>
       <c r="AC251" s="2"/>
       <c r="AD251" s="2"/>
+      <c r="AE251" s="2"/>
     </row>
     <row r="252">
       <c r="A252" s="2"/>
@@ -8860,6 +9154,7 @@
       <c r="AB252" s="2"/>
       <c r="AC252" s="2"/>
       <c r="AD252" s="2"/>
+      <c r="AE252" s="2"/>
     </row>
     <row r="253">
       <c r="A253" s="2"/>
@@ -8892,6 +9187,7 @@
       <c r="AB253" s="2"/>
       <c r="AC253" s="2"/>
       <c r="AD253" s="2"/>
+      <c r="AE253" s="2"/>
     </row>
     <row r="254">
       <c r="A254" s="2"/>
@@ -8924,6 +9220,7 @@
       <c r="AB254" s="2"/>
       <c r="AC254" s="2"/>
       <c r="AD254" s="2"/>
+      <c r="AE254" s="2"/>
     </row>
     <row r="255">
       <c r="A255" s="2"/>
@@ -8956,6 +9253,7 @@
       <c r="AB255" s="2"/>
       <c r="AC255" s="2"/>
       <c r="AD255" s="2"/>
+      <c r="AE255" s="2"/>
     </row>
     <row r="256">
       <c r="A256" s="2"/>
@@ -8988,6 +9286,7 @@
       <c r="AB256" s="2"/>
       <c r="AC256" s="2"/>
       <c r="AD256" s="2"/>
+      <c r="AE256" s="2"/>
     </row>
     <row r="257">
       <c r="A257" s="2"/>
@@ -9020,6 +9319,7 @@
       <c r="AB257" s="2"/>
       <c r="AC257" s="2"/>
       <c r="AD257" s="2"/>
+      <c r="AE257" s="2"/>
     </row>
     <row r="258">
       <c r="A258" s="2"/>
@@ -9052,6 +9352,7 @@
       <c r="AB258" s="2"/>
       <c r="AC258" s="2"/>
       <c r="AD258" s="2"/>
+      <c r="AE258" s="2"/>
     </row>
     <row r="259">
       <c r="A259" s="2"/>
@@ -9084,6 +9385,7 @@
       <c r="AB259" s="2"/>
       <c r="AC259" s="2"/>
       <c r="AD259" s="2"/>
+      <c r="AE259" s="2"/>
     </row>
     <row r="260">
       <c r="A260" s="2"/>
@@ -9116,6 +9418,7 @@
       <c r="AB260" s="2"/>
       <c r="AC260" s="2"/>
       <c r="AD260" s="2"/>
+      <c r="AE260" s="2"/>
     </row>
     <row r="261">
       <c r="A261" s="2"/>
@@ -9148,6 +9451,7 @@
       <c r="AB261" s="2"/>
       <c r="AC261" s="2"/>
       <c r="AD261" s="2"/>
+      <c r="AE261" s="2"/>
     </row>
     <row r="262">
       <c r="A262" s="2"/>
@@ -9180,6 +9484,7 @@
       <c r="AB262" s="2"/>
       <c r="AC262" s="2"/>
       <c r="AD262" s="2"/>
+      <c r="AE262" s="2"/>
     </row>
     <row r="263">
       <c r="A263" s="2"/>
@@ -9212,6 +9517,7 @@
       <c r="AB263" s="2"/>
       <c r="AC263" s="2"/>
       <c r="AD263" s="2"/>
+      <c r="AE263" s="2"/>
     </row>
     <row r="264">
       <c r="A264" s="2"/>
@@ -9244,6 +9550,7 @@
       <c r="AB264" s="2"/>
       <c r="AC264" s="2"/>
       <c r="AD264" s="2"/>
+      <c r="AE264" s="2"/>
     </row>
     <row r="265">
       <c r="A265" s="2"/>
@@ -9276,6 +9583,7 @@
       <c r="AB265" s="2"/>
       <c r="AC265" s="2"/>
       <c r="AD265" s="2"/>
+      <c r="AE265" s="2"/>
     </row>
     <row r="266">
       <c r="A266" s="2"/>
@@ -9308,6 +9616,7 @@
       <c r="AB266" s="2"/>
       <c r="AC266" s="2"/>
       <c r="AD266" s="2"/>
+      <c r="AE266" s="2"/>
     </row>
     <row r="267">
       <c r="A267" s="2"/>
@@ -9340,6 +9649,7 @@
       <c r="AB267" s="2"/>
       <c r="AC267" s="2"/>
       <c r="AD267" s="2"/>
+      <c r="AE267" s="2"/>
     </row>
     <row r="268">
       <c r="A268" s="2"/>
@@ -9372,6 +9682,7 @@
       <c r="AB268" s="2"/>
       <c r="AC268" s="2"/>
       <c r="AD268" s="2"/>
+      <c r="AE268" s="2"/>
     </row>
     <row r="269">
       <c r="A269" s="2"/>
@@ -9404,6 +9715,7 @@
       <c r="AB269" s="2"/>
       <c r="AC269" s="2"/>
       <c r="AD269" s="2"/>
+      <c r="AE269" s="2"/>
     </row>
     <row r="270">
       <c r="A270" s="2"/>
@@ -9436,6 +9748,7 @@
       <c r="AB270" s="2"/>
       <c r="AC270" s="2"/>
       <c r="AD270" s="2"/>
+      <c r="AE270" s="2"/>
     </row>
     <row r="271">
       <c r="A271" s="2"/>
@@ -9468,6 +9781,7 @@
       <c r="AB271" s="2"/>
       <c r="AC271" s="2"/>
       <c r="AD271" s="2"/>
+      <c r="AE271" s="2"/>
     </row>
     <row r="272">
       <c r="A272" s="2"/>
@@ -9500,6 +9814,7 @@
       <c r="AB272" s="2"/>
       <c r="AC272" s="2"/>
       <c r="AD272" s="2"/>
+      <c r="AE272" s="2"/>
     </row>
     <row r="273">
       <c r="A273" s="2"/>
@@ -9532,6 +9847,7 @@
       <c r="AB273" s="2"/>
       <c r="AC273" s="2"/>
       <c r="AD273" s="2"/>
+      <c r="AE273" s="2"/>
     </row>
     <row r="274">
       <c r="A274" s="2"/>
@@ -9564,6 +9880,7 @@
       <c r="AB274" s="2"/>
       <c r="AC274" s="2"/>
       <c r="AD274" s="2"/>
+      <c r="AE274" s="2"/>
     </row>
     <row r="275">
       <c r="A275" s="2"/>
@@ -9596,6 +9913,7 @@
       <c r="AB275" s="2"/>
       <c r="AC275" s="2"/>
       <c r="AD275" s="2"/>
+      <c r="AE275" s="2"/>
     </row>
     <row r="276">
       <c r="A276" s="2"/>
@@ -9628,6 +9946,7 @@
       <c r="AB276" s="2"/>
       <c r="AC276" s="2"/>
       <c r="AD276" s="2"/>
+      <c r="AE276" s="2"/>
     </row>
     <row r="277">
       <c r="A277" s="2"/>
@@ -9660,6 +9979,7 @@
       <c r="AB277" s="2"/>
       <c r="AC277" s="2"/>
       <c r="AD277" s="2"/>
+      <c r="AE277" s="2"/>
     </row>
     <row r="278">
       <c r="A278" s="2"/>
@@ -9692,6 +10012,7 @@
       <c r="AB278" s="2"/>
       <c r="AC278" s="2"/>
       <c r="AD278" s="2"/>
+      <c r="AE278" s="2"/>
     </row>
     <row r="279">
       <c r="A279" s="2"/>
@@ -9724,6 +10045,7 @@
       <c r="AB279" s="2"/>
       <c r="AC279" s="2"/>
       <c r="AD279" s="2"/>
+      <c r="AE279" s="2"/>
     </row>
     <row r="280">
       <c r="A280" s="2"/>
@@ -9756,6 +10078,7 @@
       <c r="AB280" s="2"/>
       <c r="AC280" s="2"/>
       <c r="AD280" s="2"/>
+      <c r="AE280" s="2"/>
     </row>
     <row r="281">
       <c r="A281" s="2"/>
@@ -9788,6 +10111,7 @@
       <c r="AB281" s="2"/>
       <c r="AC281" s="2"/>
       <c r="AD281" s="2"/>
+      <c r="AE281" s="2"/>
     </row>
     <row r="282">
       <c r="A282" s="2"/>
@@ -9820,6 +10144,7 @@
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
       <c r="AD282" s="2"/>
+      <c r="AE282" s="2"/>
     </row>
     <row r="283">
       <c r="A283" s="2"/>
@@ -9852,6 +10177,7 @@
       <c r="AB283" s="2"/>
       <c r="AC283" s="2"/>
       <c r="AD283" s="2"/>
+      <c r="AE283" s="2"/>
     </row>
     <row r="284">
       <c r="A284" s="2"/>
@@ -9884,6 +10210,7 @@
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
       <c r="AD284" s="2"/>
+      <c r="AE284" s="2"/>
     </row>
     <row r="285">
       <c r="A285" s="2"/>
@@ -9916,6 +10243,7 @@
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
       <c r="AD285" s="2"/>
+      <c r="AE285" s="2"/>
     </row>
     <row r="286">
       <c r="A286" s="2"/>
@@ -9948,6 +10276,7 @@
       <c r="AB286" s="2"/>
       <c r="AC286" s="2"/>
       <c r="AD286" s="2"/>
+      <c r="AE286" s="2"/>
     </row>
     <row r="287">
       <c r="A287" s="2"/>
@@ -9980,6 +10309,7 @@
       <c r="AB287" s="2"/>
       <c r="AC287" s="2"/>
       <c r="AD287" s="2"/>
+      <c r="AE287" s="2"/>
     </row>
     <row r="288">
       <c r="A288" s="2"/>
@@ -10012,6 +10342,7 @@
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
       <c r="AD288" s="2"/>
+      <c r="AE288" s="2"/>
     </row>
     <row r="289">
       <c r="A289" s="2"/>
@@ -10044,6 +10375,7 @@
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
       <c r="AD289" s="2"/>
+      <c r="AE289" s="2"/>
     </row>
     <row r="290">
       <c r="A290" s="2"/>
@@ -10076,6 +10408,7 @@
       <c r="AB290" s="2"/>
       <c r="AC290" s="2"/>
       <c r="AD290" s="2"/>
+      <c r="AE290" s="2"/>
     </row>
     <row r="291">
       <c r="A291" s="2"/>
@@ -10108,6 +10441,7 @@
       <c r="AB291" s="2"/>
       <c r="AC291" s="2"/>
       <c r="AD291" s="2"/>
+      <c r="AE291" s="2"/>
     </row>
     <row r="292">
       <c r="A292" s="2"/>
@@ -10140,6 +10474,7 @@
       <c r="AB292" s="2"/>
       <c r="AC292" s="2"/>
       <c r="AD292" s="2"/>
+      <c r="AE292" s="2"/>
     </row>
     <row r="293">
       <c r="A293" s="2"/>
@@ -10172,6 +10507,7 @@
       <c r="AB293" s="2"/>
       <c r="AC293" s="2"/>
       <c r="AD293" s="2"/>
+      <c r="AE293" s="2"/>
     </row>
     <row r="294">
       <c r="A294" s="2"/>
@@ -10204,6 +10540,7 @@
       <c r="AB294" s="2"/>
       <c r="AC294" s="2"/>
       <c r="AD294" s="2"/>
+      <c r="AE294" s="2"/>
     </row>
     <row r="295">
       <c r="A295" s="2"/>
@@ -10236,6 +10573,7 @@
       <c r="AB295" s="2"/>
       <c r="AC295" s="2"/>
       <c r="AD295" s="2"/>
+      <c r="AE295" s="2"/>
     </row>
     <row r="296">
       <c r="A296" s="2"/>
@@ -10268,6 +10606,7 @@
       <c r="AB296" s="2"/>
       <c r="AC296" s="2"/>
       <c r="AD296" s="2"/>
+      <c r="AE296" s="2"/>
     </row>
     <row r="297">
       <c r="A297" s="2"/>
@@ -10300,6 +10639,7 @@
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
       <c r="AD297" s="2"/>
+      <c r="AE297" s="2"/>
     </row>
     <row r="298">
       <c r="A298" s="2"/>
@@ -10332,6 +10672,7 @@
       <c r="AB298" s="2"/>
       <c r="AC298" s="2"/>
       <c r="AD298" s="2"/>
+      <c r="AE298" s="2"/>
     </row>
     <row r="299">
       <c r="A299" s="2"/>
@@ -10364,6 +10705,7 @@
       <c r="AB299" s="2"/>
       <c r="AC299" s="2"/>
       <c r="AD299" s="2"/>
+      <c r="AE299" s="2"/>
     </row>
     <row r="300">
       <c r="A300" s="2"/>
@@ -10396,6 +10738,7 @@
       <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
       <c r="AD300" s="2"/>
+      <c r="AE300" s="2"/>
     </row>
     <row r="301">
       <c r="A301" s="2"/>
@@ -10428,6 +10771,7 @@
       <c r="AB301" s="2"/>
       <c r="AC301" s="2"/>
       <c r="AD301" s="2"/>
+      <c r="AE301" s="2"/>
     </row>
     <row r="302">
       <c r="A302" s="2"/>
@@ -10460,6 +10804,7 @@
       <c r="AB302" s="2"/>
       <c r="AC302" s="2"/>
       <c r="AD302" s="2"/>
+      <c r="AE302" s="2"/>
     </row>
     <row r="303">
       <c r="A303" s="2"/>
@@ -10492,6 +10837,7 @@
       <c r="AB303" s="2"/>
       <c r="AC303" s="2"/>
       <c r="AD303" s="2"/>
+      <c r="AE303" s="2"/>
     </row>
     <row r="304">
       <c r="A304" s="2"/>
@@ -10524,6 +10870,7 @@
       <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
       <c r="AD304" s="2"/>
+      <c r="AE304" s="2"/>
     </row>
     <row r="305">
       <c r="A305" s="2"/>
@@ -10556,6 +10903,7 @@
       <c r="AB305" s="2"/>
       <c r="AC305" s="2"/>
       <c r="AD305" s="2"/>
+      <c r="AE305" s="2"/>
     </row>
     <row r="306">
       <c r="A306" s="2"/>
@@ -10588,6 +10936,7 @@
       <c r="AB306" s="2"/>
       <c r="AC306" s="2"/>
       <c r="AD306" s="2"/>
+      <c r="AE306" s="2"/>
     </row>
     <row r="307">
       <c r="A307" s="2"/>
@@ -10620,6 +10969,7 @@
       <c r="AB307" s="2"/>
       <c r="AC307" s="2"/>
       <c r="AD307" s="2"/>
+      <c r="AE307" s="2"/>
     </row>
     <row r="308">
       <c r="A308" s="2"/>
@@ -10652,6 +11002,7 @@
       <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
       <c r="AD308" s="2"/>
+      <c r="AE308" s="2"/>
     </row>
     <row r="309">
       <c r="A309" s="2"/>
@@ -10684,6 +11035,7 @@
       <c r="AB309" s="2"/>
       <c r="AC309" s="2"/>
       <c r="AD309" s="2"/>
+      <c r="AE309" s="2"/>
     </row>
     <row r="310">
       <c r="A310" s="2"/>
@@ -10716,6 +11068,7 @@
       <c r="AB310" s="2"/>
       <c r="AC310" s="2"/>
       <c r="AD310" s="2"/>
+      <c r="AE310" s="2"/>
     </row>
     <row r="311">
       <c r="A311" s="2"/>
@@ -10748,6 +11101,7 @@
       <c r="AB311" s="2"/>
       <c r="AC311" s="2"/>
       <c r="AD311" s="2"/>
+      <c r="AE311" s="2"/>
     </row>
     <row r="312">
       <c r="A312" s="2"/>
@@ -10780,6 +11134,7 @@
       <c r="AB312" s="2"/>
       <c r="AC312" s="2"/>
       <c r="AD312" s="2"/>
+      <c r="AE312" s="2"/>
     </row>
     <row r="313">
       <c r="A313" s="2"/>
@@ -10812,6 +11167,7 @@
       <c r="AB313" s="2"/>
       <c r="AC313" s="2"/>
       <c r="AD313" s="2"/>
+      <c r="AE313" s="2"/>
     </row>
     <row r="314">
       <c r="A314" s="2"/>
@@ -10844,6 +11200,7 @@
       <c r="AB314" s="2"/>
       <c r="AC314" s="2"/>
       <c r="AD314" s="2"/>
+      <c r="AE314" s="2"/>
     </row>
     <row r="315">
       <c r="A315" s="2"/>
@@ -10876,6 +11233,7 @@
       <c r="AB315" s="2"/>
       <c r="AC315" s="2"/>
       <c r="AD315" s="2"/>
+      <c r="AE315" s="2"/>
     </row>
     <row r="316">
       <c r="A316" s="2"/>
@@ -10908,6 +11266,7 @@
       <c r="AB316" s="2"/>
       <c r="AC316" s="2"/>
       <c r="AD316" s="2"/>
+      <c r="AE316" s="2"/>
     </row>
     <row r="317">
       <c r="A317" s="2"/>
@@ -10940,6 +11299,7 @@
       <c r="AB317" s="2"/>
       <c r="AC317" s="2"/>
       <c r="AD317" s="2"/>
+      <c r="AE317" s="2"/>
     </row>
     <row r="318">
       <c r="A318" s="2"/>
@@ -10972,6 +11332,7 @@
       <c r="AB318" s="2"/>
       <c r="AC318" s="2"/>
       <c r="AD318" s="2"/>
+      <c r="AE318" s="2"/>
     </row>
     <row r="319">
       <c r="A319" s="2"/>
@@ -11004,6 +11365,7 @@
       <c r="AB319" s="2"/>
       <c r="AC319" s="2"/>
       <c r="AD319" s="2"/>
+      <c r="AE319" s="2"/>
     </row>
     <row r="320">
       <c r="A320" s="2"/>
@@ -11036,6 +11398,7 @@
       <c r="AB320" s="2"/>
       <c r="AC320" s="2"/>
       <c r="AD320" s="2"/>
+      <c r="AE320" s="2"/>
     </row>
     <row r="321">
       <c r="A321" s="2"/>
@@ -11068,6 +11431,7 @@
       <c r="AB321" s="2"/>
       <c r="AC321" s="2"/>
       <c r="AD321" s="2"/>
+      <c r="AE321" s="2"/>
     </row>
     <row r="322">
       <c r="A322" s="2"/>
@@ -11100,6 +11464,7 @@
       <c r="AB322" s="2"/>
       <c r="AC322" s="2"/>
       <c r="AD322" s="2"/>
+      <c r="AE322" s="2"/>
     </row>
     <row r="323">
       <c r="A323" s="2"/>
@@ -11132,6 +11497,7 @@
       <c r="AB323" s="2"/>
       <c r="AC323" s="2"/>
       <c r="AD323" s="2"/>
+      <c r="AE323" s="2"/>
     </row>
     <row r="324">
       <c r="A324" s="2"/>
@@ -11164,6 +11530,7 @@
       <c r="AB324" s="2"/>
       <c r="AC324" s="2"/>
       <c r="AD324" s="2"/>
+      <c r="AE324" s="2"/>
     </row>
     <row r="325">
       <c r="A325" s="2"/>
@@ -11196,6 +11563,7 @@
       <c r="AB325" s="2"/>
       <c r="AC325" s="2"/>
       <c r="AD325" s="2"/>
+      <c r="AE325" s="2"/>
     </row>
     <row r="326">
       <c r="A326" s="2"/>
@@ -11228,6 +11596,7 @@
       <c r="AB326" s="2"/>
       <c r="AC326" s="2"/>
       <c r="AD326" s="2"/>
+      <c r="AE326" s="2"/>
     </row>
     <row r="327">
       <c r="A327" s="2"/>
@@ -11260,6 +11629,7 @@
       <c r="AB327" s="2"/>
       <c r="AC327" s="2"/>
       <c r="AD327" s="2"/>
+      <c r="AE327" s="2"/>
     </row>
     <row r="328">
       <c r="A328" s="2"/>
@@ -11292,6 +11662,7 @@
       <c r="AB328" s="2"/>
       <c r="AC328" s="2"/>
       <c r="AD328" s="2"/>
+      <c r="AE328" s="2"/>
     </row>
     <row r="329">
       <c r="A329" s="2"/>
@@ -11324,6 +11695,7 @@
       <c r="AB329" s="2"/>
       <c r="AC329" s="2"/>
       <c r="AD329" s="2"/>
+      <c r="AE329" s="2"/>
     </row>
     <row r="330">
       <c r="A330" s="2"/>
@@ -11356,6 +11728,7 @@
       <c r="AB330" s="2"/>
       <c r="AC330" s="2"/>
       <c r="AD330" s="2"/>
+      <c r="AE330" s="2"/>
     </row>
     <row r="331">
       <c r="A331" s="2"/>
@@ -11388,6 +11761,7 @@
       <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
       <c r="AD331" s="2"/>
+      <c r="AE331" s="2"/>
     </row>
     <row r="332">
       <c r="A332" s="2"/>
@@ -11420,6 +11794,7 @@
       <c r="AB332" s="2"/>
       <c r="AC332" s="2"/>
       <c r="AD332" s="2"/>
+      <c r="AE332" s="2"/>
     </row>
     <row r="333">
       <c r="A333" s="2"/>
@@ -11452,6 +11827,7 @@
       <c r="AB333" s="2"/>
       <c r="AC333" s="2"/>
       <c r="AD333" s="2"/>
+      <c r="AE333" s="2"/>
     </row>
     <row r="334">
       <c r="A334" s="2"/>
@@ -11484,6 +11860,7 @@
       <c r="AB334" s="2"/>
       <c r="AC334" s="2"/>
       <c r="AD334" s="2"/>
+      <c r="AE334" s="2"/>
     </row>
     <row r="335">
       <c r="A335" s="2"/>
@@ -11516,6 +11893,7 @@
       <c r="AB335" s="2"/>
       <c r="AC335" s="2"/>
       <c r="AD335" s="2"/>
+      <c r="AE335" s="2"/>
     </row>
     <row r="336">
       <c r="A336" s="2"/>
@@ -11548,6 +11926,7 @@
       <c r="AB336" s="2"/>
       <c r="AC336" s="2"/>
       <c r="AD336" s="2"/>
+      <c r="AE336" s="2"/>
     </row>
     <row r="337">
       <c r="A337" s="2"/>
@@ -11580,6 +11959,7 @@
       <c r="AB337" s="2"/>
       <c r="AC337" s="2"/>
       <c r="AD337" s="2"/>
+      <c r="AE337" s="2"/>
     </row>
     <row r="338">
       <c r="A338" s="2"/>
@@ -11612,6 +11992,7 @@
       <c r="AB338" s="2"/>
       <c r="AC338" s="2"/>
       <c r="AD338" s="2"/>
+      <c r="AE338" s="2"/>
     </row>
     <row r="339">
       <c r="A339" s="2"/>
@@ -11644,6 +12025,7 @@
       <c r="AB339" s="2"/>
       <c r="AC339" s="2"/>
       <c r="AD339" s="2"/>
+      <c r="AE339" s="2"/>
     </row>
     <row r="340">
       <c r="A340" s="2"/>
@@ -11676,6 +12058,7 @@
       <c r="AB340" s="2"/>
       <c r="AC340" s="2"/>
       <c r="AD340" s="2"/>
+      <c r="AE340" s="2"/>
     </row>
     <row r="341">
       <c r="A341" s="2"/>
@@ -11708,6 +12091,7 @@
       <c r="AB341" s="2"/>
       <c r="AC341" s="2"/>
       <c r="AD341" s="2"/>
+      <c r="AE341" s="2"/>
     </row>
     <row r="342">
       <c r="A342" s="2"/>
@@ -11740,6 +12124,7 @@
       <c r="AB342" s="2"/>
       <c r="AC342" s="2"/>
       <c r="AD342" s="2"/>
+      <c r="AE342" s="2"/>
     </row>
     <row r="343">
       <c r="A343" s="2"/>
@@ -11772,6 +12157,7 @@
       <c r="AB343" s="2"/>
       <c r="AC343" s="2"/>
       <c r="AD343" s="2"/>
+      <c r="AE343" s="2"/>
     </row>
     <row r="344">
       <c r="A344" s="2"/>
@@ -11804,6 +12190,7 @@
       <c r="AB344" s="2"/>
       <c r="AC344" s="2"/>
       <c r="AD344" s="2"/>
+      <c r="AE344" s="2"/>
     </row>
     <row r="345">
       <c r="A345" s="2"/>
@@ -11836,6 +12223,7 @@
       <c r="AB345" s="2"/>
       <c r="AC345" s="2"/>
       <c r="AD345" s="2"/>
+      <c r="AE345" s="2"/>
     </row>
     <row r="346">
       <c r="A346" s="2"/>
@@ -11868,6 +12256,7 @@
       <c r="AB346" s="2"/>
       <c r="AC346" s="2"/>
       <c r="AD346" s="2"/>
+      <c r="AE346" s="2"/>
     </row>
     <row r="347">
       <c r="A347" s="2"/>
@@ -11900,6 +12289,7 @@
       <c r="AB347" s="2"/>
       <c r="AC347" s="2"/>
       <c r="AD347" s="2"/>
+      <c r="AE347" s="2"/>
     </row>
     <row r="348">
       <c r="A348" s="2"/>
@@ -11932,6 +12322,7 @@
       <c r="AB348" s="2"/>
       <c r="AC348" s="2"/>
       <c r="AD348" s="2"/>
+      <c r="AE348" s="2"/>
     </row>
     <row r="349">
       <c r="A349" s="2"/>
@@ -11964,6 +12355,7 @@
       <c r="AB349" s="2"/>
       <c r="AC349" s="2"/>
       <c r="AD349" s="2"/>
+      <c r="AE349" s="2"/>
     </row>
     <row r="350">
       <c r="A350" s="2"/>
@@ -11996,6 +12388,7 @@
       <c r="AB350" s="2"/>
       <c r="AC350" s="2"/>
       <c r="AD350" s="2"/>
+      <c r="AE350" s="2"/>
     </row>
     <row r="351">
       <c r="A351" s="2"/>
@@ -12028,6 +12421,7 @@
       <c r="AB351" s="2"/>
       <c r="AC351" s="2"/>
       <c r="AD351" s="2"/>
+      <c r="AE351" s="2"/>
     </row>
     <row r="352">
       <c r="A352" s="2"/>
@@ -12060,6 +12454,7 @@
       <c r="AB352" s="2"/>
       <c r="AC352" s="2"/>
       <c r="AD352" s="2"/>
+      <c r="AE352" s="2"/>
     </row>
     <row r="353">
       <c r="A353" s="2"/>
@@ -12092,6 +12487,7 @@
       <c r="AB353" s="2"/>
       <c r="AC353" s="2"/>
       <c r="AD353" s="2"/>
+      <c r="AE353" s="2"/>
     </row>
     <row r="354">
       <c r="A354" s="2"/>
@@ -12124,6 +12520,7 @@
       <c r="AB354" s="2"/>
       <c r="AC354" s="2"/>
       <c r="AD354" s="2"/>
+      <c r="AE354" s="2"/>
     </row>
     <row r="355">
       <c r="A355" s="2"/>
@@ -12156,6 +12553,7 @@
       <c r="AB355" s="2"/>
       <c r="AC355" s="2"/>
       <c r="AD355" s="2"/>
+      <c r="AE355" s="2"/>
     </row>
     <row r="356">
       <c r="A356" s="2"/>
@@ -12188,6 +12586,7 @@
       <c r="AB356" s="2"/>
       <c r="AC356" s="2"/>
       <c r="AD356" s="2"/>
+      <c r="AE356" s="2"/>
     </row>
     <row r="357">
       <c r="A357" s="2"/>
@@ -12220,6 +12619,7 @@
       <c r="AB357" s="2"/>
       <c r="AC357" s="2"/>
       <c r="AD357" s="2"/>
+      <c r="AE357" s="2"/>
     </row>
     <row r="358">
       <c r="A358" s="2"/>
@@ -12252,6 +12652,7 @@
       <c r="AB358" s="2"/>
       <c r="AC358" s="2"/>
       <c r="AD358" s="2"/>
+      <c r="AE358" s="2"/>
     </row>
     <row r="359">
       <c r="A359" s="2"/>
@@ -12284,6 +12685,7 @@
       <c r="AB359" s="2"/>
       <c r="AC359" s="2"/>
       <c r="AD359" s="2"/>
+      <c r="AE359" s="2"/>
     </row>
     <row r="360">
       <c r="A360" s="2"/>
@@ -12316,6 +12718,7 @@
       <c r="AB360" s="2"/>
       <c r="AC360" s="2"/>
       <c r="AD360" s="2"/>
+      <c r="AE360" s="2"/>
     </row>
     <row r="361">
       <c r="A361" s="2"/>
@@ -12348,6 +12751,7 @@
       <c r="AB361" s="2"/>
       <c r="AC361" s="2"/>
       <c r="AD361" s="2"/>
+      <c r="AE361" s="2"/>
     </row>
     <row r="362">
       <c r="A362" s="2"/>
@@ -12380,6 +12784,7 @@
       <c r="AB362" s="2"/>
       <c r="AC362" s="2"/>
       <c r="AD362" s="2"/>
+      <c r="AE362" s="2"/>
     </row>
     <row r="363">
       <c r="A363" s="2"/>
@@ -12412,6 +12817,7 @@
       <c r="AB363" s="2"/>
       <c r="AC363" s="2"/>
       <c r="AD363" s="2"/>
+      <c r="AE363" s="2"/>
     </row>
     <row r="364">
       <c r="A364" s="2"/>
@@ -12444,6 +12850,7 @@
       <c r="AB364" s="2"/>
       <c r="AC364" s="2"/>
       <c r="AD364" s="2"/>
+      <c r="AE364" s="2"/>
     </row>
     <row r="365">
       <c r="A365" s="2"/>
@@ -12476,6 +12883,7 @@
       <c r="AB365" s="2"/>
       <c r="AC365" s="2"/>
       <c r="AD365" s="2"/>
+      <c r="AE365" s="2"/>
     </row>
     <row r="366">
       <c r="A366" s="2"/>
@@ -12508,6 +12916,7 @@
       <c r="AB366" s="2"/>
       <c r="AC366" s="2"/>
       <c r="AD366" s="2"/>
+      <c r="AE366" s="2"/>
     </row>
     <row r="367">
       <c r="A367" s="2"/>
@@ -12540,6 +12949,7 @@
       <c r="AB367" s="2"/>
       <c r="AC367" s="2"/>
       <c r="AD367" s="2"/>
+      <c r="AE367" s="2"/>
     </row>
     <row r="368">
       <c r="A368" s="2"/>
@@ -12572,6 +12982,7 @@
       <c r="AB368" s="2"/>
       <c r="AC368" s="2"/>
       <c r="AD368" s="2"/>
+      <c r="AE368" s="2"/>
     </row>
     <row r="369">
       <c r="A369" s="2"/>
@@ -12604,6 +13015,7 @@
       <c r="AB369" s="2"/>
       <c r="AC369" s="2"/>
       <c r="AD369" s="2"/>
+      <c r="AE369" s="2"/>
     </row>
     <row r="370">
       <c r="A370" s="2"/>
@@ -12636,6 +13048,7 @@
       <c r="AB370" s="2"/>
       <c r="AC370" s="2"/>
       <c r="AD370" s="2"/>
+      <c r="AE370" s="2"/>
     </row>
     <row r="371">
       <c r="A371" s="2"/>
@@ -12668,6 +13081,7 @@
       <c r="AB371" s="2"/>
       <c r="AC371" s="2"/>
       <c r="AD371" s="2"/>
+      <c r="AE371" s="2"/>
     </row>
     <row r="372">
       <c r="A372" s="2"/>
@@ -12700,6 +13114,7 @@
       <c r="AB372" s="2"/>
       <c r="AC372" s="2"/>
       <c r="AD372" s="2"/>
+      <c r="AE372" s="2"/>
     </row>
     <row r="373">
       <c r="A373" s="2"/>
@@ -12732,6 +13147,7 @@
       <c r="AB373" s="2"/>
       <c r="AC373" s="2"/>
       <c r="AD373" s="2"/>
+      <c r="AE373" s="2"/>
     </row>
     <row r="374">
       <c r="A374" s="2"/>
@@ -12764,6 +13180,7 @@
       <c r="AB374" s="2"/>
       <c r="AC374" s="2"/>
       <c r="AD374" s="2"/>
+      <c r="AE374" s="2"/>
     </row>
     <row r="375">
       <c r="A375" s="2"/>
@@ -12796,6 +13213,7 @@
       <c r="AB375" s="2"/>
       <c r="AC375" s="2"/>
       <c r="AD375" s="2"/>
+      <c r="AE375" s="2"/>
     </row>
     <row r="376">
       <c r="A376" s="2"/>
@@ -12828,6 +13246,7 @@
       <c r="AB376" s="2"/>
       <c r="AC376" s="2"/>
       <c r="AD376" s="2"/>
+      <c r="AE376" s="2"/>
     </row>
     <row r="377">
       <c r="A377" s="2"/>
@@ -12860,6 +13279,7 @@
       <c r="AB377" s="2"/>
       <c r="AC377" s="2"/>
       <c r="AD377" s="2"/>
+      <c r="AE377" s="2"/>
     </row>
     <row r="378">
       <c r="A378" s="2"/>
@@ -12892,6 +13312,7 @@
       <c r="AB378" s="2"/>
       <c r="AC378" s="2"/>
       <c r="AD378" s="2"/>
+      <c r="AE378" s="2"/>
     </row>
     <row r="379">
       <c r="A379" s="2"/>
@@ -12924,6 +13345,7 @@
       <c r="AB379" s="2"/>
       <c r="AC379" s="2"/>
       <c r="AD379" s="2"/>
+      <c r="AE379" s="2"/>
     </row>
     <row r="380">
       <c r="A380" s="2"/>
@@ -12956,6 +13378,7 @@
       <c r="AB380" s="2"/>
       <c r="AC380" s="2"/>
       <c r="AD380" s="2"/>
+      <c r="AE380" s="2"/>
     </row>
     <row r="381">
       <c r="A381" s="2"/>
@@ -12988,6 +13411,7 @@
       <c r="AB381" s="2"/>
       <c r="AC381" s="2"/>
       <c r="AD381" s="2"/>
+      <c r="AE381" s="2"/>
     </row>
     <row r="382">
       <c r="A382" s="2"/>
@@ -13020,6 +13444,7 @@
       <c r="AB382" s="2"/>
       <c r="AC382" s="2"/>
       <c r="AD382" s="2"/>
+      <c r="AE382" s="2"/>
     </row>
     <row r="383">
       <c r="A383" s="2"/>
@@ -13052,6 +13477,7 @@
       <c r="AB383" s="2"/>
       <c r="AC383" s="2"/>
       <c r="AD383" s="2"/>
+      <c r="AE383" s="2"/>
     </row>
     <row r="384">
       <c r="A384" s="2"/>
@@ -13084,6 +13510,7 @@
       <c r="AB384" s="2"/>
       <c r="AC384" s="2"/>
       <c r="AD384" s="2"/>
+      <c r="AE384" s="2"/>
     </row>
     <row r="385">
       <c r="A385" s="2"/>
@@ -13116,6 +13543,7 @@
       <c r="AB385" s="2"/>
       <c r="AC385" s="2"/>
       <c r="AD385" s="2"/>
+      <c r="AE385" s="2"/>
     </row>
     <row r="386">
       <c r="A386" s="2"/>
@@ -13148,6 +13576,7 @@
       <c r="AB386" s="2"/>
       <c r="AC386" s="2"/>
       <c r="AD386" s="2"/>
+      <c r="AE386" s="2"/>
     </row>
     <row r="387">
       <c r="A387" s="2"/>
@@ -13180,6 +13609,7 @@
       <c r="AB387" s="2"/>
       <c r="AC387" s="2"/>
       <c r="AD387" s="2"/>
+      <c r="AE387" s="2"/>
     </row>
     <row r="388">
       <c r="A388" s="2"/>
@@ -13212,6 +13642,7 @@
       <c r="AB388" s="2"/>
       <c r="AC388" s="2"/>
       <c r="AD388" s="2"/>
+      <c r="AE388" s="2"/>
     </row>
     <row r="389">
       <c r="A389" s="2"/>
@@ -13244,6 +13675,7 @@
       <c r="AB389" s="2"/>
       <c r="AC389" s="2"/>
       <c r="AD389" s="2"/>
+      <c r="AE389" s="2"/>
     </row>
     <row r="390">
       <c r="A390" s="2"/>
@@ -13276,6 +13708,7 @@
       <c r="AB390" s="2"/>
       <c r="AC390" s="2"/>
       <c r="AD390" s="2"/>
+      <c r="AE390" s="2"/>
     </row>
     <row r="391">
       <c r="A391" s="2"/>
@@ -13308,6 +13741,7 @@
       <c r="AB391" s="2"/>
       <c r="AC391" s="2"/>
       <c r="AD391" s="2"/>
+      <c r="AE391" s="2"/>
     </row>
     <row r="392">
       <c r="A392" s="2"/>
@@ -13340,6 +13774,7 @@
       <c r="AB392" s="2"/>
       <c r="AC392" s="2"/>
       <c r="AD392" s="2"/>
+      <c r="AE392" s="2"/>
     </row>
     <row r="393">
       <c r="A393" s="2"/>
@@ -13372,6 +13807,7 @@
       <c r="AB393" s="2"/>
       <c r="AC393" s="2"/>
       <c r="AD393" s="2"/>
+      <c r="AE393" s="2"/>
     </row>
     <row r="394">
       <c r="A394" s="2"/>
@@ -13404,6 +13840,7 @@
       <c r="AB394" s="2"/>
       <c r="AC394" s="2"/>
       <c r="AD394" s="2"/>
+      <c r="AE394" s="2"/>
     </row>
     <row r="395">
       <c r="A395" s="2"/>
@@ -13436,6 +13873,7 @@
       <c r="AB395" s="2"/>
       <c r="AC395" s="2"/>
       <c r="AD395" s="2"/>
+      <c r="AE395" s="2"/>
     </row>
     <row r="396">
       <c r="A396" s="2"/>
@@ -13468,6 +13906,7 @@
       <c r="AB396" s="2"/>
       <c r="AC396" s="2"/>
       <c r="AD396" s="2"/>
+      <c r="AE396" s="2"/>
     </row>
     <row r="397">
       <c r="A397" s="2"/>
@@ -13500,6 +13939,7 @@
       <c r="AB397" s="2"/>
       <c r="AC397" s="2"/>
       <c r="AD397" s="2"/>
+      <c r="AE397" s="2"/>
     </row>
     <row r="398">
       <c r="A398" s="2"/>
@@ -13532,6 +13972,7 @@
       <c r="AB398" s="2"/>
       <c r="AC398" s="2"/>
       <c r="AD398" s="2"/>
+      <c r="AE398" s="2"/>
     </row>
     <row r="399">
       <c r="A399" s="2"/>
@@ -13564,6 +14005,7 @@
       <c r="AB399" s="2"/>
       <c r="AC399" s="2"/>
       <c r="AD399" s="2"/>
+      <c r="AE399" s="2"/>
     </row>
     <row r="400">
       <c r="A400" s="2"/>
@@ -13596,6 +14038,7 @@
       <c r="AB400" s="2"/>
       <c r="AC400" s="2"/>
       <c r="AD400" s="2"/>
+      <c r="AE400" s="2"/>
     </row>
     <row r="401">
       <c r="A401" s="2"/>
@@ -13628,6 +14071,7 @@
       <c r="AB401" s="2"/>
       <c r="AC401" s="2"/>
       <c r="AD401" s="2"/>
+      <c r="AE401" s="2"/>
     </row>
     <row r="402">
       <c r="A402" s="2"/>
@@ -13660,6 +14104,7 @@
       <c r="AB402" s="2"/>
       <c r="AC402" s="2"/>
       <c r="AD402" s="2"/>
+      <c r="AE402" s="2"/>
     </row>
     <row r="403">
       <c r="A403" s="2"/>
@@ -13692,6 +14137,7 @@
       <c r="AB403" s="2"/>
       <c r="AC403" s="2"/>
       <c r="AD403" s="2"/>
+      <c r="AE403" s="2"/>
     </row>
     <row r="404">
       <c r="A404" s="2"/>
@@ -13724,6 +14170,7 @@
       <c r="AB404" s="2"/>
       <c r="AC404" s="2"/>
       <c r="AD404" s="2"/>
+      <c r="AE404" s="2"/>
     </row>
     <row r="405">
       <c r="A405" s="2"/>
@@ -13756,6 +14203,7 @@
       <c r="AB405" s="2"/>
       <c r="AC405" s="2"/>
       <c r="AD405" s="2"/>
+      <c r="AE405" s="2"/>
     </row>
     <row r="406">
       <c r="A406" s="2"/>
@@ -13788,6 +14236,7 @@
       <c r="AB406" s="2"/>
       <c r="AC406" s="2"/>
       <c r="AD406" s="2"/>
+      <c r="AE406" s="2"/>
     </row>
     <row r="407">
       <c r="A407" s="2"/>
@@ -13820,6 +14269,7 @@
       <c r="AB407" s="2"/>
       <c r="AC407" s="2"/>
       <c r="AD407" s="2"/>
+      <c r="AE407" s="2"/>
     </row>
     <row r="408">
       <c r="A408" s="2"/>
@@ -13852,6 +14302,7 @@
       <c r="AB408" s="2"/>
       <c r="AC408" s="2"/>
       <c r="AD408" s="2"/>
+      <c r="AE408" s="2"/>
     </row>
     <row r="409">
       <c r="A409" s="2"/>
@@ -13884,6 +14335,7 @@
       <c r="AB409" s="2"/>
       <c r="AC409" s="2"/>
       <c r="AD409" s="2"/>
+      <c r="AE409" s="2"/>
     </row>
     <row r="410">
       <c r="A410" s="2"/>
@@ -13916,6 +14368,7 @@
       <c r="AB410" s="2"/>
       <c r="AC410" s="2"/>
       <c r="AD410" s="2"/>
+      <c r="AE410" s="2"/>
     </row>
     <row r="411">
       <c r="A411" s="2"/>
@@ -13948,6 +14401,7 @@
       <c r="AB411" s="2"/>
       <c r="AC411" s="2"/>
       <c r="AD411" s="2"/>
+      <c r="AE411" s="2"/>
     </row>
     <row r="412">
       <c r="A412" s="2"/>
@@ -13980,6 +14434,7 @@
       <c r="AB412" s="2"/>
       <c r="AC412" s="2"/>
       <c r="AD412" s="2"/>
+      <c r="AE412" s="2"/>
     </row>
     <row r="413">
       <c r="A413" s="2"/>
@@ -14012,6 +14467,7 @@
       <c r="AB413" s="2"/>
       <c r="AC413" s="2"/>
       <c r="AD413" s="2"/>
+      <c r="AE413" s="2"/>
     </row>
     <row r="414">
       <c r="A414" s="2"/>
@@ -14044,6 +14500,7 @@
       <c r="AB414" s="2"/>
       <c r="AC414" s="2"/>
       <c r="AD414" s="2"/>
+      <c r="AE414" s="2"/>
     </row>
     <row r="415">
       <c r="A415" s="2"/>
@@ -14076,6 +14533,7 @@
       <c r="AB415" s="2"/>
       <c r="AC415" s="2"/>
       <c r="AD415" s="2"/>
+      <c r="AE415" s="2"/>
     </row>
     <row r="416">
       <c r="A416" s="2"/>
@@ -14108,6 +14566,7 @@
       <c r="AB416" s="2"/>
       <c r="AC416" s="2"/>
       <c r="AD416" s="2"/>
+      <c r="AE416" s="2"/>
     </row>
     <row r="417">
       <c r="A417" s="2"/>
@@ -14140,6 +14599,7 @@
       <c r="AB417" s="2"/>
       <c r="AC417" s="2"/>
       <c r="AD417" s="2"/>
+      <c r="AE417" s="2"/>
     </row>
     <row r="418">
       <c r="A418" s="2"/>
@@ -14172,6 +14632,7 @@
       <c r="AB418" s="2"/>
       <c r="AC418" s="2"/>
       <c r="AD418" s="2"/>
+      <c r="AE418" s="2"/>
     </row>
     <row r="419">
       <c r="A419" s="2"/>
@@ -14204,6 +14665,7 @@
       <c r="AB419" s="2"/>
       <c r="AC419" s="2"/>
       <c r="AD419" s="2"/>
+      <c r="AE419" s="2"/>
     </row>
     <row r="420">
       <c r="A420" s="2"/>
@@ -14236,6 +14698,7 @@
       <c r="AB420" s="2"/>
       <c r="AC420" s="2"/>
       <c r="AD420" s="2"/>
+      <c r="AE420" s="2"/>
     </row>
     <row r="421">
       <c r="A421" s="2"/>
@@ -14268,6 +14731,7 @@
       <c r="AB421" s="2"/>
       <c r="AC421" s="2"/>
       <c r="AD421" s="2"/>
+      <c r="AE421" s="2"/>
     </row>
     <row r="422">
       <c r="A422" s="2"/>
@@ -14300,6 +14764,7 @@
       <c r="AB422" s="2"/>
       <c r="AC422" s="2"/>
       <c r="AD422" s="2"/>
+      <c r="AE422" s="2"/>
     </row>
     <row r="423">
       <c r="A423" s="2"/>
@@ -14332,6 +14797,7 @@
       <c r="AB423" s="2"/>
       <c r="AC423" s="2"/>
       <c r="AD423" s="2"/>
+      <c r="AE423" s="2"/>
     </row>
     <row r="424">
       <c r="A424" s="2"/>
@@ -14364,6 +14830,7 @@
       <c r="AB424" s="2"/>
       <c r="AC424" s="2"/>
       <c r="AD424" s="2"/>
+      <c r="AE424" s="2"/>
     </row>
     <row r="425">
       <c r="A425" s="2"/>
@@ -14396,6 +14863,7 @@
       <c r="AB425" s="2"/>
       <c r="AC425" s="2"/>
       <c r="AD425" s="2"/>
+      <c r="AE425" s="2"/>
     </row>
     <row r="426">
       <c r="A426" s="2"/>
@@ -14428,6 +14896,7 @@
       <c r="AB426" s="2"/>
       <c r="AC426" s="2"/>
       <c r="AD426" s="2"/>
+      <c r="AE426" s="2"/>
     </row>
     <row r="427">
       <c r="A427" s="2"/>
@@ -14460,6 +14929,7 @@
       <c r="AB427" s="2"/>
       <c r="AC427" s="2"/>
       <c r="AD427" s="2"/>
+      <c r="AE427" s="2"/>
     </row>
     <row r="428">
       <c r="A428" s="2"/>
@@ -14492,6 +14962,7 @@
       <c r="AB428" s="2"/>
       <c r="AC428" s="2"/>
       <c r="AD428" s="2"/>
+      <c r="AE428" s="2"/>
     </row>
     <row r="429">
       <c r="A429" s="2"/>
@@ -14524,6 +14995,7 @@
       <c r="AB429" s="2"/>
       <c r="AC429" s="2"/>
       <c r="AD429" s="2"/>
+      <c r="AE429" s="2"/>
     </row>
     <row r="430">
       <c r="A430" s="2"/>
@@ -14556,6 +15028,7 @@
       <c r="AB430" s="2"/>
       <c r="AC430" s="2"/>
       <c r="AD430" s="2"/>
+      <c r="AE430" s="2"/>
     </row>
     <row r="431">
       <c r="A431" s="2"/>
@@ -14588,6 +15061,7 @@
       <c r="AB431" s="2"/>
       <c r="AC431" s="2"/>
       <c r="AD431" s="2"/>
+      <c r="AE431" s="2"/>
     </row>
     <row r="432">
       <c r="A432" s="2"/>
@@ -14620,6 +15094,7 @@
       <c r="AB432" s="2"/>
       <c r="AC432" s="2"/>
       <c r="AD432" s="2"/>
+      <c r="AE432" s="2"/>
     </row>
     <row r="433">
       <c r="A433" s="2"/>
@@ -14652,6 +15127,7 @@
       <c r="AB433" s="2"/>
       <c r="AC433" s="2"/>
       <c r="AD433" s="2"/>
+      <c r="AE433" s="2"/>
     </row>
     <row r="434">
       <c r="A434" s="2"/>
@@ -14684,6 +15160,7 @@
       <c r="AB434" s="2"/>
       <c r="AC434" s="2"/>
       <c r="AD434" s="2"/>
+      <c r="AE434" s="2"/>
     </row>
     <row r="435">
       <c r="A435" s="2"/>
@@ -14716,6 +15193,7 @@
       <c r="AB435" s="2"/>
       <c r="AC435" s="2"/>
       <c r="AD435" s="2"/>
+      <c r="AE435" s="2"/>
     </row>
     <row r="436">
       <c r="A436" s="2"/>
@@ -14748,6 +15226,7 @@
       <c r="AB436" s="2"/>
       <c r="AC436" s="2"/>
       <c r="AD436" s="2"/>
+      <c r="AE436" s="2"/>
     </row>
     <row r="437">
       <c r="A437" s="2"/>
@@ -14780,6 +15259,7 @@
       <c r="AB437" s="2"/>
       <c r="AC437" s="2"/>
       <c r="AD437" s="2"/>
+      <c r="AE437" s="2"/>
     </row>
     <row r="438">
       <c r="A438" s="2"/>
@@ -14812,6 +15292,7 @@
       <c r="AB438" s="2"/>
       <c r="AC438" s="2"/>
       <c r="AD438" s="2"/>
+      <c r="AE438" s="2"/>
     </row>
     <row r="439">
       <c r="A439" s="2"/>
@@ -14844,6 +15325,7 @@
       <c r="AB439" s="2"/>
       <c r="AC439" s="2"/>
       <c r="AD439" s="2"/>
+      <c r="AE439" s="2"/>
     </row>
     <row r="440">
       <c r="A440" s="2"/>
@@ -14876,6 +15358,7 @@
       <c r="AB440" s="2"/>
       <c r="AC440" s="2"/>
       <c r="AD440" s="2"/>
+      <c r="AE440" s="2"/>
     </row>
     <row r="441">
       <c r="A441" s="2"/>
@@ -14908,6 +15391,7 @@
       <c r="AB441" s="2"/>
       <c r="AC441" s="2"/>
       <c r="AD441" s="2"/>
+      <c r="AE441" s="2"/>
     </row>
     <row r="442">
       <c r="A442" s="2"/>
@@ -14940,6 +15424,7 @@
       <c r="AB442" s="2"/>
       <c r="AC442" s="2"/>
       <c r="AD442" s="2"/>
+      <c r="AE442" s="2"/>
     </row>
     <row r="443">
       <c r="A443" s="2"/>
@@ -14972,6 +15457,7 @@
       <c r="AB443" s="2"/>
       <c r="AC443" s="2"/>
       <c r="AD443" s="2"/>
+      <c r="AE443" s="2"/>
     </row>
     <row r="444">
       <c r="A444" s="2"/>
@@ -15004,6 +15490,7 @@
       <c r="AB444" s="2"/>
       <c r="AC444" s="2"/>
       <c r="AD444" s="2"/>
+      <c r="AE444" s="2"/>
     </row>
     <row r="445">
       <c r="A445" s="2"/>
@@ -15036,6 +15523,7 @@
       <c r="AB445" s="2"/>
       <c r="AC445" s="2"/>
       <c r="AD445" s="2"/>
+      <c r="AE445" s="2"/>
     </row>
     <row r="446">
       <c r="A446" s="2"/>
@@ -15068,6 +15556,7 @@
       <c r="AB446" s="2"/>
       <c r="AC446" s="2"/>
       <c r="AD446" s="2"/>
+      <c r="AE446" s="2"/>
     </row>
     <row r="447">
       <c r="A447" s="2"/>
@@ -15100,6 +15589,7 @@
       <c r="AB447" s="2"/>
       <c r="AC447" s="2"/>
       <c r="AD447" s="2"/>
+      <c r="AE447" s="2"/>
     </row>
     <row r="448">
       <c r="A448" s="2"/>
@@ -15132,6 +15622,7 @@
       <c r="AB448" s="2"/>
       <c r="AC448" s="2"/>
       <c r="AD448" s="2"/>
+      <c r="AE448" s="2"/>
     </row>
     <row r="449">
       <c r="A449" s="2"/>
@@ -15164,6 +15655,7 @@
       <c r="AB449" s="2"/>
       <c r="AC449" s="2"/>
       <c r="AD449" s="2"/>
+      <c r="AE449" s="2"/>
     </row>
     <row r="450">
       <c r="A450" s="2"/>
@@ -15196,6 +15688,7 @@
       <c r="AB450" s="2"/>
       <c r="AC450" s="2"/>
       <c r="AD450" s="2"/>
+      <c r="AE450" s="2"/>
     </row>
     <row r="451">
       <c r="A451" s="2"/>
@@ -15228,6 +15721,7 @@
       <c r="AB451" s="2"/>
       <c r="AC451" s="2"/>
       <c r="AD451" s="2"/>
+      <c r="AE451" s="2"/>
     </row>
     <row r="452">
       <c r="A452" s="2"/>
@@ -15260,6 +15754,7 @@
       <c r="AB452" s="2"/>
       <c r="AC452" s="2"/>
       <c r="AD452" s="2"/>
+      <c r="AE452" s="2"/>
     </row>
     <row r="453">
       <c r="A453" s="2"/>
@@ -15292,6 +15787,7 @@
       <c r="AB453" s="2"/>
       <c r="AC453" s="2"/>
       <c r="AD453" s="2"/>
+      <c r="AE453" s="2"/>
     </row>
     <row r="454">
       <c r="A454" s="2"/>
@@ -15324,6 +15820,7 @@
       <c r="AB454" s="2"/>
       <c r="AC454" s="2"/>
       <c r="AD454" s="2"/>
+      <c r="AE454" s="2"/>
     </row>
     <row r="455">
       <c r="A455" s="2"/>
@@ -15356,6 +15853,7 @@
       <c r="AB455" s="2"/>
       <c r="AC455" s="2"/>
       <c r="AD455" s="2"/>
+      <c r="AE455" s="2"/>
     </row>
     <row r="456">
       <c r="A456" s="2"/>
@@ -15388,6 +15886,7 @@
       <c r="AB456" s="2"/>
       <c r="AC456" s="2"/>
       <c r="AD456" s="2"/>
+      <c r="AE456" s="2"/>
     </row>
     <row r="457">
       <c r="A457" s="2"/>
@@ -15420,6 +15919,7 @@
       <c r="AB457" s="2"/>
       <c r="AC457" s="2"/>
       <c r="AD457" s="2"/>
+      <c r="AE457" s="2"/>
     </row>
     <row r="458">
       <c r="A458" s="2"/>
@@ -15452,6 +15952,7 @@
       <c r="AB458" s="2"/>
       <c r="AC458" s="2"/>
       <c r="AD458" s="2"/>
+      <c r="AE458" s="2"/>
     </row>
     <row r="459">
       <c r="A459" s="2"/>
@@ -15484,6 +15985,7 @@
       <c r="AB459" s="2"/>
       <c r="AC459" s="2"/>
       <c r="AD459" s="2"/>
+      <c r="AE459" s="2"/>
     </row>
     <row r="460">
       <c r="A460" s="2"/>
@@ -15516,6 +16018,7 @@
       <c r="AB460" s="2"/>
       <c r="AC460" s="2"/>
       <c r="AD460" s="2"/>
+      <c r="AE460" s="2"/>
     </row>
     <row r="461">
       <c r="A461" s="2"/>
@@ -15548,6 +16051,7 @@
       <c r="AB461" s="2"/>
       <c r="AC461" s="2"/>
       <c r="AD461" s="2"/>
+      <c r="AE461" s="2"/>
     </row>
     <row r="462">
       <c r="A462" s="2"/>
@@ -15580,6 +16084,7 @@
       <c r="AB462" s="2"/>
       <c r="AC462" s="2"/>
       <c r="AD462" s="2"/>
+      <c r="AE462" s="2"/>
     </row>
     <row r="463">
       <c r="A463" s="2"/>
@@ -15612,6 +16117,7 @@
       <c r="AB463" s="2"/>
       <c r="AC463" s="2"/>
       <c r="AD463" s="2"/>
+      <c r="AE463" s="2"/>
     </row>
     <row r="464">
       <c r="A464" s="2"/>
@@ -15644,6 +16150,7 @@
       <c r="AB464" s="2"/>
       <c r="AC464" s="2"/>
       <c r="AD464" s="2"/>
+      <c r="AE464" s="2"/>
     </row>
     <row r="465">
       <c r="A465" s="2"/>
@@ -15676,6 +16183,7 @@
       <c r="AB465" s="2"/>
       <c r="AC465" s="2"/>
       <c r="AD465" s="2"/>
+      <c r="AE465" s="2"/>
     </row>
     <row r="466">
       <c r="A466" s="2"/>
@@ -15708,6 +16216,7 @@
       <c r="AB466" s="2"/>
       <c r="AC466" s="2"/>
       <c r="AD466" s="2"/>
+      <c r="AE466" s="2"/>
     </row>
     <row r="467">
       <c r="A467" s="2"/>
@@ -15740,6 +16249,7 @@
       <c r="AB467" s="2"/>
       <c r="AC467" s="2"/>
       <c r="AD467" s="2"/>
+      <c r="AE467" s="2"/>
     </row>
     <row r="468">
       <c r="A468" s="2"/>
@@ -15772,6 +16282,7 @@
       <c r="AB468" s="2"/>
       <c r="AC468" s="2"/>
       <c r="AD468" s="2"/>
+      <c r="AE468" s="2"/>
     </row>
     <row r="469">
       <c r="A469" s="2"/>
@@ -15804,6 +16315,7 @@
       <c r="AB469" s="2"/>
       <c r="AC469" s="2"/>
       <c r="AD469" s="2"/>
+      <c r="AE469" s="2"/>
     </row>
     <row r="470">
       <c r="A470" s="2"/>
@@ -15836,6 +16348,7 @@
       <c r="AB470" s="2"/>
       <c r="AC470" s="2"/>
       <c r="AD470" s="2"/>
+      <c r="AE470" s="2"/>
     </row>
     <row r="471">
       <c r="A471" s="2"/>
@@ -15868,6 +16381,7 @@
       <c r="AB471" s="2"/>
       <c r="AC471" s="2"/>
       <c r="AD471" s="2"/>
+      <c r="AE471" s="2"/>
     </row>
     <row r="472">
       <c r="A472" s="2"/>
@@ -15900,6 +16414,7 @@
       <c r="AB472" s="2"/>
       <c r="AC472" s="2"/>
       <c r="AD472" s="2"/>
+      <c r="AE472" s="2"/>
     </row>
     <row r="473">
       <c r="A473" s="2"/>
@@ -15932,6 +16447,7 @@
       <c r="AB473" s="2"/>
       <c r="AC473" s="2"/>
       <c r="AD473" s="2"/>
+      <c r="AE473" s="2"/>
     </row>
     <row r="474">
       <c r="A474" s="2"/>
@@ -15964,6 +16480,7 @@
       <c r="AB474" s="2"/>
       <c r="AC474" s="2"/>
       <c r="AD474" s="2"/>
+      <c r="AE474" s="2"/>
     </row>
     <row r="475">
       <c r="A475" s="2"/>
@@ -15996,6 +16513,7 @@
       <c r="AB475" s="2"/>
       <c r="AC475" s="2"/>
       <c r="AD475" s="2"/>
+      <c r="AE475" s="2"/>
     </row>
     <row r="476">
       <c r="A476" s="2"/>
@@ -16028,6 +16546,7 @@
       <c r="AB476" s="2"/>
       <c r="AC476" s="2"/>
       <c r="AD476" s="2"/>
+      <c r="AE476" s="2"/>
     </row>
     <row r="477">
       <c r="A477" s="2"/>
@@ -16060,6 +16579,7 @@
       <c r="AB477" s="2"/>
       <c r="AC477" s="2"/>
       <c r="AD477" s="2"/>
+      <c r="AE477" s="2"/>
     </row>
     <row r="478">
       <c r="A478" s="2"/>
@@ -16092,6 +16612,7 @@
       <c r="AB478" s="2"/>
       <c r="AC478" s="2"/>
       <c r="AD478" s="2"/>
+      <c r="AE478" s="2"/>
     </row>
     <row r="479">
       <c r="A479" s="2"/>
@@ -16124,6 +16645,7 @@
       <c r="AB479" s="2"/>
       <c r="AC479" s="2"/>
       <c r="AD479" s="2"/>
+      <c r="AE479" s="2"/>
     </row>
     <row r="480">
       <c r="A480" s="2"/>
@@ -16156,6 +16678,7 @@
       <c r="AB480" s="2"/>
       <c r="AC480" s="2"/>
       <c r="AD480" s="2"/>
+      <c r="AE480" s="2"/>
     </row>
     <row r="481">
       <c r="A481" s="2"/>
@@ -16188,6 +16711,7 @@
       <c r="AB481" s="2"/>
       <c r="AC481" s="2"/>
       <c r="AD481" s="2"/>
+      <c r="AE481" s="2"/>
     </row>
     <row r="482">
       <c r="A482" s="2"/>
@@ -16220,6 +16744,7 @@
       <c r="AB482" s="2"/>
       <c r="AC482" s="2"/>
       <c r="AD482" s="2"/>
+      <c r="AE482" s="2"/>
     </row>
     <row r="483">
       <c r="A483" s="2"/>
@@ -16252,6 +16777,7 @@
       <c r="AB483" s="2"/>
       <c r="AC483" s="2"/>
       <c r="AD483" s="2"/>
+      <c r="AE483" s="2"/>
     </row>
     <row r="484">
       <c r="A484" s="2"/>
@@ -16284,6 +16810,7 @@
       <c r="AB484" s="2"/>
       <c r="AC484" s="2"/>
       <c r="AD484" s="2"/>
+      <c r="AE484" s="2"/>
     </row>
     <row r="485">
       <c r="A485" s="2"/>
@@ -16316,6 +16843,7 @@
       <c r="AB485" s="2"/>
       <c r="AC485" s="2"/>
       <c r="AD485" s="2"/>
+      <c r="AE485" s="2"/>
     </row>
     <row r="486">
       <c r="A486" s="2"/>
@@ -16348,6 +16876,7 @@
       <c r="AB486" s="2"/>
       <c r="AC486" s="2"/>
       <c r="AD486" s="2"/>
+      <c r="AE486" s="2"/>
     </row>
     <row r="487">
       <c r="A487" s="2"/>
@@ -16380,6 +16909,7 @@
       <c r="AB487" s="2"/>
       <c r="AC487" s="2"/>
       <c r="AD487" s="2"/>
+      <c r="AE487" s="2"/>
     </row>
     <row r="488">
       <c r="A488" s="2"/>
@@ -16412,6 +16942,7 @@
       <c r="AB488" s="2"/>
       <c r="AC488" s="2"/>
       <c r="AD488" s="2"/>
+      <c r="AE488" s="2"/>
     </row>
     <row r="489">
       <c r="A489" s="2"/>
@@ -16444,6 +16975,7 @@
       <c r="AB489" s="2"/>
       <c r="AC489" s="2"/>
       <c r="AD489" s="2"/>
+      <c r="AE489" s="2"/>
     </row>
     <row r="490">
       <c r="A490" s="2"/>
@@ -16476,6 +17008,7 @@
       <c r="AB490" s="2"/>
       <c r="AC490" s="2"/>
       <c r="AD490" s="2"/>
+      <c r="AE490" s="2"/>
     </row>
     <row r="491">
       <c r="A491" s="2"/>
@@ -16508,6 +17041,7 @@
       <c r="AB491" s="2"/>
       <c r="AC491" s="2"/>
       <c r="AD491" s="2"/>
+      <c r="AE491" s="2"/>
     </row>
     <row r="492">
       <c r="A492" s="2"/>
@@ -16540,6 +17074,7 @@
       <c r="AB492" s="2"/>
       <c r="AC492" s="2"/>
       <c r="AD492" s="2"/>
+      <c r="AE492" s="2"/>
     </row>
     <row r="493">
       <c r="A493" s="2"/>
@@ -16572,6 +17107,7 @@
       <c r="AB493" s="2"/>
       <c r="AC493" s="2"/>
       <c r="AD493" s="2"/>
+      <c r="AE493" s="2"/>
     </row>
     <row r="494">
       <c r="A494" s="2"/>
@@ -16604,6 +17140,7 @@
       <c r="AB494" s="2"/>
       <c r="AC494" s="2"/>
       <c r="AD494" s="2"/>
+      <c r="AE494" s="2"/>
     </row>
     <row r="495">
       <c r="A495" s="2"/>
@@ -16636,6 +17173,7 @@
       <c r="AB495" s="2"/>
       <c r="AC495" s="2"/>
       <c r="AD495" s="2"/>
+      <c r="AE495" s="2"/>
     </row>
     <row r="496">
       <c r="A496" s="2"/>
@@ -16668,6 +17206,7 @@
       <c r="AB496" s="2"/>
       <c r="AC496" s="2"/>
       <c r="AD496" s="2"/>
+      <c r="AE496" s="2"/>
     </row>
     <row r="497">
       <c r="A497" s="2"/>
@@ -16700,6 +17239,7 @@
       <c r="AB497" s="2"/>
       <c r="AC497" s="2"/>
       <c r="AD497" s="2"/>
+      <c r="AE497" s="2"/>
     </row>
     <row r="498">
       <c r="A498" s="2"/>
@@ -16732,6 +17272,7 @@
       <c r="AB498" s="2"/>
       <c r="AC498" s="2"/>
       <c r="AD498" s="2"/>
+      <c r="AE498" s="2"/>
     </row>
     <row r="499">
       <c r="A499" s="2"/>
@@ -16764,6 +17305,7 @@
       <c r="AB499" s="2"/>
       <c r="AC499" s="2"/>
       <c r="AD499" s="2"/>
+      <c r="AE499" s="2"/>
     </row>
     <row r="500">
       <c r="A500" s="2"/>
@@ -16796,6 +17338,7 @@
       <c r="AB500" s="2"/>
       <c r="AC500" s="2"/>
       <c r="AD500" s="2"/>
+      <c r="AE500" s="2"/>
     </row>
     <row r="501">
       <c r="A501" s="2"/>
@@ -16828,6 +17371,7 @@
       <c r="AB501" s="2"/>
       <c r="AC501" s="2"/>
       <c r="AD501" s="2"/>
+      <c r="AE501" s="2"/>
     </row>
     <row r="502">
       <c r="A502" s="2"/>
@@ -16860,6 +17404,7 @@
       <c r="AB502" s="2"/>
       <c r="AC502" s="2"/>
       <c r="AD502" s="2"/>
+      <c r="AE502" s="2"/>
     </row>
     <row r="503">
       <c r="A503" s="2"/>
@@ -16892,6 +17437,7 @@
       <c r="AB503" s="2"/>
       <c r="AC503" s="2"/>
       <c r="AD503" s="2"/>
+      <c r="AE503" s="2"/>
     </row>
     <row r="504">
       <c r="A504" s="2"/>
@@ -16924,6 +17470,7 @@
       <c r="AB504" s="2"/>
       <c r="AC504" s="2"/>
       <c r="AD504" s="2"/>
+      <c r="AE504" s="2"/>
     </row>
     <row r="505">
       <c r="A505" s="2"/>
@@ -16956,6 +17503,7 @@
       <c r="AB505" s="2"/>
       <c r="AC505" s="2"/>
       <c r="AD505" s="2"/>
+      <c r="AE505" s="2"/>
     </row>
     <row r="506">
       <c r="A506" s="2"/>
@@ -16988,6 +17536,7 @@
       <c r="AB506" s="2"/>
       <c r="AC506" s="2"/>
       <c r="AD506" s="2"/>
+      <c r="AE506" s="2"/>
     </row>
     <row r="507">
       <c r="A507" s="2"/>
@@ -17020,6 +17569,7 @@
       <c r="AB507" s="2"/>
       <c r="AC507" s="2"/>
       <c r="AD507" s="2"/>
+      <c r="AE507" s="2"/>
     </row>
     <row r="508">
       <c r="A508" s="2"/>
@@ -17052,6 +17602,7 @@
       <c r="AB508" s="2"/>
       <c r="AC508" s="2"/>
       <c r="AD508" s="2"/>
+      <c r="AE508" s="2"/>
     </row>
     <row r="509">
       <c r="A509" s="2"/>
@@ -17084,6 +17635,7 @@
       <c r="AB509" s="2"/>
       <c r="AC509" s="2"/>
       <c r="AD509" s="2"/>
+      <c r="AE509" s="2"/>
     </row>
     <row r="510">
       <c r="A510" s="2"/>
@@ -17116,6 +17668,7 @@
       <c r="AB510" s="2"/>
       <c r="AC510" s="2"/>
       <c r="AD510" s="2"/>
+      <c r="AE510" s="2"/>
     </row>
     <row r="511">
       <c r="A511" s="2"/>
@@ -17148,6 +17701,7 @@
       <c r="AB511" s="2"/>
       <c r="AC511" s="2"/>
       <c r="AD511" s="2"/>
+      <c r="AE511" s="2"/>
     </row>
     <row r="512">
       <c r="A512" s="2"/>
@@ -17180,6 +17734,7 @@
       <c r="AB512" s="2"/>
       <c r="AC512" s="2"/>
       <c r="AD512" s="2"/>
+      <c r="AE512" s="2"/>
     </row>
     <row r="513">
       <c r="A513" s="2"/>
@@ -17212,6 +17767,7 @@
       <c r="AB513" s="2"/>
       <c r="AC513" s="2"/>
       <c r="AD513" s="2"/>
+      <c r="AE513" s="2"/>
     </row>
     <row r="514">
       <c r="A514" s="2"/>
@@ -17244,6 +17800,7 @@
       <c r="AB514" s="2"/>
       <c r="AC514" s="2"/>
       <c r="AD514" s="2"/>
+      <c r="AE514" s="2"/>
     </row>
     <row r="515">
       <c r="A515" s="2"/>
@@ -17276,6 +17833,7 @@
       <c r="AB515" s="2"/>
       <c r="AC515" s="2"/>
       <c r="AD515" s="2"/>
+      <c r="AE515" s="2"/>
     </row>
     <row r="516">
       <c r="A516" s="2"/>
@@ -17308,6 +17866,7 @@
       <c r="AB516" s="2"/>
       <c r="AC516" s="2"/>
       <c r="AD516" s="2"/>
+      <c r="AE516" s="2"/>
     </row>
     <row r="517">
       <c r="A517" s="2"/>
@@ -17340,6 +17899,7 @@
       <c r="AB517" s="2"/>
       <c r="AC517" s="2"/>
       <c r="AD517" s="2"/>
+      <c r="AE517" s="2"/>
     </row>
     <row r="518">
       <c r="A518" s="2"/>
@@ -17372,6 +17932,7 @@
       <c r="AB518" s="2"/>
       <c r="AC518" s="2"/>
       <c r="AD518" s="2"/>
+      <c r="AE518" s="2"/>
     </row>
     <row r="519">
       <c r="A519" s="2"/>
@@ -17404,6 +17965,7 @@
       <c r="AB519" s="2"/>
       <c r="AC519" s="2"/>
       <c r="AD519" s="2"/>
+      <c r="AE519" s="2"/>
     </row>
     <row r="520">
       <c r="A520" s="2"/>
@@ -17436,6 +17998,7 @@
       <c r="AB520" s="2"/>
       <c r="AC520" s="2"/>
       <c r="AD520" s="2"/>
+      <c r="AE520" s="2"/>
     </row>
     <row r="521">
       <c r="A521" s="2"/>
@@ -17468,6 +18031,7 @@
       <c r="AB521" s="2"/>
       <c r="AC521" s="2"/>
       <c r="AD521" s="2"/>
+      <c r="AE521" s="2"/>
     </row>
     <row r="522">
       <c r="A522" s="2"/>
@@ -17500,6 +18064,7 @@
       <c r="AB522" s="2"/>
       <c r="AC522" s="2"/>
       <c r="AD522" s="2"/>
+      <c r="AE522" s="2"/>
     </row>
     <row r="523">
       <c r="A523" s="2"/>
@@ -17532,6 +18097,7 @@
       <c r="AB523" s="2"/>
       <c r="AC523" s="2"/>
       <c r="AD523" s="2"/>
+      <c r="AE523" s="2"/>
     </row>
     <row r="524">
       <c r="A524" s="2"/>
@@ -17564,6 +18130,7 @@
       <c r="AB524" s="2"/>
       <c r="AC524" s="2"/>
       <c r="AD524" s="2"/>
+      <c r="AE524" s="2"/>
     </row>
     <row r="525">
       <c r="A525" s="2"/>
@@ -17596,6 +18163,7 @@
       <c r="AB525" s="2"/>
       <c r="AC525" s="2"/>
       <c r="AD525" s="2"/>
+      <c r="AE525" s="2"/>
     </row>
     <row r="526">
       <c r="A526" s="2"/>
@@ -17628,6 +18196,7 @@
       <c r="AB526" s="2"/>
       <c r="AC526" s="2"/>
       <c r="AD526" s="2"/>
+      <c r="AE526" s="2"/>
     </row>
     <row r="527">
       <c r="A527" s="2"/>
@@ -17660,6 +18229,7 @@
       <c r="AB527" s="2"/>
       <c r="AC527" s="2"/>
       <c r="AD527" s="2"/>
+      <c r="AE527" s="2"/>
     </row>
     <row r="528">
       <c r="A528" s="2"/>
@@ -17692,6 +18262,7 @@
       <c r="AB528" s="2"/>
       <c r="AC528" s="2"/>
       <c r="AD528" s="2"/>
+      <c r="AE528" s="2"/>
     </row>
     <row r="529">
       <c r="A529" s="2"/>
@@ -17724,6 +18295,7 @@
       <c r="AB529" s="2"/>
       <c r="AC529" s="2"/>
       <c r="AD529" s="2"/>
+      <c r="AE529" s="2"/>
     </row>
     <row r="530">
       <c r="A530" s="2"/>
@@ -17756,6 +18328,7 @@
       <c r="AB530" s="2"/>
       <c r="AC530" s="2"/>
       <c r="AD530" s="2"/>
+      <c r="AE530" s="2"/>
     </row>
     <row r="531">
       <c r="A531" s="2"/>
@@ -17788,6 +18361,7 @@
       <c r="AB531" s="2"/>
       <c r="AC531" s="2"/>
       <c r="AD531" s="2"/>
+      <c r="AE531" s="2"/>
     </row>
     <row r="532">
       <c r="A532" s="2"/>
@@ -17820,6 +18394,7 @@
       <c r="AB532" s="2"/>
       <c r="AC532" s="2"/>
       <c r="AD532" s="2"/>
+      <c r="AE532" s="2"/>
     </row>
     <row r="533">
       <c r="A533" s="2"/>
@@ -17852,6 +18427,7 @@
       <c r="AB533" s="2"/>
       <c r="AC533" s="2"/>
       <c r="AD533" s="2"/>
+      <c r="AE533" s="2"/>
     </row>
     <row r="534">
       <c r="A534" s="2"/>
@@ -17884,6 +18460,7 @@
       <c r="AB534" s="2"/>
       <c r="AC534" s="2"/>
       <c r="AD534" s="2"/>
+      <c r="AE534" s="2"/>
     </row>
     <row r="535">
       <c r="A535" s="2"/>
@@ -17916,6 +18493,7 @@
       <c r="AB535" s="2"/>
       <c r="AC535" s="2"/>
       <c r="AD535" s="2"/>
+      <c r="AE535" s="2"/>
     </row>
     <row r="536">
       <c r="A536" s="2"/>
@@ -17948,6 +18526,7 @@
       <c r="AB536" s="2"/>
       <c r="AC536" s="2"/>
       <c r="AD536" s="2"/>
+      <c r="AE536" s="2"/>
     </row>
     <row r="537">
       <c r="A537" s="2"/>
@@ -17980,6 +18559,7 @@
       <c r="AB537" s="2"/>
       <c r="AC537" s="2"/>
       <c r="AD537" s="2"/>
+      <c r="AE537" s="2"/>
     </row>
     <row r="538">
       <c r="A538" s="2"/>
@@ -18012,6 +18592,7 @@
       <c r="AB538" s="2"/>
       <c r="AC538" s="2"/>
       <c r="AD538" s="2"/>
+      <c r="AE538" s="2"/>
     </row>
     <row r="539">
       <c r="A539" s="2"/>
@@ -18044,6 +18625,7 @@
       <c r="AB539" s="2"/>
       <c r="AC539" s="2"/>
       <c r="AD539" s="2"/>
+      <c r="AE539" s="2"/>
     </row>
     <row r="540">
       <c r="A540" s="2"/>
@@ -18076,6 +18658,7 @@
       <c r="AB540" s="2"/>
       <c r="AC540" s="2"/>
       <c r="AD540" s="2"/>
+      <c r="AE540" s="2"/>
     </row>
     <row r="541">
       <c r="A541" s="2"/>
@@ -18108,6 +18691,7 @@
       <c r="AB541" s="2"/>
       <c r="AC541" s="2"/>
       <c r="AD541" s="2"/>
+      <c r="AE541" s="2"/>
     </row>
     <row r="542">
       <c r="A542" s="2"/>
@@ -18140,6 +18724,7 @@
       <c r="AB542" s="2"/>
       <c r="AC542" s="2"/>
       <c r="AD542" s="2"/>
+      <c r="AE542" s="2"/>
     </row>
     <row r="543">
       <c r="A543" s="2"/>
@@ -18172,6 +18757,7 @@
       <c r="AB543" s="2"/>
       <c r="AC543" s="2"/>
       <c r="AD543" s="2"/>
+      <c r="AE543" s="2"/>
     </row>
     <row r="544">
       <c r="A544" s="2"/>
@@ -18204,6 +18790,7 @@
       <c r="AB544" s="2"/>
       <c r="AC544" s="2"/>
       <c r="AD544" s="2"/>
+      <c r="AE544" s="2"/>
     </row>
     <row r="545">
       <c r="A545" s="2"/>
@@ -18236,6 +18823,7 @@
       <c r="AB545" s="2"/>
       <c r="AC545" s="2"/>
       <c r="AD545" s="2"/>
+      <c r="AE545" s="2"/>
     </row>
     <row r="546">
       <c r="A546" s="2"/>
@@ -18268,6 +18856,7 @@
       <c r="AB546" s="2"/>
       <c r="AC546" s="2"/>
       <c r="AD546" s="2"/>
+      <c r="AE546" s="2"/>
     </row>
     <row r="547">
       <c r="A547" s="2"/>
@@ -18300,6 +18889,7 @@
       <c r="AB547" s="2"/>
       <c r="AC547" s="2"/>
       <c r="AD547" s="2"/>
+      <c r="AE547" s="2"/>
     </row>
     <row r="548">
       <c r="A548" s="2"/>
@@ -18332,6 +18922,7 @@
       <c r="AB548" s="2"/>
       <c r="AC548" s="2"/>
       <c r="AD548" s="2"/>
+      <c r="AE548" s="2"/>
     </row>
     <row r="549">
       <c r="A549" s="2"/>
@@ -18364,6 +18955,7 @@
       <c r="AB549" s="2"/>
       <c r="AC549" s="2"/>
       <c r="AD549" s="2"/>
+      <c r="AE549" s="2"/>
     </row>
     <row r="550">
       <c r="A550" s="2"/>
@@ -18396,6 +18988,7 @@
       <c r="AB550" s="2"/>
       <c r="AC550" s="2"/>
       <c r="AD550" s="2"/>
+      <c r="AE550" s="2"/>
     </row>
     <row r="551">
       <c r="A551" s="2"/>
@@ -18428,6 +19021,7 @@
       <c r="AB551" s="2"/>
       <c r="AC551" s="2"/>
       <c r="AD551" s="2"/>
+      <c r="AE551" s="2"/>
     </row>
     <row r="552">
       <c r="A552" s="2"/>
@@ -18460,6 +19054,7 @@
       <c r="AB552" s="2"/>
       <c r="AC552" s="2"/>
       <c r="AD552" s="2"/>
+      <c r="AE552" s="2"/>
     </row>
     <row r="553">
       <c r="A553" s="2"/>
@@ -18492,6 +19087,7 @@
       <c r="AB553" s="2"/>
       <c r="AC553" s="2"/>
       <c r="AD553" s="2"/>
+      <c r="AE553" s="2"/>
     </row>
     <row r="554">
       <c r="A554" s="2"/>
@@ -18524,6 +19120,7 @@
       <c r="AB554" s="2"/>
       <c r="AC554" s="2"/>
       <c r="AD554" s="2"/>
+      <c r="AE554" s="2"/>
     </row>
     <row r="555">
       <c r="A555" s="2"/>
@@ -18556,6 +19153,7 @@
       <c r="AB555" s="2"/>
       <c r="AC555" s="2"/>
       <c r="AD555" s="2"/>
+      <c r="AE555" s="2"/>
     </row>
     <row r="556">
       <c r="A556" s="2"/>
@@ -18588,6 +19186,7 @@
       <c r="AB556" s="2"/>
       <c r="AC556" s="2"/>
       <c r="AD556" s="2"/>
+      <c r="AE556" s="2"/>
     </row>
     <row r="557">
       <c r="A557" s="2"/>
@@ -18620,6 +19219,7 @@
       <c r="AB557" s="2"/>
       <c r="AC557" s="2"/>
       <c r="AD557" s="2"/>
+      <c r="AE557" s="2"/>
     </row>
     <row r="558">
       <c r="A558" s="2"/>
@@ -18652,6 +19252,7 @@
       <c r="AB558" s="2"/>
       <c r="AC558" s="2"/>
       <c r="AD558" s="2"/>
+      <c r="AE558" s="2"/>
     </row>
     <row r="559">
       <c r="A559" s="2"/>
@@ -18684,6 +19285,7 @@
       <c r="AB559" s="2"/>
       <c r="AC559" s="2"/>
       <c r="AD559" s="2"/>
+      <c r="AE559" s="2"/>
     </row>
     <row r="560">
       <c r="A560" s="2"/>
@@ -18716,6 +19318,7 @@
       <c r="AB560" s="2"/>
       <c r="AC560" s="2"/>
       <c r="AD560" s="2"/>
+      <c r="AE560" s="2"/>
     </row>
     <row r="561">
       <c r="A561" s="2"/>
@@ -18748,6 +19351,7 @@
       <c r="AB561" s="2"/>
       <c r="AC561" s="2"/>
       <c r="AD561" s="2"/>
+      <c r="AE561" s="2"/>
     </row>
     <row r="562">
       <c r="A562" s="2"/>
@@ -18780,6 +19384,7 @@
       <c r="AB562" s="2"/>
       <c r="AC562" s="2"/>
       <c r="AD562" s="2"/>
+      <c r="AE562" s="2"/>
     </row>
     <row r="563">
       <c r="A563" s="2"/>
@@ -18812,6 +19417,7 @@
       <c r="AB563" s="2"/>
       <c r="AC563" s="2"/>
       <c r="AD563" s="2"/>
+      <c r="AE563" s="2"/>
     </row>
     <row r="564">
       <c r="A564" s="2"/>
@@ -18844,6 +19450,7 @@
       <c r="AB564" s="2"/>
       <c r="AC564" s="2"/>
       <c r="AD564" s="2"/>
+      <c r="AE564" s="2"/>
     </row>
     <row r="565">
       <c r="A565" s="2"/>
@@ -18876,6 +19483,7 @@
       <c r="AB565" s="2"/>
       <c r="AC565" s="2"/>
       <c r="AD565" s="2"/>
+      <c r="AE565" s="2"/>
     </row>
     <row r="566">
       <c r="A566" s="2"/>
@@ -18908,6 +19516,7 @@
       <c r="AB566" s="2"/>
       <c r="AC566" s="2"/>
       <c r="AD566" s="2"/>
+      <c r="AE566" s="2"/>
     </row>
     <row r="567">
       <c r="A567" s="2"/>
@@ -18940,6 +19549,7 @@
       <c r="AB567" s="2"/>
       <c r="AC567" s="2"/>
       <c r="AD567" s="2"/>
+      <c r="AE567" s="2"/>
     </row>
     <row r="568">
       <c r="A568" s="2"/>
@@ -18972,6 +19582,7 @@
       <c r="AB568" s="2"/>
       <c r="AC568" s="2"/>
       <c r="AD568" s="2"/>
+      <c r="AE568" s="2"/>
     </row>
     <row r="569">
       <c r="A569" s="2"/>
@@ -19004,6 +19615,7 @@
       <c r="AB569" s="2"/>
       <c r="AC569" s="2"/>
       <c r="AD569" s="2"/>
+      <c r="AE569" s="2"/>
     </row>
     <row r="570">
       <c r="A570" s="2"/>
@@ -19036,6 +19648,7 @@
       <c r="AB570" s="2"/>
       <c r="AC570" s="2"/>
       <c r="AD570" s="2"/>
+      <c r="AE570" s="2"/>
     </row>
     <row r="571">
       <c r="A571" s="2"/>
@@ -19068,6 +19681,7 @@
       <c r="AB571" s="2"/>
       <c r="AC571" s="2"/>
       <c r="AD571" s="2"/>
+      <c r="AE571" s="2"/>
     </row>
     <row r="572">
       <c r="A572" s="2"/>
@@ -19100,6 +19714,7 @@
       <c r="AB572" s="2"/>
       <c r="AC572" s="2"/>
       <c r="AD572" s="2"/>
+      <c r="AE572" s="2"/>
     </row>
     <row r="573">
       <c r="A573" s="2"/>
@@ -19132,6 +19747,7 @@
       <c r="AB573" s="2"/>
       <c r="AC573" s="2"/>
       <c r="AD573" s="2"/>
+      <c r="AE573" s="2"/>
     </row>
     <row r="574">
       <c r="A574" s="2"/>
@@ -19164,6 +19780,7 @@
       <c r="AB574" s="2"/>
       <c r="AC574" s="2"/>
       <c r="AD574" s="2"/>
+      <c r="AE574" s="2"/>
     </row>
     <row r="575">
       <c r="A575" s="2"/>
@@ -19196,6 +19813,7 @@
       <c r="AB575" s="2"/>
       <c r="AC575" s="2"/>
       <c r="AD575" s="2"/>
+      <c r="AE575" s="2"/>
     </row>
     <row r="576">
       <c r="A576" s="2"/>
@@ -19228,6 +19846,7 @@
       <c r="AB576" s="2"/>
       <c r="AC576" s="2"/>
       <c r="AD576" s="2"/>
+      <c r="AE576" s="2"/>
     </row>
     <row r="577">
       <c r="A577" s="2"/>
@@ -19260,6 +19879,7 @@
       <c r="AB577" s="2"/>
       <c r="AC577" s="2"/>
       <c r="AD577" s="2"/>
+      <c r="AE577" s="2"/>
     </row>
     <row r="578">
       <c r="A578" s="2"/>
@@ -19292,6 +19912,7 @@
       <c r="AB578" s="2"/>
       <c r="AC578" s="2"/>
       <c r="AD578" s="2"/>
+      <c r="AE578" s="2"/>
     </row>
     <row r="579">
       <c r="A579" s="2"/>
@@ -19324,6 +19945,7 @@
       <c r="AB579" s="2"/>
       <c r="AC579" s="2"/>
       <c r="AD579" s="2"/>
+      <c r="AE579" s="2"/>
     </row>
     <row r="580">
       <c r="A580" s="2"/>
@@ -19356,6 +19978,7 @@
       <c r="AB580" s="2"/>
       <c r="AC580" s="2"/>
       <c r="AD580" s="2"/>
+      <c r="AE580" s="2"/>
     </row>
     <row r="581">
       <c r="A581" s="2"/>
@@ -19388,6 +20011,7 @@
       <c r="AB581" s="2"/>
       <c r="AC581" s="2"/>
       <c r="AD581" s="2"/>
+      <c r="AE581" s="2"/>
     </row>
     <row r="582">
       <c r="A582" s="2"/>
@@ -19420,6 +20044,7 @@
       <c r="AB582" s="2"/>
       <c r="AC582" s="2"/>
       <c r="AD582" s="2"/>
+      <c r="AE582" s="2"/>
     </row>
     <row r="583">
       <c r="A583" s="2"/>
@@ -19452,6 +20077,7 @@
       <c r="AB583" s="2"/>
       <c r="AC583" s="2"/>
       <c r="AD583" s="2"/>
+      <c r="AE583" s="2"/>
     </row>
     <row r="584">
       <c r="A584" s="2"/>
@@ -19484,6 +20110,7 @@
       <c r="AB584" s="2"/>
       <c r="AC584" s="2"/>
       <c r="AD584" s="2"/>
+      <c r="AE584" s="2"/>
     </row>
     <row r="585">
       <c r="A585" s="2"/>
@@ -19516,6 +20143,7 @@
       <c r="AB585" s="2"/>
       <c r="AC585" s="2"/>
       <c r="AD585" s="2"/>
+      <c r="AE585" s="2"/>
     </row>
     <row r="586">
       <c r="A586" s="2"/>
@@ -19548,6 +20176,7 @@
       <c r="AB586" s="2"/>
       <c r="AC586" s="2"/>
       <c r="AD586" s="2"/>
+      <c r="AE586" s="2"/>
     </row>
     <row r="587">
       <c r="A587" s="2"/>
@@ -19580,6 +20209,7 @@
       <c r="AB587" s="2"/>
       <c r="AC587" s="2"/>
       <c r="AD587" s="2"/>
+      <c r="AE587" s="2"/>
     </row>
     <row r="588">
       <c r="A588" s="2"/>
@@ -19612,6 +20242,7 @@
       <c r="AB588" s="2"/>
       <c r="AC588" s="2"/>
       <c r="AD588" s="2"/>
+      <c r="AE588" s="2"/>
     </row>
     <row r="589">
       <c r="A589" s="2"/>
@@ -19644,6 +20275,7 @@
       <c r="AB589" s="2"/>
       <c r="AC589" s="2"/>
       <c r="AD589" s="2"/>
+      <c r="AE589" s="2"/>
     </row>
     <row r="590">
       <c r="A590" s="2"/>
@@ -19676,6 +20308,7 @@
       <c r="AB590" s="2"/>
       <c r="AC590" s="2"/>
       <c r="AD590" s="2"/>
+      <c r="AE590" s="2"/>
     </row>
     <row r="591">
       <c r="A591" s="2"/>
@@ -19708,6 +20341,7 @@
       <c r="AB591" s="2"/>
       <c r="AC591" s="2"/>
       <c r="AD591" s="2"/>
+      <c r="AE591" s="2"/>
     </row>
     <row r="592">
       <c r="A592" s="2"/>
@@ -19740,6 +20374,7 @@
       <c r="AB592" s="2"/>
       <c r="AC592" s="2"/>
       <c r="AD592" s="2"/>
+      <c r="AE592" s="2"/>
     </row>
     <row r="593">
       <c r="A593" s="2"/>
@@ -19772,6 +20407,7 @@
       <c r="AB593" s="2"/>
       <c r="AC593" s="2"/>
       <c r="AD593" s="2"/>
+      <c r="AE593" s="2"/>
     </row>
     <row r="594">
       <c r="A594" s="2"/>
@@ -19804,6 +20440,7 @@
       <c r="AB594" s="2"/>
       <c r="AC594" s="2"/>
       <c r="AD594" s="2"/>
+      <c r="AE594" s="2"/>
     </row>
     <row r="595">
       <c r="A595" s="2"/>
@@ -19836,6 +20473,7 @@
       <c r="AB595" s="2"/>
       <c r="AC595" s="2"/>
       <c r="AD595" s="2"/>
+      <c r="AE595" s="2"/>
     </row>
     <row r="596">
       <c r="A596" s="2"/>
@@ -19868,6 +20506,7 @@
       <c r="AB596" s="2"/>
       <c r="AC596" s="2"/>
       <c r="AD596" s="2"/>
+      <c r="AE596" s="2"/>
     </row>
     <row r="597">
       <c r="A597" s="2"/>
@@ -19900,6 +20539,7 @@
       <c r="AB597" s="2"/>
       <c r="AC597" s="2"/>
       <c r="AD597" s="2"/>
+      <c r="AE597" s="2"/>
     </row>
     <row r="598">
       <c r="A598" s="2"/>
@@ -19932,6 +20572,7 @@
       <c r="AB598" s="2"/>
       <c r="AC598" s="2"/>
       <c r="AD598" s="2"/>
+      <c r="AE598" s="2"/>
     </row>
     <row r="599">
       <c r="A599" s="2"/>
@@ -19964,6 +20605,7 @@
       <c r="AB599" s="2"/>
       <c r="AC599" s="2"/>
       <c r="AD599" s="2"/>
+      <c r="AE599" s="2"/>
     </row>
     <row r="600">
       <c r="A600" s="2"/>
@@ -19996,6 +20638,7 @@
       <c r="AB600" s="2"/>
       <c r="AC600" s="2"/>
       <c r="AD600" s="2"/>
+      <c r="AE600" s="2"/>
     </row>
     <row r="601">
       <c r="A601" s="2"/>
@@ -20028,6 +20671,7 @@
       <c r="AB601" s="2"/>
       <c r="AC601" s="2"/>
       <c r="AD601" s="2"/>
+      <c r="AE601" s="2"/>
     </row>
     <row r="602">
       <c r="A602" s="2"/>
@@ -20060,6 +20704,7 @@
       <c r="AB602" s="2"/>
       <c r="AC602" s="2"/>
       <c r="AD602" s="2"/>
+      <c r="AE602" s="2"/>
     </row>
     <row r="603">
       <c r="A603" s="2"/>
@@ -20092,6 +20737,7 @@
       <c r="AB603" s="2"/>
       <c r="AC603" s="2"/>
       <c r="AD603" s="2"/>
+      <c r="AE603" s="2"/>
     </row>
     <row r="604">
       <c r="A604" s="2"/>
@@ -20124,6 +20770,7 @@
       <c r="AB604" s="2"/>
       <c r="AC604" s="2"/>
       <c r="AD604" s="2"/>
+      <c r="AE604" s="2"/>
     </row>
     <row r="605">
       <c r="A605" s="2"/>
@@ -20156,6 +20803,7 @@
       <c r="AB605" s="2"/>
       <c r="AC605" s="2"/>
       <c r="AD605" s="2"/>
+      <c r="AE605" s="2"/>
     </row>
     <row r="606">
       <c r="A606" s="2"/>
@@ -20188,6 +20836,7 @@
       <c r="AB606" s="2"/>
       <c r="AC606" s="2"/>
       <c r="AD606" s="2"/>
+      <c r="AE606" s="2"/>
     </row>
     <row r="607">
       <c r="A607" s="2"/>
@@ -20220,6 +20869,7 @@
       <c r="AB607" s="2"/>
       <c r="AC607" s="2"/>
       <c r="AD607" s="2"/>
+      <c r="AE607" s="2"/>
     </row>
     <row r="608">
       <c r="A608" s="2"/>
@@ -20252,6 +20902,7 @@
       <c r="AB608" s="2"/>
       <c r="AC608" s="2"/>
       <c r="AD608" s="2"/>
+      <c r="AE608" s="2"/>
     </row>
     <row r="609">
       <c r="A609" s="2"/>
@@ -20284,6 +20935,7 @@
       <c r="AB609" s="2"/>
       <c r="AC609" s="2"/>
       <c r="AD609" s="2"/>
+      <c r="AE609" s="2"/>
     </row>
     <row r="610">
       <c r="A610" s="2"/>
@@ -20316,6 +20968,7 @@
       <c r="AB610" s="2"/>
       <c r="AC610" s="2"/>
       <c r="AD610" s="2"/>
+      <c r="AE610" s="2"/>
     </row>
     <row r="611">
       <c r="A611" s="2"/>
@@ -20348,6 +21001,7 @@
       <c r="AB611" s="2"/>
       <c r="AC611" s="2"/>
       <c r="AD611" s="2"/>
+      <c r="AE611" s="2"/>
     </row>
     <row r="612">
       <c r="A612" s="2"/>
@@ -20380,6 +21034,7 @@
       <c r="AB612" s="2"/>
       <c r="AC612" s="2"/>
       <c r="AD612" s="2"/>
+      <c r="AE612" s="2"/>
     </row>
     <row r="613">
       <c r="A613" s="2"/>
@@ -20412,6 +21067,7 @@
       <c r="AB613" s="2"/>
       <c r="AC613" s="2"/>
       <c r="AD613" s="2"/>
+      <c r="AE613" s="2"/>
     </row>
     <row r="614">
       <c r="A614" s="2"/>
@@ -20444,6 +21100,7 @@
       <c r="AB614" s="2"/>
       <c r="AC614" s="2"/>
       <c r="AD614" s="2"/>
+      <c r="AE614" s="2"/>
     </row>
     <row r="615">
       <c r="A615" s="2"/>
@@ -20476,6 +21133,7 @@
       <c r="AB615" s="2"/>
       <c r="AC615" s="2"/>
       <c r="AD615" s="2"/>
+      <c r="AE615" s="2"/>
     </row>
     <row r="616">
       <c r="A616" s="2"/>
@@ -20508,6 +21166,7 @@
       <c r="AB616" s="2"/>
       <c r="AC616" s="2"/>
       <c r="AD616" s="2"/>
+      <c r="AE616" s="2"/>
     </row>
     <row r="617">
       <c r="A617" s="2"/>
@@ -20540,6 +21199,7 @@
       <c r="AB617" s="2"/>
       <c r="AC617" s="2"/>
       <c r="AD617" s="2"/>
+      <c r="AE617" s="2"/>
     </row>
     <row r="618">
       <c r="A618" s="2"/>
@@ -20572,6 +21232,7 @@
       <c r="AB618" s="2"/>
       <c r="AC618" s="2"/>
       <c r="AD618" s="2"/>
+      <c r="AE618" s="2"/>
     </row>
     <row r="619">
       <c r="A619" s="2"/>
@@ -20604,6 +21265,7 @@
       <c r="AB619" s="2"/>
       <c r="AC619" s="2"/>
       <c r="AD619" s="2"/>
+      <c r="AE619" s="2"/>
     </row>
     <row r="620">
       <c r="A620" s="2"/>
@@ -20636,6 +21298,7 @@
       <c r="AB620" s="2"/>
       <c r="AC620" s="2"/>
       <c r="AD620" s="2"/>
+      <c r="AE620" s="2"/>
     </row>
     <row r="621">
       <c r="A621" s="2"/>
@@ -20668,6 +21331,7 @@
       <c r="AB621" s="2"/>
       <c r="AC621" s="2"/>
       <c r="AD621" s="2"/>
+      <c r="AE621" s="2"/>
     </row>
     <row r="622">
       <c r="A622" s="2"/>
@@ -20700,6 +21364,7 @@
       <c r="AB622" s="2"/>
       <c r="AC622" s="2"/>
       <c r="AD622" s="2"/>
+      <c r="AE622" s="2"/>
     </row>
     <row r="623">
       <c r="A623" s="2"/>
@@ -20732,6 +21397,7 @@
       <c r="AB623" s="2"/>
       <c r="AC623" s="2"/>
       <c r="AD623" s="2"/>
+      <c r="AE623" s="2"/>
     </row>
     <row r="624">
       <c r="A624" s="2"/>
@@ -20764,6 +21430,7 @@
       <c r="AB624" s="2"/>
       <c r="AC624" s="2"/>
       <c r="AD624" s="2"/>
+      <c r="AE624" s="2"/>
     </row>
     <row r="625">
       <c r="A625" s="2"/>
@@ -20796,6 +21463,7 @@
       <c r="AB625" s="2"/>
       <c r="AC625" s="2"/>
       <c r="AD625" s="2"/>
+      <c r="AE625" s="2"/>
     </row>
     <row r="626">
       <c r="A626" s="2"/>
@@ -20828,6 +21496,7 @@
       <c r="AB626" s="2"/>
       <c r="AC626" s="2"/>
       <c r="AD626" s="2"/>
+      <c r="AE626" s="2"/>
     </row>
     <row r="627">
       <c r="A627" s="2"/>
@@ -20860,6 +21529,7 @@
       <c r="AB627" s="2"/>
       <c r="AC627" s="2"/>
       <c r="AD627" s="2"/>
+      <c r="AE627" s="2"/>
     </row>
     <row r="628">
       <c r="A628" s="2"/>
@@ -20892,6 +21562,7 @@
       <c r="AB628" s="2"/>
       <c r="AC628" s="2"/>
       <c r="AD628" s="2"/>
+      <c r="AE628" s="2"/>
     </row>
     <row r="629">
       <c r="A629" s="2"/>
@@ -20924,6 +21595,7 @@
       <c r="AB629" s="2"/>
       <c r="AC629" s="2"/>
       <c r="AD629" s="2"/>
+      <c r="AE629" s="2"/>
     </row>
     <row r="630">
       <c r="A630" s="2"/>
@@ -20956,6 +21628,7 @@
       <c r="AB630" s="2"/>
       <c r="AC630" s="2"/>
       <c r="AD630" s="2"/>
+      <c r="AE630" s="2"/>
     </row>
     <row r="631">
       <c r="A631" s="2"/>
@@ -20988,6 +21661,7 @@
       <c r="AB631" s="2"/>
       <c r="AC631" s="2"/>
       <c r="AD631" s="2"/>
+      <c r="AE631" s="2"/>
     </row>
     <row r="632">
       <c r="A632" s="2"/>
@@ -21020,6 +21694,7 @@
       <c r="AB632" s="2"/>
       <c r="AC632" s="2"/>
       <c r="AD632" s="2"/>
+      <c r="AE632" s="2"/>
     </row>
     <row r="633">
       <c r="A633" s="2"/>
@@ -21052,6 +21727,7 @@
       <c r="AB633" s="2"/>
       <c r="AC633" s="2"/>
       <c r="AD633" s="2"/>
+      <c r="AE633" s="2"/>
     </row>
     <row r="634">
       <c r="A634" s="2"/>
@@ -21084,6 +21760,7 @@
       <c r="AB634" s="2"/>
       <c r="AC634" s="2"/>
       <c r="AD634" s="2"/>
+      <c r="AE634" s="2"/>
     </row>
     <row r="635">
       <c r="A635" s="2"/>
@@ -21116,6 +21793,7 @@
       <c r="AB635" s="2"/>
       <c r="AC635" s="2"/>
       <c r="AD635" s="2"/>
+      <c r="AE635" s="2"/>
     </row>
     <row r="636">
       <c r="A636" s="2"/>
@@ -21148,6 +21826,7 @@
       <c r="AB636" s="2"/>
       <c r="AC636" s="2"/>
       <c r="AD636" s="2"/>
+      <c r="AE636" s="2"/>
     </row>
     <row r="637">
       <c r="A637" s="2"/>
@@ -21180,6 +21859,7 @@
       <c r="AB637" s="2"/>
       <c r="AC637" s="2"/>
       <c r="AD637" s="2"/>
+      <c r="AE637" s="2"/>
     </row>
     <row r="638">
       <c r="A638" s="2"/>
@@ -21212,6 +21892,7 @@
       <c r="AB638" s="2"/>
       <c r="AC638" s="2"/>
       <c r="AD638" s="2"/>
+      <c r="AE638" s="2"/>
     </row>
     <row r="639">
       <c r="A639" s="2"/>
@@ -21244,6 +21925,7 @@
       <c r="AB639" s="2"/>
       <c r="AC639" s="2"/>
       <c r="AD639" s="2"/>
+      <c r="AE639" s="2"/>
     </row>
     <row r="640">
       <c r="A640" s="2"/>
@@ -21276,6 +21958,7 @@
       <c r="AB640" s="2"/>
       <c r="AC640" s="2"/>
       <c r="AD640" s="2"/>
+      <c r="AE640" s="2"/>
     </row>
     <row r="641">
       <c r="A641" s="2"/>
@@ -21308,6 +21991,7 @@
       <c r="AB641" s="2"/>
       <c r="AC641" s="2"/>
       <c r="AD641" s="2"/>
+      <c r="AE641" s="2"/>
     </row>
     <row r="642">
       <c r="A642" s="2"/>
@@ -21340,6 +22024,7 @@
       <c r="AB642" s="2"/>
       <c r="AC642" s="2"/>
       <c r="AD642" s="2"/>
+      <c r="AE642" s="2"/>
     </row>
     <row r="643">
       <c r="A643" s="2"/>
@@ -21372,6 +22057,7 @@
       <c r="AB643" s="2"/>
       <c r="AC643" s="2"/>
       <c r="AD643" s="2"/>
+      <c r="AE643" s="2"/>
     </row>
     <row r="644">
       <c r="A644" s="2"/>
@@ -21404,6 +22090,7 @@
       <c r="AB644" s="2"/>
       <c r="AC644" s="2"/>
       <c r="AD644" s="2"/>
+      <c r="AE644" s="2"/>
     </row>
     <row r="645">
       <c r="A645" s="2"/>
@@ -21436,6 +22123,7 @@
       <c r="AB645" s="2"/>
       <c r="AC645" s="2"/>
       <c r="AD645" s="2"/>
+      <c r="AE645" s="2"/>
     </row>
     <row r="646">
       <c r="A646" s="2"/>
@@ -21468,6 +22156,7 @@
       <c r="AB646" s="2"/>
       <c r="AC646" s="2"/>
       <c r="AD646" s="2"/>
+      <c r="AE646" s="2"/>
     </row>
     <row r="647">
       <c r="A647" s="2"/>
@@ -21500,6 +22189,7 @@
       <c r="AB647" s="2"/>
       <c r="AC647" s="2"/>
       <c r="AD647" s="2"/>
+      <c r="AE647" s="2"/>
     </row>
     <row r="648">
       <c r="A648" s="2"/>
@@ -21532,6 +22222,7 @@
       <c r="AB648" s="2"/>
       <c r="AC648" s="2"/>
       <c r="AD648" s="2"/>
+      <c r="AE648" s="2"/>
     </row>
     <row r="649">
       <c r="A649" s="2"/>
@@ -21564,6 +22255,7 @@
       <c r="AB649" s="2"/>
       <c r="AC649" s="2"/>
       <c r="AD649" s="2"/>
+      <c r="AE649" s="2"/>
     </row>
     <row r="650">
       <c r="A650" s="2"/>
@@ -21596,6 +22288,7 @@
       <c r="AB650" s="2"/>
       <c r="AC650" s="2"/>
       <c r="AD650" s="2"/>
+      <c r="AE650" s="2"/>
     </row>
     <row r="651">
       <c r="A651" s="2"/>
@@ -21628,6 +22321,7 @@
       <c r="AB651" s="2"/>
       <c r="AC651" s="2"/>
       <c r="AD651" s="2"/>
+      <c r="AE651" s="2"/>
     </row>
     <row r="652">
       <c r="A652" s="2"/>
@@ -21660,6 +22354,7 @@
       <c r="AB652" s="2"/>
       <c r="AC652" s="2"/>
       <c r="AD652" s="2"/>
+      <c r="AE652" s="2"/>
     </row>
     <row r="653">
       <c r="A653" s="2"/>
@@ -21692,6 +22387,7 @@
       <c r="AB653" s="2"/>
       <c r="AC653" s="2"/>
       <c r="AD653" s="2"/>
+      <c r="AE653" s="2"/>
     </row>
     <row r="654">
       <c r="A654" s="2"/>
@@ -21724,6 +22420,7 @@
       <c r="AB654" s="2"/>
       <c r="AC654" s="2"/>
       <c r="AD654" s="2"/>
+      <c r="AE654" s="2"/>
     </row>
     <row r="655">
       <c r="A655" s="2"/>
@@ -21756,6 +22453,7 @@
       <c r="AB655" s="2"/>
       <c r="AC655" s="2"/>
       <c r="AD655" s="2"/>
+      <c r="AE655" s="2"/>
     </row>
     <row r="656">
       <c r="A656" s="2"/>
@@ -21788,6 +22486,7 @@
       <c r="AB656" s="2"/>
       <c r="AC656" s="2"/>
       <c r="AD656" s="2"/>
+      <c r="AE656" s="2"/>
     </row>
     <row r="657">
       <c r="A657" s="2"/>
@@ -21820,6 +22519,7 @@
       <c r="AB657" s="2"/>
       <c r="AC657" s="2"/>
       <c r="AD657" s="2"/>
+      <c r="AE657" s="2"/>
     </row>
     <row r="658">
       <c r="A658" s="2"/>
@@ -21852,6 +22552,7 @@
       <c r="AB658" s="2"/>
       <c r="AC658" s="2"/>
       <c r="AD658" s="2"/>
+      <c r="AE658" s="2"/>
     </row>
     <row r="659">
       <c r="A659" s="2"/>
@@ -21884,6 +22585,7 @@
       <c r="AB659" s="2"/>
       <c r="AC659" s="2"/>
       <c r="AD659" s="2"/>
+      <c r="AE659" s="2"/>
     </row>
     <row r="660">
       <c r="A660" s="2"/>
@@ -21916,6 +22618,7 @@
       <c r="AB660" s="2"/>
       <c r="AC660" s="2"/>
       <c r="AD660" s="2"/>
+      <c r="AE660" s="2"/>
     </row>
     <row r="661">
       <c r="A661" s="2"/>
@@ -21948,6 +22651,7 @@
       <c r="AB661" s="2"/>
       <c r="AC661" s="2"/>
       <c r="AD661" s="2"/>
+      <c r="AE661" s="2"/>
     </row>
     <row r="662">
       <c r="A662" s="2"/>
@@ -21980,6 +22684,7 @@
       <c r="AB662" s="2"/>
       <c r="AC662" s="2"/>
       <c r="AD662" s="2"/>
+      <c r="AE662" s="2"/>
     </row>
     <row r="663">
       <c r="A663" s="2"/>
@@ -22012,6 +22717,7 @@
       <c r="AB663" s="2"/>
       <c r="AC663" s="2"/>
       <c r="AD663" s="2"/>
+      <c r="AE663" s="2"/>
     </row>
     <row r="664">
       <c r="A664" s="2"/>
@@ -22044,6 +22750,7 @@
       <c r="AB664" s="2"/>
       <c r="AC664" s="2"/>
       <c r="AD664" s="2"/>
+      <c r="AE664" s="2"/>
     </row>
     <row r="665">
       <c r="A665" s="2"/>
@@ -22076,6 +22783,7 @@
       <c r="AB665" s="2"/>
       <c r="AC665" s="2"/>
       <c r="AD665" s="2"/>
+      <c r="AE665" s="2"/>
     </row>
     <row r="666">
       <c r="A666" s="2"/>
@@ -22108,6 +22816,7 @@
       <c r="AB666" s="2"/>
       <c r="AC666" s="2"/>
       <c r="AD666" s="2"/>
+      <c r="AE666" s="2"/>
     </row>
     <row r="667">
       <c r="A667" s="2"/>
@@ -22140,6 +22849,7 @@
       <c r="AB667" s="2"/>
       <c r="AC667" s="2"/>
       <c r="AD667" s="2"/>
+      <c r="AE667" s="2"/>
     </row>
     <row r="668">
       <c r="A668" s="2"/>
@@ -22172,6 +22882,7 @@
       <c r="AB668" s="2"/>
       <c r="AC668" s="2"/>
       <c r="AD668" s="2"/>
+      <c r="AE668" s="2"/>
     </row>
     <row r="669">
       <c r="A669" s="2"/>
@@ -22204,6 +22915,7 @@
       <c r="AB669" s="2"/>
       <c r="AC669" s="2"/>
       <c r="AD669" s="2"/>
+      <c r="AE669" s="2"/>
     </row>
     <row r="670">
       <c r="A670" s="2"/>
@@ -22236,6 +22948,7 @@
       <c r="AB670" s="2"/>
       <c r="AC670" s="2"/>
       <c r="AD670" s="2"/>
+      <c r="AE670" s="2"/>
     </row>
     <row r="671">
       <c r="A671" s="2"/>
@@ -22268,6 +22981,7 @@
       <c r="AB671" s="2"/>
       <c r="AC671" s="2"/>
       <c r="AD671" s="2"/>
+      <c r="AE671" s="2"/>
     </row>
     <row r="672">
       <c r="A672" s="2"/>
@@ -22300,6 +23014,7 @@
       <c r="AB672" s="2"/>
       <c r="AC672" s="2"/>
       <c r="AD672" s="2"/>
+      <c r="AE672" s="2"/>
     </row>
     <row r="673">
       <c r="A673" s="2"/>
@@ -22332,6 +23047,7 @@
       <c r="AB673" s="2"/>
       <c r="AC673" s="2"/>
       <c r="AD673" s="2"/>
+      <c r="AE673" s="2"/>
     </row>
     <row r="674">
       <c r="A674" s="2"/>
@@ -22364,6 +23080,7 @@
       <c r="AB674" s="2"/>
       <c r="AC674" s="2"/>
       <c r="AD674" s="2"/>
+      <c r="AE674" s="2"/>
     </row>
     <row r="675">
       <c r="A675" s="2"/>
@@ -22396,6 +23113,7 @@
       <c r="AB675" s="2"/>
       <c r="AC675" s="2"/>
       <c r="AD675" s="2"/>
+      <c r="AE675" s="2"/>
     </row>
     <row r="676">
       <c r="A676" s="2"/>
@@ -22428,6 +23146,7 @@
       <c r="AB676" s="2"/>
       <c r="AC676" s="2"/>
       <c r="AD676" s="2"/>
+      <c r="AE676" s="2"/>
     </row>
     <row r="677">
       <c r="A677" s="2"/>
@@ -22460,6 +23179,7 @@
       <c r="AB677" s="2"/>
       <c r="AC677" s="2"/>
       <c r="AD677" s="2"/>
+      <c r="AE677" s="2"/>
     </row>
     <row r="678">
       <c r="A678" s="2"/>
@@ -22492,6 +23212,7 @@
       <c r="AB678" s="2"/>
       <c r="AC678" s="2"/>
       <c r="AD678" s="2"/>
+      <c r="AE678" s="2"/>
     </row>
     <row r="679">
       <c r="A679" s="2"/>
@@ -22524,6 +23245,7 @@
       <c r="AB679" s="2"/>
       <c r="AC679" s="2"/>
       <c r="AD679" s="2"/>
+      <c r="AE679" s="2"/>
     </row>
     <row r="680">
       <c r="A680" s="2"/>
@@ -22556,6 +23278,7 @@
       <c r="AB680" s="2"/>
       <c r="AC680" s="2"/>
       <c r="AD680" s="2"/>
+      <c r="AE680" s="2"/>
     </row>
     <row r="681">
       <c r="A681" s="2"/>
@@ -22588,6 +23311,7 @@
       <c r="AB681" s="2"/>
       <c r="AC681" s="2"/>
       <c r="AD681" s="2"/>
+      <c r="AE681" s="2"/>
     </row>
     <row r="682">
       <c r="A682" s="2"/>
@@ -22620,6 +23344,7 @@
       <c r="AB682" s="2"/>
       <c r="AC682" s="2"/>
       <c r="AD682" s="2"/>
+      <c r="AE682" s="2"/>
     </row>
     <row r="683">
       <c r="A683" s="2"/>
@@ -22652,6 +23377,7 @@
       <c r="AB683" s="2"/>
       <c r="AC683" s="2"/>
       <c r="AD683" s="2"/>
+      <c r="AE683" s="2"/>
     </row>
     <row r="684">
       <c r="A684" s="2"/>
@@ -22684,6 +23410,7 @@
       <c r="AB684" s="2"/>
       <c r="AC684" s="2"/>
       <c r="AD684" s="2"/>
+      <c r="AE684" s="2"/>
     </row>
     <row r="685">
       <c r="A685" s="2"/>
@@ -22716,6 +23443,7 @@
       <c r="AB685" s="2"/>
       <c r="AC685" s="2"/>
       <c r="AD685" s="2"/>
+      <c r="AE685" s="2"/>
     </row>
     <row r="686">
       <c r="A686" s="2"/>
@@ -22748,6 +23476,7 @@
       <c r="AB686" s="2"/>
       <c r="AC686" s="2"/>
       <c r="AD686" s="2"/>
+      <c r="AE686" s="2"/>
     </row>
     <row r="687">
       <c r="A687" s="2"/>
@@ -22780,6 +23509,7 @@
       <c r="AB687" s="2"/>
       <c r="AC687" s="2"/>
       <c r="AD687" s="2"/>
+      <c r="AE687" s="2"/>
     </row>
     <row r="688">
       <c r="A688" s="2"/>
@@ -22812,6 +23542,7 @@
       <c r="AB688" s="2"/>
       <c r="AC688" s="2"/>
       <c r="AD688" s="2"/>
+      <c r="AE688" s="2"/>
     </row>
     <row r="689">
       <c r="A689" s="2"/>
@@ -22844,6 +23575,7 @@
       <c r="AB689" s="2"/>
       <c r="AC689" s="2"/>
       <c r="AD689" s="2"/>
+      <c r="AE689" s="2"/>
     </row>
     <row r="690">
       <c r="A690" s="2"/>
@@ -22876,6 +23608,7 @@
       <c r="AB690" s="2"/>
       <c r="AC690" s="2"/>
       <c r="AD690" s="2"/>
+      <c r="AE690" s="2"/>
     </row>
     <row r="691">
       <c r="A691" s="2"/>
@@ -22908,6 +23641,7 @@
       <c r="AB691" s="2"/>
       <c r="AC691" s="2"/>
       <c r="AD691" s="2"/>
+      <c r="AE691" s="2"/>
     </row>
     <row r="692">
       <c r="A692" s="2"/>
@@ -22940,6 +23674,7 @@
       <c r="AB692" s="2"/>
       <c r="AC692" s="2"/>
       <c r="AD692" s="2"/>
+      <c r="AE692" s="2"/>
     </row>
     <row r="693">
       <c r="A693" s="2"/>
@@ -22972,6 +23707,7 @@
       <c r="AB693" s="2"/>
       <c r="AC693" s="2"/>
       <c r="AD693" s="2"/>
+      <c r="AE693" s="2"/>
     </row>
     <row r="694">
       <c r="A694" s="2"/>
@@ -23004,6 +23740,7 @@
       <c r="AB694" s="2"/>
       <c r="AC694" s="2"/>
       <c r="AD694" s="2"/>
+      <c r="AE694" s="2"/>
     </row>
     <row r="695">
       <c r="A695" s="2"/>
@@ -23036,6 +23773,7 @@
       <c r="AB695" s="2"/>
       <c r="AC695" s="2"/>
       <c r="AD695" s="2"/>
+      <c r="AE695" s="2"/>
     </row>
     <row r="696">
       <c r="A696" s="2"/>
@@ -23068,6 +23806,7 @@
       <c r="AB696" s="2"/>
       <c r="AC696" s="2"/>
       <c r="AD696" s="2"/>
+      <c r="AE696" s="2"/>
     </row>
     <row r="697">
       <c r="A697" s="2"/>
@@ -23100,6 +23839,7 @@
       <c r="AB697" s="2"/>
       <c r="AC697" s="2"/>
       <c r="AD697" s="2"/>
+      <c r="AE697" s="2"/>
     </row>
     <row r="698">
       <c r="A698" s="2"/>
@@ -23132,6 +23872,7 @@
       <c r="AB698" s="2"/>
       <c r="AC698" s="2"/>
       <c r="AD698" s="2"/>
+      <c r="AE698" s="2"/>
     </row>
     <row r="699">
       <c r="A699" s="2"/>
@@ -23164,6 +23905,7 @@
       <c r="AB699" s="2"/>
       <c r="AC699" s="2"/>
       <c r="AD699" s="2"/>
+      <c r="AE699" s="2"/>
     </row>
     <row r="700">
       <c r="A700" s="2"/>
@@ -23196,6 +23938,7 @@
       <c r="AB700" s="2"/>
       <c r="AC700" s="2"/>
       <c r="AD700" s="2"/>
+      <c r="AE700" s="2"/>
     </row>
     <row r="701">
       <c r="A701" s="2"/>
@@ -23228,6 +23971,7 @@
       <c r="AB701" s="2"/>
       <c r="AC701" s="2"/>
       <c r="AD701" s="2"/>
+      <c r="AE701" s="2"/>
     </row>
     <row r="702">
       <c r="A702" s="2"/>
@@ -23260,6 +24004,7 @@
       <c r="AB702" s="2"/>
       <c r="AC702" s="2"/>
       <c r="AD702" s="2"/>
+      <c r="AE702" s="2"/>
     </row>
     <row r="703">
       <c r="A703" s="2"/>
@@ -23292,6 +24037,7 @@
       <c r="AB703" s="2"/>
       <c r="AC703" s="2"/>
       <c r="AD703" s="2"/>
+      <c r="AE703" s="2"/>
     </row>
     <row r="704">
       <c r="A704" s="2"/>
@@ -23324,6 +24070,7 @@
       <c r="AB704" s="2"/>
       <c r="AC704" s="2"/>
       <c r="AD704" s="2"/>
+      <c r="AE704" s="2"/>
     </row>
     <row r="705">
       <c r="A705" s="2"/>
@@ -23356,6 +24103,7 @@
       <c r="AB705" s="2"/>
       <c r="AC705" s="2"/>
       <c r="AD705" s="2"/>
+      <c r="AE705" s="2"/>
     </row>
     <row r="706">
       <c r="A706" s="2"/>
@@ -23388,6 +24136,7 @@
       <c r="AB706" s="2"/>
       <c r="AC706" s="2"/>
       <c r="AD706" s="2"/>
+      <c r="AE706" s="2"/>
     </row>
     <row r="707">
       <c r="A707" s="2"/>
@@ -23420,6 +24169,7 @@
       <c r="AB707" s="2"/>
       <c r="AC707" s="2"/>
       <c r="AD707" s="2"/>
+      <c r="AE707" s="2"/>
     </row>
     <row r="708">
       <c r="A708" s="2"/>
@@ -23452,6 +24202,7 @@
       <c r="AB708" s="2"/>
       <c r="AC708" s="2"/>
       <c r="AD708" s="2"/>
+      <c r="AE708" s="2"/>
     </row>
     <row r="709">
       <c r="A709" s="2"/>
@@ -23484,6 +24235,7 @@
       <c r="AB709" s="2"/>
       <c r="AC709" s="2"/>
       <c r="AD709" s="2"/>
+      <c r="AE709" s="2"/>
     </row>
     <row r="710">
       <c r="A710" s="2"/>
@@ -23516,6 +24268,7 @@
       <c r="AB710" s="2"/>
       <c r="AC710" s="2"/>
       <c r="AD710" s="2"/>
+      <c r="AE710" s="2"/>
     </row>
     <row r="711">
       <c r="A711" s="2"/>
@@ -23548,6 +24301,7 @@
       <c r="AB711" s="2"/>
       <c r="AC711" s="2"/>
       <c r="AD711" s="2"/>
+      <c r="AE711" s="2"/>
     </row>
     <row r="712">
       <c r="A712" s="2"/>
@@ -23580,6 +24334,7 @@
       <c r="AB712" s="2"/>
       <c r="AC712" s="2"/>
       <c r="AD712" s="2"/>
+      <c r="AE712" s="2"/>
     </row>
     <row r="713">
       <c r="A713" s="2"/>
@@ -23612,6 +24367,7 @@
       <c r="AB713" s="2"/>
       <c r="AC713" s="2"/>
       <c r="AD713" s="2"/>
+      <c r="AE713" s="2"/>
     </row>
     <row r="714">
       <c r="A714" s="2"/>
@@ -23644,6 +24400,7 @@
       <c r="AB714" s="2"/>
       <c r="AC714" s="2"/>
       <c r="AD714" s="2"/>
+      <c r="AE714" s="2"/>
     </row>
     <row r="715">
       <c r="A715" s="2"/>
@@ -23676,6 +24433,7 @@
       <c r="AB715" s="2"/>
       <c r="AC715" s="2"/>
       <c r="AD715" s="2"/>
+      <c r="AE715" s="2"/>
     </row>
     <row r="716">
       <c r="A716" s="2"/>
@@ -23708,6 +24466,7 @@
       <c r="AB716" s="2"/>
       <c r="AC716" s="2"/>
       <c r="AD716" s="2"/>
+      <c r="AE716" s="2"/>
     </row>
     <row r="717">
       <c r="A717" s="2"/>
@@ -23740,6 +24499,7 @@
       <c r="AB717" s="2"/>
       <c r="AC717" s="2"/>
       <c r="AD717" s="2"/>
+      <c r="AE717" s="2"/>
     </row>
     <row r="718">
       <c r="A718" s="2"/>
@@ -23772,6 +24532,7 @@
       <c r="AB718" s="2"/>
       <c r="AC718" s="2"/>
       <c r="AD718" s="2"/>
+      <c r="AE718" s="2"/>
     </row>
     <row r="719">
       <c r="A719" s="2"/>
@@ -23804,6 +24565,7 @@
       <c r="AB719" s="2"/>
       <c r="AC719" s="2"/>
       <c r="AD719" s="2"/>
+      <c r="AE719" s="2"/>
     </row>
     <row r="720">
       <c r="A720" s="2"/>
@@ -23836,6 +24598,7 @@
       <c r="AB720" s="2"/>
       <c r="AC720" s="2"/>
       <c r="AD720" s="2"/>
+      <c r="AE720" s="2"/>
     </row>
     <row r="721">
       <c r="A721" s="2"/>
@@ -23868,6 +24631,7 @@
       <c r="AB721" s="2"/>
       <c r="AC721" s="2"/>
       <c r="AD721" s="2"/>
+      <c r="AE721" s="2"/>
     </row>
     <row r="722">
       <c r="A722" s="2"/>
@@ -23900,6 +24664,7 @@
       <c r="AB722" s="2"/>
       <c r="AC722" s="2"/>
       <c r="AD722" s="2"/>
+      <c r="AE722" s="2"/>
     </row>
     <row r="723">
       <c r="A723" s="2"/>
@@ -23932,6 +24697,7 @@
       <c r="AB723" s="2"/>
       <c r="AC723" s="2"/>
       <c r="AD723" s="2"/>
+      <c r="AE723" s="2"/>
     </row>
     <row r="724">
       <c r="A724" s="2"/>
@@ -23964,6 +24730,7 @@
       <c r="AB724" s="2"/>
       <c r="AC724" s="2"/>
       <c r="AD724" s="2"/>
+      <c r="AE724" s="2"/>
     </row>
     <row r="725">
       <c r="A725" s="2"/>
@@ -23996,6 +24763,7 @@
       <c r="AB725" s="2"/>
       <c r="AC725" s="2"/>
       <c r="AD725" s="2"/>
+      <c r="AE725" s="2"/>
     </row>
     <row r="726">
       <c r="A726" s="2"/>
@@ -24028,6 +24796,7 @@
       <c r="AB726" s="2"/>
       <c r="AC726" s="2"/>
       <c r="AD726" s="2"/>
+      <c r="AE726" s="2"/>
     </row>
     <row r="727">
       <c r="A727" s="2"/>
@@ -24060,6 +24829,7 @@
       <c r="AB727" s="2"/>
       <c r="AC727" s="2"/>
       <c r="AD727" s="2"/>
+      <c r="AE727" s="2"/>
     </row>
     <row r="728">
       <c r="A728" s="2"/>
@@ -24092,6 +24862,7 @@
       <c r="AB728" s="2"/>
       <c r="AC728" s="2"/>
       <c r="AD728" s="2"/>
+      <c r="AE728" s="2"/>
     </row>
     <row r="729">
       <c r="A729" s="2"/>
@@ -24124,6 +24895,7 @@
       <c r="AB729" s="2"/>
       <c r="AC729" s="2"/>
       <c r="AD729" s="2"/>
+      <c r="AE729" s="2"/>
     </row>
     <row r="730">
       <c r="A730" s="2"/>
@@ -24156,6 +24928,7 @@
       <c r="AB730" s="2"/>
       <c r="AC730" s="2"/>
       <c r="AD730" s="2"/>
+      <c r="AE730" s="2"/>
     </row>
     <row r="731">
       <c r="A731" s="2"/>
@@ -24188,6 +24961,7 @@
       <c r="AB731" s="2"/>
       <c r="AC731" s="2"/>
       <c r="AD731" s="2"/>
+      <c r="AE731" s="2"/>
     </row>
     <row r="732">
       <c r="A732" s="2"/>
@@ -24220,6 +24994,7 @@
       <c r="AB732" s="2"/>
       <c r="AC732" s="2"/>
       <c r="AD732" s="2"/>
+      <c r="AE732" s="2"/>
     </row>
     <row r="733">
       <c r="A733" s="2"/>
@@ -24252,6 +25027,7 @@
       <c r="AB733" s="2"/>
       <c r="AC733" s="2"/>
       <c r="AD733" s="2"/>
+      <c r="AE733" s="2"/>
     </row>
     <row r="734">
       <c r="A734" s="2"/>
@@ -24284,6 +25060,7 @@
       <c r="AB734" s="2"/>
       <c r="AC734" s="2"/>
       <c r="AD734" s="2"/>
+      <c r="AE734" s="2"/>
     </row>
     <row r="735">
       <c r="A735" s="2"/>
@@ -24316,6 +25093,7 @@
       <c r="AB735" s="2"/>
       <c r="AC735" s="2"/>
       <c r="AD735" s="2"/>
+      <c r="AE735" s="2"/>
     </row>
     <row r="736">
       <c r="A736" s="2"/>
@@ -24348,6 +25126,7 @@
       <c r="AB736" s="2"/>
       <c r="AC736" s="2"/>
       <c r="AD736" s="2"/>
+      <c r="AE736" s="2"/>
     </row>
     <row r="737">
       <c r="A737" s="2"/>
@@ -24380,6 +25159,7 @@
       <c r="AB737" s="2"/>
       <c r="AC737" s="2"/>
       <c r="AD737" s="2"/>
+      <c r="AE737" s="2"/>
     </row>
     <row r="738">
       <c r="A738" s="2"/>
@@ -24412,6 +25192,7 @@
       <c r="AB738" s="2"/>
       <c r="AC738" s="2"/>
       <c r="AD738" s="2"/>
+      <c r="AE738" s="2"/>
     </row>
     <row r="739">
       <c r="A739" s="2"/>
@@ -24444,6 +25225,7 @@
       <c r="AB739" s="2"/>
       <c r="AC739" s="2"/>
       <c r="AD739" s="2"/>
+      <c r="AE739" s="2"/>
     </row>
     <row r="740">
       <c r="A740" s="2"/>
@@ -24476,6 +25258,7 @@
       <c r="AB740" s="2"/>
       <c r="AC740" s="2"/>
       <c r="AD740" s="2"/>
+      <c r="AE740" s="2"/>
     </row>
     <row r="741">
       <c r="A741" s="2"/>
@@ -24508,6 +25291,7 @@
       <c r="AB741" s="2"/>
       <c r="AC741" s="2"/>
       <c r="AD741" s="2"/>
+      <c r="AE741" s="2"/>
     </row>
     <row r="742">
       <c r="A742" s="2"/>
@@ -24540,6 +25324,7 @@
       <c r="AB742" s="2"/>
       <c r="AC742" s="2"/>
       <c r="AD742" s="2"/>
+      <c r="AE742" s="2"/>
     </row>
     <row r="743">
       <c r="A743" s="2"/>
@@ -24572,6 +25357,7 @@
       <c r="AB743" s="2"/>
       <c r="AC743" s="2"/>
       <c r="AD743" s="2"/>
+      <c r="AE743" s="2"/>
     </row>
     <row r="744">
       <c r="A744" s="2"/>
@@ -24604,6 +25390,7 @@
       <c r="AB744" s="2"/>
       <c r="AC744" s="2"/>
       <c r="AD744" s="2"/>
+      <c r="AE744" s="2"/>
     </row>
     <row r="745">
       <c r="A745" s="2"/>
@@ -24636,6 +25423,7 @@
       <c r="AB745" s="2"/>
       <c r="AC745" s="2"/>
       <c r="AD745" s="2"/>
+      <c r="AE745" s="2"/>
     </row>
     <row r="746">
       <c r="A746" s="2"/>
@@ -24668,6 +25456,7 @@
       <c r="AB746" s="2"/>
       <c r="AC746" s="2"/>
       <c r="AD746" s="2"/>
+      <c r="AE746" s="2"/>
     </row>
     <row r="747">
       <c r="A747" s="2"/>
@@ -24700,6 +25489,7 @@
       <c r="AB747" s="2"/>
       <c r="AC747" s="2"/>
       <c r="AD747" s="2"/>
+      <c r="AE747" s="2"/>
     </row>
     <row r="748">
       <c r="A748" s="2"/>
@@ -24732,6 +25522,7 @@
       <c r="AB748" s="2"/>
       <c r="AC748" s="2"/>
       <c r="AD748" s="2"/>
+      <c r="AE748" s="2"/>
     </row>
     <row r="749">
       <c r="A749" s="2"/>
@@ -24764,6 +25555,7 @@
       <c r="AB749" s="2"/>
       <c r="AC749" s="2"/>
       <c r="AD749" s="2"/>
+      <c r="AE749" s="2"/>
     </row>
     <row r="750">
       <c r="A750" s="2"/>
@@ -24796,6 +25588,7 @@
       <c r="AB750" s="2"/>
       <c r="AC750" s="2"/>
       <c r="AD750" s="2"/>
+      <c r="AE750" s="2"/>
     </row>
     <row r="751">
       <c r="A751" s="2"/>
@@ -24828,6 +25621,7 @@
       <c r="AB751" s="2"/>
       <c r="AC751" s="2"/>
       <c r="AD751" s="2"/>
+      <c r="AE751" s="2"/>
     </row>
     <row r="752">
       <c r="A752" s="2"/>
@@ -24860,6 +25654,7 @@
       <c r="AB752" s="2"/>
       <c r="AC752" s="2"/>
       <c r="AD752" s="2"/>
+      <c r="AE752" s="2"/>
     </row>
     <row r="753">
       <c r="A753" s="2"/>
@@ -24892,6 +25687,7 @@
       <c r="AB753" s="2"/>
       <c r="AC753" s="2"/>
       <c r="AD753" s="2"/>
+      <c r="AE753" s="2"/>
     </row>
     <row r="754">
       <c r="A754" s="2"/>
@@ -24924,6 +25720,7 @@
       <c r="AB754" s="2"/>
       <c r="AC754" s="2"/>
       <c r="AD754" s="2"/>
+      <c r="AE754" s="2"/>
     </row>
     <row r="755">
       <c r="A755" s="2"/>
@@ -24956,6 +25753,7 @@
       <c r="AB755" s="2"/>
       <c r="AC755" s="2"/>
       <c r="AD755" s="2"/>
+      <c r="AE755" s="2"/>
     </row>
     <row r="756">
       <c r="A756" s="2"/>
@@ -24988,6 +25786,7 @@
       <c r="AB756" s="2"/>
       <c r="AC756" s="2"/>
       <c r="AD756" s="2"/>
+      <c r="AE756" s="2"/>
     </row>
     <row r="757">
       <c r="A757" s="2"/>
@@ -25020,6 +25819,7 @@
       <c r="AB757" s="2"/>
       <c r="AC757" s="2"/>
       <c r="AD757" s="2"/>
+      <c r="AE757" s="2"/>
     </row>
     <row r="758">
       <c r="A758" s="2"/>
@@ -25052,6 +25852,7 @@
       <c r="AB758" s="2"/>
       <c r="AC758" s="2"/>
       <c r="AD758" s="2"/>
+      <c r="AE758" s="2"/>
     </row>
     <row r="759">
       <c r="A759" s="2"/>
@@ -25084,6 +25885,7 @@
       <c r="AB759" s="2"/>
       <c r="AC759" s="2"/>
       <c r="AD759" s="2"/>
+      <c r="AE759" s="2"/>
     </row>
     <row r="760">
       <c r="A760" s="2"/>
@@ -25116,6 +25918,7 @@
       <c r="AB760" s="2"/>
       <c r="AC760" s="2"/>
       <c r="AD760" s="2"/>
+      <c r="AE760" s="2"/>
     </row>
     <row r="761">
       <c r="A761" s="2"/>
@@ -25148,6 +25951,7 @@
       <c r="AB761" s="2"/>
       <c r="AC761" s="2"/>
       <c r="AD761" s="2"/>
+      <c r="AE761" s="2"/>
     </row>
     <row r="762">
       <c r="A762" s="2"/>
@@ -25180,6 +25984,7 @@
       <c r="AB762" s="2"/>
       <c r="AC762" s="2"/>
       <c r="AD762" s="2"/>
+      <c r="AE762" s="2"/>
     </row>
     <row r="763">
       <c r="A763" s="2"/>
@@ -25212,6 +26017,7 @@
       <c r="AB763" s="2"/>
       <c r="AC763" s="2"/>
       <c r="AD763" s="2"/>
+      <c r="AE763" s="2"/>
     </row>
     <row r="764">
       <c r="A764" s="2"/>
@@ -25244,6 +26050,7 @@
       <c r="AB764" s="2"/>
       <c r="AC764" s="2"/>
       <c r="AD764" s="2"/>
+      <c r="AE764" s="2"/>
     </row>
     <row r="765">
       <c r="A765" s="2"/>
@@ -25276,6 +26083,7 @@
       <c r="AB765" s="2"/>
       <c r="AC765" s="2"/>
       <c r="AD765" s="2"/>
+      <c r="AE765" s="2"/>
     </row>
     <row r="766">
       <c r="A766" s="2"/>
@@ -25308,6 +26116,7 @@
       <c r="AB766" s="2"/>
       <c r="AC766" s="2"/>
       <c r="AD766" s="2"/>
+      <c r="AE766" s="2"/>
     </row>
     <row r="767">
       <c r="A767" s="2"/>
@@ -25340,6 +26149,7 @@
       <c r="AB767" s="2"/>
       <c r="AC767" s="2"/>
       <c r="AD767" s="2"/>
+      <c r="AE767" s="2"/>
     </row>
     <row r="768">
       <c r="A768" s="2"/>
@@ -25372,6 +26182,7 @@
       <c r="AB768" s="2"/>
       <c r="AC768" s="2"/>
       <c r="AD768" s="2"/>
+      <c r="AE768" s="2"/>
     </row>
     <row r="769">
       <c r="A769" s="2"/>
@@ -25404,6 +26215,7 @@
       <c r="AB769" s="2"/>
       <c r="AC769" s="2"/>
       <c r="AD769" s="2"/>
+      <c r="AE769" s="2"/>
     </row>
     <row r="770">
       <c r="A770" s="2"/>
@@ -25436,6 +26248,7 @@
       <c r="AB770" s="2"/>
       <c r="AC770" s="2"/>
       <c r="AD770" s="2"/>
+      <c r="AE770" s="2"/>
     </row>
     <row r="771">
       <c r="A771" s="2"/>
@@ -25468,6 +26281,7 @@
       <c r="AB771" s="2"/>
       <c r="AC771" s="2"/>
       <c r="AD771" s="2"/>
+      <c r="AE771" s="2"/>
     </row>
     <row r="772">
       <c r="A772" s="2"/>
@@ -25500,6 +26314,7 @@
       <c r="AB772" s="2"/>
       <c r="AC772" s="2"/>
       <c r="AD772" s="2"/>
+      <c r="AE772" s="2"/>
     </row>
     <row r="773">
       <c r="A773" s="2"/>
@@ -25532,6 +26347,7 @@
       <c r="AB773" s="2"/>
       <c r="AC773" s="2"/>
       <c r="AD773" s="2"/>
+      <c r="AE773" s="2"/>
     </row>
     <row r="774">
       <c r="A774" s="2"/>
@@ -25564,6 +26380,7 @@
       <c r="AB774" s="2"/>
       <c r="AC774" s="2"/>
       <c r="AD774" s="2"/>
+      <c r="AE774" s="2"/>
     </row>
     <row r="775">
       <c r="A775" s="2"/>
@@ -25596,6 +26413,7 @@
       <c r="AB775" s="2"/>
       <c r="AC775" s="2"/>
       <c r="AD775" s="2"/>
+      <c r="AE775" s="2"/>
     </row>
     <row r="776">
       <c r="A776" s="2"/>
@@ -25628,6 +26446,7 @@
       <c r="AB776" s="2"/>
       <c r="AC776" s="2"/>
       <c r="AD776" s="2"/>
+      <c r="AE776" s="2"/>
     </row>
     <row r="777">
       <c r="A777" s="2"/>
@@ -25660,6 +26479,7 @@
       <c r="AB777" s="2"/>
       <c r="AC777" s="2"/>
       <c r="AD777" s="2"/>
+      <c r="AE777" s="2"/>
     </row>
     <row r="778">
       <c r="A778" s="2"/>
@@ -25692,6 +26512,7 @@
       <c r="AB778" s="2"/>
       <c r="AC778" s="2"/>
       <c r="AD778" s="2"/>
+      <c r="AE778" s="2"/>
     </row>
     <row r="779">
       <c r="A779" s="2"/>
@@ -25724,6 +26545,7 @@
       <c r="AB779" s="2"/>
       <c r="AC779" s="2"/>
       <c r="AD779" s="2"/>
+      <c r="AE779" s="2"/>
     </row>
     <row r="780">
       <c r="A780" s="2"/>
@@ -25756,6 +26578,7 @@
       <c r="AB780" s="2"/>
       <c r="AC780" s="2"/>
       <c r="AD780" s="2"/>
+      <c r="AE780" s="2"/>
     </row>
     <row r="781">
       <c r="A781" s="2"/>
@@ -25788,6 +26611,7 @@
       <c r="AB781" s="2"/>
       <c r="AC781" s="2"/>
       <c r="AD781" s="2"/>
+      <c r="AE781" s="2"/>
     </row>
     <row r="782">
       <c r="A782" s="2"/>
@@ -25820,6 +26644,7 @@
       <c r="AB782" s="2"/>
       <c r="AC782" s="2"/>
       <c r="AD782" s="2"/>
+      <c r="AE782" s="2"/>
     </row>
     <row r="783">
       <c r="A783" s="2"/>
@@ -25852,6 +26677,7 @@
       <c r="AB783" s="2"/>
       <c r="AC783" s="2"/>
       <c r="AD783" s="2"/>
+      <c r="AE783" s="2"/>
     </row>
     <row r="784">
       <c r="A784" s="2"/>
@@ -25884,6 +26710,7 @@
       <c r="AB784" s="2"/>
       <c r="AC784" s="2"/>
       <c r="AD784" s="2"/>
+      <c r="AE784" s="2"/>
     </row>
     <row r="785">
       <c r="A785" s="2"/>
@@ -25916,6 +26743,7 @@
       <c r="AB785" s="2"/>
       <c r="AC785" s="2"/>
       <c r="AD785" s="2"/>
+      <c r="AE785" s="2"/>
     </row>
     <row r="786">
       <c r="A786" s="2"/>
@@ -25948,6 +26776,7 @@
       <c r="AB786" s="2"/>
       <c r="AC786" s="2"/>
       <c r="AD786" s="2"/>
+      <c r="AE786" s="2"/>
     </row>
     <row r="787">
       <c r="A787" s="2"/>
@@ -25980,6 +26809,7 @@
       <c r="AB787" s="2"/>
       <c r="AC787" s="2"/>
       <c r="AD787" s="2"/>
+      <c r="AE787" s="2"/>
     </row>
     <row r="788">
       <c r="A788" s="2"/>
@@ -26012,6 +26842,7 @@
       <c r="AB788" s="2"/>
       <c r="AC788" s="2"/>
       <c r="AD788" s="2"/>
+      <c r="AE788" s="2"/>
     </row>
     <row r="789">
       <c r="A789" s="2"/>
@@ -26044,6 +26875,7 @@
       <c r="AB789" s="2"/>
       <c r="AC789" s="2"/>
       <c r="AD789" s="2"/>
+      <c r="AE789" s="2"/>
     </row>
     <row r="790">
       <c r="A790" s="2"/>
@@ -26076,6 +26908,7 @@
       <c r="AB790" s="2"/>
       <c r="AC790" s="2"/>
       <c r="AD790" s="2"/>
+      <c r="AE790" s="2"/>
     </row>
     <row r="791">
       <c r="A791" s="2"/>
@@ -26108,6 +26941,7 @@
       <c r="AB791" s="2"/>
       <c r="AC791" s="2"/>
       <c r="AD791" s="2"/>
+      <c r="AE791" s="2"/>
     </row>
     <row r="792">
       <c r="A792" s="2"/>
@@ -26140,6 +26974,7 @@
       <c r="AB792" s="2"/>
       <c r="AC792" s="2"/>
       <c r="AD792" s="2"/>
+      <c r="AE792" s="2"/>
     </row>
     <row r="793">
       <c r="A793" s="2"/>
@@ -26172,6 +27007,7 @@
       <c r="AB793" s="2"/>
       <c r="AC793" s="2"/>
       <c r="AD793" s="2"/>
+      <c r="AE793" s="2"/>
     </row>
     <row r="794">
       <c r="A794" s="2"/>
@@ -26204,6 +27040,7 @@
       <c r="AB794" s="2"/>
       <c r="AC794" s="2"/>
       <c r="AD794" s="2"/>
+      <c r="AE794" s="2"/>
     </row>
     <row r="795">
       <c r="A795" s="2"/>
@@ -26236,6 +27073,7 @@
       <c r="AB795" s="2"/>
       <c r="AC795" s="2"/>
       <c r="AD795" s="2"/>
+      <c r="AE795" s="2"/>
     </row>
     <row r="796">
       <c r="A796" s="2"/>
@@ -26268,6 +27106,7 @@
       <c r="AB796" s="2"/>
       <c r="AC796" s="2"/>
       <c r="AD796" s="2"/>
+      <c r="AE796" s="2"/>
     </row>
     <row r="797">
       <c r="A797" s="2"/>
@@ -26300,6 +27139,7 @@
       <c r="AB797" s="2"/>
       <c r="AC797" s="2"/>
       <c r="AD797" s="2"/>
+      <c r="AE797" s="2"/>
     </row>
     <row r="798">
       <c r="A798" s="2"/>
@@ -26332,6 +27172,7 @@
       <c r="AB798" s="2"/>
       <c r="AC798" s="2"/>
       <c r="AD798" s="2"/>
+      <c r="AE798" s="2"/>
     </row>
     <row r="799">
       <c r="A799" s="2"/>
@@ -26364,6 +27205,7 @@
       <c r="AB799" s="2"/>
       <c r="AC799" s="2"/>
       <c r="AD799" s="2"/>
+      <c r="AE799" s="2"/>
     </row>
     <row r="800">
       <c r="A800" s="2"/>
@@ -26396,6 +27238,7 @@
       <c r="AB800" s="2"/>
       <c r="AC800" s="2"/>
       <c r="AD800" s="2"/>
+      <c r="AE800" s="2"/>
     </row>
     <row r="801">
       <c r="A801" s="2"/>
@@ -26428,6 +27271,7 @@
       <c r="AB801" s="2"/>
       <c r="AC801" s="2"/>
       <c r="AD801" s="2"/>
+      <c r="AE801" s="2"/>
     </row>
     <row r="802">
       <c r="A802" s="2"/>
@@ -26460,6 +27304,7 @@
       <c r="AB802" s="2"/>
       <c r="AC802" s="2"/>
       <c r="AD802" s="2"/>
+      <c r="AE802" s="2"/>
     </row>
     <row r="803">
       <c r="A803" s="2"/>
@@ -26492,6 +27337,7 @@
       <c r="AB803" s="2"/>
       <c r="AC803" s="2"/>
       <c r="AD803" s="2"/>
+      <c r="AE803" s="2"/>
     </row>
     <row r="804">
       <c r="A804" s="2"/>
@@ -26524,6 +27370,7 @@
       <c r="AB804" s="2"/>
       <c r="AC804" s="2"/>
       <c r="AD804" s="2"/>
+      <c r="AE804" s="2"/>
     </row>
     <row r="805">
       <c r="A805" s="2"/>
@@ -26556,6 +27403,7 @@
       <c r="AB805" s="2"/>
       <c r="AC805" s="2"/>
       <c r="AD805" s="2"/>
+      <c r="AE805" s="2"/>
     </row>
     <row r="806">
       <c r="A806" s="2"/>
@@ -26588,6 +27436,7 @@
       <c r="AB806" s="2"/>
       <c r="AC806" s="2"/>
       <c r="AD806" s="2"/>
+      <c r="AE806" s="2"/>
     </row>
     <row r="807">
       <c r="A807" s="2"/>
@@ -26620,6 +27469,7 @@
       <c r="AB807" s="2"/>
       <c r="AC807" s="2"/>
       <c r="AD807" s="2"/>
+      <c r="AE807" s="2"/>
     </row>
     <row r="808">
       <c r="A808" s="2"/>
@@ -26652,6 +27502,7 @@
       <c r="AB808" s="2"/>
       <c r="AC808" s="2"/>
       <c r="AD808" s="2"/>
+      <c r="AE808" s="2"/>
     </row>
     <row r="809">
       <c r="A809" s="2"/>
@@ -26684,6 +27535,7 @@
       <c r="AB809" s="2"/>
       <c r="AC809" s="2"/>
       <c r="AD809" s="2"/>
+      <c r="AE809" s="2"/>
     </row>
     <row r="810">
       <c r="A810" s="2"/>
@@ -26716,6 +27568,7 @@
       <c r="AB810" s="2"/>
       <c r="AC810" s="2"/>
       <c r="AD810" s="2"/>
+      <c r="AE810" s="2"/>
     </row>
     <row r="811">
       <c r="A811" s="2"/>
@@ -26748,6 +27601,7 @@
       <c r="AB811" s="2"/>
       <c r="AC811" s="2"/>
       <c r="AD811" s="2"/>
+      <c r="AE811" s="2"/>
     </row>
     <row r="812">
       <c r="A812" s="2"/>
@@ -26780,6 +27634,7 @@
       <c r="AB812" s="2"/>
       <c r="AC812" s="2"/>
       <c r="AD812" s="2"/>
+      <c r="AE812" s="2"/>
     </row>
     <row r="813">
       <c r="A813" s="2"/>
@@ -26812,6 +27667,7 @@
       <c r="AB813" s="2"/>
       <c r="AC813" s="2"/>
       <c r="AD813" s="2"/>
+      <c r="AE813" s="2"/>
     </row>
     <row r="814">
       <c r="A814" s="2"/>
@@ -26844,6 +27700,7 @@
       <c r="AB814" s="2"/>
       <c r="AC814" s="2"/>
       <c r="AD814" s="2"/>
+      <c r="AE814" s="2"/>
     </row>
     <row r="815">
       <c r="A815" s="2"/>
@@ -26876,6 +27733,7 @@
       <c r="AB815" s="2"/>
       <c r="AC815" s="2"/>
       <c r="AD815" s="2"/>
+      <c r="AE815" s="2"/>
     </row>
     <row r="816">
       <c r="A816" s="2"/>
@@ -26908,6 +27766,7 @@
       <c r="AB816" s="2"/>
       <c r="AC816" s="2"/>
       <c r="AD816" s="2"/>
+      <c r="AE816" s="2"/>
     </row>
     <row r="817">
       <c r="A817" s="2"/>
@@ -26940,6 +27799,7 @@
       <c r="AB817" s="2"/>
       <c r="AC817" s="2"/>
       <c r="AD817" s="2"/>
+      <c r="AE817" s="2"/>
     </row>
     <row r="818">
       <c r="A818" s="2"/>
@@ -26972,6 +27832,7 @@
       <c r="AB818" s="2"/>
       <c r="AC818" s="2"/>
       <c r="AD818" s="2"/>
+      <c r="AE818" s="2"/>
     </row>
     <row r="819">
       <c r="A819" s="2"/>
@@ -27004,6 +27865,7 @@
       <c r="AB819" s="2"/>
       <c r="AC819" s="2"/>
       <c r="AD819" s="2"/>
+      <c r="AE819" s="2"/>
     </row>
     <row r="820">
       <c r="A820" s="2"/>
@@ -27036,6 +27898,7 @@
       <c r="AB820" s="2"/>
       <c r="AC820" s="2"/>
       <c r="AD820" s="2"/>
+      <c r="AE820" s="2"/>
     </row>
     <row r="821">
       <c r="A821" s="2"/>
@@ -27068,6 +27931,7 @@
       <c r="AB821" s="2"/>
       <c r="AC821" s="2"/>
       <c r="AD821" s="2"/>
+      <c r="AE821" s="2"/>
     </row>
     <row r="822">
       <c r="A822" s="2"/>
@@ -27100,6 +27964,7 @@
       <c r="AB822" s="2"/>
       <c r="AC822" s="2"/>
       <c r="AD822" s="2"/>
+      <c r="AE822" s="2"/>
     </row>
     <row r="823">
       <c r="A823" s="2"/>
@@ -27132,6 +27997,7 @@
       <c r="AB823" s="2"/>
       <c r="AC823" s="2"/>
       <c r="AD823" s="2"/>
+      <c r="AE823" s="2"/>
     </row>
     <row r="824">
       <c r="A824" s="2"/>
@@ -27164,6 +28030,7 @@
       <c r="AB824" s="2"/>
       <c r="AC824" s="2"/>
       <c r="AD824" s="2"/>
+      <c r="AE824" s="2"/>
     </row>
     <row r="825">
       <c r="A825" s="2"/>
@@ -27196,6 +28063,7 @@
       <c r="AB825" s="2"/>
       <c r="AC825" s="2"/>
       <c r="AD825" s="2"/>
+      <c r="AE825" s="2"/>
     </row>
     <row r="826">
       <c r="A826" s="2"/>
@@ -27228,6 +28096,7 @@
       <c r="AB826" s="2"/>
       <c r="AC826" s="2"/>
       <c r="AD826" s="2"/>
+      <c r="AE826" s="2"/>
     </row>
     <row r="827">
       <c r="A827" s="2"/>
@@ -27260,6 +28129,7 @@
       <c r="AB827" s="2"/>
       <c r="AC827" s="2"/>
       <c r="AD827" s="2"/>
+      <c r="AE827" s="2"/>
     </row>
     <row r="828">
       <c r="A828" s="2"/>
@@ -27292,6 +28162,7 @@
       <c r="AB828" s="2"/>
       <c r="AC828" s="2"/>
       <c r="AD828" s="2"/>
+      <c r="AE828" s="2"/>
     </row>
     <row r="829">
       <c r="A829" s="2"/>
@@ -27324,6 +28195,7 @@
       <c r="AB829" s="2"/>
       <c r="AC829" s="2"/>
       <c r="AD829" s="2"/>
+      <c r="AE829" s="2"/>
     </row>
     <row r="830">
       <c r="A830" s="2"/>
@@ -27356,6 +28228,7 @@
       <c r="AB830" s="2"/>
       <c r="AC830" s="2"/>
       <c r="AD830" s="2"/>
+      <c r="AE830" s="2"/>
     </row>
     <row r="831">
       <c r="A831" s="2"/>
@@ -27388,6 +28261,7 @@
       <c r="AB831" s="2"/>
       <c r="AC831" s="2"/>
       <c r="AD831" s="2"/>
+      <c r="AE831" s="2"/>
     </row>
     <row r="832">
       <c r="A832" s="2"/>
@@ -27420,6 +28294,7 @@
       <c r="AB832" s="2"/>
       <c r="AC832" s="2"/>
       <c r="AD832" s="2"/>
+      <c r="AE832" s="2"/>
     </row>
     <row r="833">
       <c r="A833" s="2"/>
@@ -27452,6 +28327,7 @@
       <c r="AB833" s="2"/>
       <c r="AC833" s="2"/>
       <c r="AD833" s="2"/>
+      <c r="AE833" s="2"/>
     </row>
     <row r="834">
       <c r="A834" s="2"/>
@@ -27484,6 +28360,7 @@
       <c r="AB834" s="2"/>
       <c r="AC834" s="2"/>
       <c r="AD834" s="2"/>
+      <c r="AE834" s="2"/>
     </row>
     <row r="835">
       <c r="A835" s="2"/>
@@ -27516,6 +28393,7 @@
       <c r="AB835" s="2"/>
       <c r="AC835" s="2"/>
       <c r="AD835" s="2"/>
+      <c r="AE835" s="2"/>
     </row>
     <row r="836">
       <c r="A836" s="2"/>
@@ -27548,6 +28426,7 @@
       <c r="AB836" s="2"/>
       <c r="AC836" s="2"/>
       <c r="AD836" s="2"/>
+      <c r="AE836" s="2"/>
     </row>
     <row r="837">
       <c r="A837" s="2"/>
@@ -27580,6 +28459,7 @@
       <c r="AB837" s="2"/>
       <c r="AC837" s="2"/>
       <c r="AD837" s="2"/>
+      <c r="AE837" s="2"/>
     </row>
     <row r="838">
       <c r="A838" s="2"/>
@@ -27612,6 +28492,7 @@
       <c r="AB838" s="2"/>
       <c r="AC838" s="2"/>
       <c r="AD838" s="2"/>
+      <c r="AE838" s="2"/>
     </row>
     <row r="839">
       <c r="A839" s="2"/>
@@ -27644,6 +28525,7 @@
       <c r="AB839" s="2"/>
       <c r="AC839" s="2"/>
       <c r="AD839" s="2"/>
+      <c r="AE839" s="2"/>
     </row>
     <row r="840">
       <c r="A840" s="2"/>
@@ -27676,6 +28558,7 @@
       <c r="AB840" s="2"/>
       <c r="AC840" s="2"/>
       <c r="AD840" s="2"/>
+      <c r="AE840" s="2"/>
     </row>
     <row r="841">
       <c r="A841" s="2"/>
@@ -27708,6 +28591,7 @@
       <c r="AB841" s="2"/>
       <c r="AC841" s="2"/>
       <c r="AD841" s="2"/>
+      <c r="AE841" s="2"/>
     </row>
     <row r="842">
       <c r="A842" s="2"/>
@@ -27740,6 +28624,7 @@
       <c r="AB842" s="2"/>
       <c r="AC842" s="2"/>
       <c r="AD842" s="2"/>
+      <c r="AE842" s="2"/>
     </row>
     <row r="843">
       <c r="A843" s="2"/>
@@ -27772,6 +28657,7 @@
       <c r="AB843" s="2"/>
       <c r="AC843" s="2"/>
       <c r="AD843" s="2"/>
+      <c r="AE843" s="2"/>
     </row>
     <row r="844">
       <c r="A844" s="2"/>
@@ -27804,6 +28690,7 @@
       <c r="AB844" s="2"/>
       <c r="AC844" s="2"/>
       <c r="AD844" s="2"/>
+      <c r="AE844" s="2"/>
     </row>
     <row r="845">
       <c r="A845" s="2"/>
@@ -27836,6 +28723,7 @@
       <c r="AB845" s="2"/>
       <c r="AC845" s="2"/>
       <c r="AD845" s="2"/>
+      <c r="AE845" s="2"/>
     </row>
     <row r="846">
       <c r="A846" s="2"/>
@@ -27868,6 +28756,7 @@
       <c r="AB846" s="2"/>
       <c r="AC846" s="2"/>
       <c r="AD846" s="2"/>
+      <c r="AE846" s="2"/>
     </row>
     <row r="847">
       <c r="A847" s="2"/>
@@ -27900,6 +28789,7 @@
       <c r="AB847" s="2"/>
       <c r="AC847" s="2"/>
       <c r="AD847" s="2"/>
+      <c r="AE847" s="2"/>
     </row>
     <row r="848">
       <c r="A848" s="2"/>
@@ -27932,6 +28822,7 @@
       <c r="AB848" s="2"/>
       <c r="AC848" s="2"/>
       <c r="AD848" s="2"/>
+      <c r="AE848" s="2"/>
     </row>
     <row r="849">
       <c r="A849" s="2"/>
@@ -27964,6 +28855,7 @@
       <c r="AB849" s="2"/>
       <c r="AC849" s="2"/>
       <c r="AD849" s="2"/>
+      <c r="AE849" s="2"/>
     </row>
     <row r="850">
       <c r="A850" s="2"/>
@@ -27996,6 +28888,7 @@
       <c r="AB850" s="2"/>
       <c r="AC850" s="2"/>
       <c r="AD850" s="2"/>
+      <c r="AE850" s="2"/>
     </row>
     <row r="851">
       <c r="A851" s="2"/>
@@ -28028,6 +28921,7 @@
       <c r="AB851" s="2"/>
       <c r="AC851" s="2"/>
       <c r="AD851" s="2"/>
+      <c r="AE851" s="2"/>
     </row>
     <row r="852">
       <c r="A852" s="2"/>
@@ -28060,6 +28954,7 @@
       <c r="AB852" s="2"/>
       <c r="AC852" s="2"/>
       <c r="AD852" s="2"/>
+      <c r="AE852" s="2"/>
     </row>
     <row r="853">
       <c r="A853" s="2"/>
@@ -28092,6 +28987,7 @@
       <c r="AB853" s="2"/>
       <c r="AC853" s="2"/>
       <c r="AD853" s="2"/>
+      <c r="AE853" s="2"/>
     </row>
     <row r="854">
       <c r="A854" s="2"/>
@@ -28124,6 +29020,7 @@
       <c r="AB854" s="2"/>
       <c r="AC854" s="2"/>
       <c r="AD854" s="2"/>
+      <c r="AE854" s="2"/>
     </row>
     <row r="855">
       <c r="A855" s="2"/>
@@ -28156,6 +29053,7 @@
       <c r="AB855" s="2"/>
       <c r="AC855" s="2"/>
       <c r="AD855" s="2"/>
+      <c r="AE855" s="2"/>
     </row>
     <row r="856">
       <c r="A856" s="2"/>
@@ -28188,6 +29086,7 @@
       <c r="AB856" s="2"/>
       <c r="AC856" s="2"/>
       <c r="AD856" s="2"/>
+      <c r="AE856" s="2"/>
     </row>
     <row r="857">
       <c r="A857" s="2"/>
@@ -28220,6 +29119,7 @@
       <c r="AB857" s="2"/>
       <c r="AC857" s="2"/>
       <c r="AD857" s="2"/>
+      <c r="AE857" s="2"/>
     </row>
     <row r="858">
       <c r="A858" s="2"/>
@@ -28252,6 +29152,7 @@
       <c r="AB858" s="2"/>
       <c r="AC858" s="2"/>
       <c r="AD858" s="2"/>
+      <c r="AE858" s="2"/>
     </row>
     <row r="859">
       <c r="A859" s="2"/>
@@ -28284,6 +29185,7 @@
       <c r="AB859" s="2"/>
       <c r="AC859" s="2"/>
       <c r="AD859" s="2"/>
+      <c r="AE859" s="2"/>
     </row>
     <row r="860">
       <c r="A860" s="2"/>
@@ -28316,6 +29218,7 @@
       <c r="AB860" s="2"/>
       <c r="AC860" s="2"/>
       <c r="AD860" s="2"/>
+      <c r="AE860" s="2"/>
     </row>
     <row r="861">
       <c r="A861" s="2"/>
@@ -28348,6 +29251,7 @@
       <c r="AB861" s="2"/>
       <c r="AC861" s="2"/>
       <c r="AD861" s="2"/>
+      <c r="AE861" s="2"/>
     </row>
     <row r="862">
       <c r="A862" s="2"/>
@@ -28380,6 +29284,7 @@
       <c r="AB862" s="2"/>
       <c r="AC862" s="2"/>
       <c r="AD862" s="2"/>
+      <c r="AE862" s="2"/>
     </row>
     <row r="863">
       <c r="A863" s="2"/>
@@ -28412,6 +29317,7 @@
       <c r="AB863" s="2"/>
       <c r="AC863" s="2"/>
       <c r="AD863" s="2"/>
+      <c r="AE863" s="2"/>
     </row>
     <row r="864">
       <c r="A864" s="2"/>
@@ -28444,6 +29350,7 @@
       <c r="AB864" s="2"/>
       <c r="AC864" s="2"/>
       <c r="AD864" s="2"/>
+      <c r="AE864" s="2"/>
     </row>
     <row r="865">
       <c r="A865" s="2"/>
@@ -28476,6 +29383,7 @@
       <c r="AB865" s="2"/>
       <c r="AC865" s="2"/>
       <c r="AD865" s="2"/>
+      <c r="AE865" s="2"/>
     </row>
     <row r="866">
       <c r="A866" s="2"/>
@@ -28508,6 +29416,7 @@
       <c r="AB866" s="2"/>
       <c r="AC866" s="2"/>
       <c r="AD866" s="2"/>
+      <c r="AE866" s="2"/>
     </row>
     <row r="867">
       <c r="A867" s="2"/>
@@ -28540,6 +29449,7 @@
       <c r="AB867" s="2"/>
       <c r="AC867" s="2"/>
       <c r="AD867" s="2"/>
+      <c r="AE867" s="2"/>
     </row>
     <row r="868">
       <c r="A868" s="2"/>
@@ -28572,6 +29482,7 @@
       <c r="AB868" s="2"/>
       <c r="AC868" s="2"/>
       <c r="AD868" s="2"/>
+      <c r="AE868" s="2"/>
     </row>
     <row r="869">
       <c r="A869" s="2"/>
@@ -28604,6 +29515,7 @@
       <c r="AB869" s="2"/>
       <c r="AC869" s="2"/>
       <c r="AD869" s="2"/>
+      <c r="AE869" s="2"/>
     </row>
     <row r="870">
       <c r="A870" s="2"/>
@@ -28636,6 +29548,7 @@
       <c r="AB870" s="2"/>
       <c r="AC870" s="2"/>
       <c r="AD870" s="2"/>
+      <c r="AE870" s="2"/>
     </row>
     <row r="871">
       <c r="A871" s="2"/>
@@ -28668,6 +29581,7 @@
       <c r="AB871" s="2"/>
       <c r="AC871" s="2"/>
       <c r="AD871" s="2"/>
+      <c r="AE871" s="2"/>
     </row>
     <row r="872">
       <c r="A872" s="2"/>
@@ -28700,6 +29614,7 @@
       <c r="AB872" s="2"/>
       <c r="AC872" s="2"/>
       <c r="AD872" s="2"/>
+      <c r="AE872" s="2"/>
     </row>
     <row r="873">
       <c r="A873" s="2"/>
@@ -28732,6 +29647,7 @@
       <c r="AB873" s="2"/>
       <c r="AC873" s="2"/>
       <c r="AD873" s="2"/>
+      <c r="AE873" s="2"/>
     </row>
     <row r="874">
       <c r="A874" s="2"/>
@@ -28764,6 +29680,7 @@
       <c r="AB874" s="2"/>
       <c r="AC874" s="2"/>
       <c r="AD874" s="2"/>
+      <c r="AE874" s="2"/>
     </row>
     <row r="875">
       <c r="A875" s="2"/>
@@ -28796,6 +29713,7 @@
       <c r="AB875" s="2"/>
       <c r="AC875" s="2"/>
       <c r="AD875" s="2"/>
+      <c r="AE875" s="2"/>
     </row>
     <row r="876">
       <c r="A876" s="2"/>
@@ -28828,6 +29746,7 @@
       <c r="AB876" s="2"/>
       <c r="AC876" s="2"/>
       <c r="AD876" s="2"/>
+      <c r="AE876" s="2"/>
     </row>
     <row r="877">
       <c r="A877" s="2"/>
@@ -28860,6 +29779,7 @@
       <c r="AB877" s="2"/>
       <c r="AC877" s="2"/>
       <c r="AD877" s="2"/>
+      <c r="AE877" s="2"/>
     </row>
     <row r="878">
       <c r="A878" s="2"/>
@@ -28892,6 +29812,7 @@
       <c r="AB878" s="2"/>
       <c r="AC878" s="2"/>
       <c r="AD878" s="2"/>
+      <c r="AE878" s="2"/>
     </row>
     <row r="879">
       <c r="A879" s="2"/>
@@ -28924,6 +29845,7 @@
       <c r="AB879" s="2"/>
       <c r="AC879" s="2"/>
       <c r="AD879" s="2"/>
+      <c r="AE879" s="2"/>
     </row>
     <row r="880">
       <c r="A880" s="2"/>
@@ -28956,6 +29878,7 @@
       <c r="AB880" s="2"/>
       <c r="AC880" s="2"/>
       <c r="AD880" s="2"/>
+      <c r="AE880" s="2"/>
     </row>
     <row r="881">
       <c r="A881" s="2"/>
@@ -28988,6 +29911,7 @@
       <c r="AB881" s="2"/>
       <c r="AC881" s="2"/>
       <c r="AD881" s="2"/>
+      <c r="AE881" s="2"/>
     </row>
     <row r="882">
       <c r="A882" s="2"/>
@@ -29020,6 +29944,7 @@
       <c r="AB882" s="2"/>
       <c r="AC882" s="2"/>
       <c r="AD882" s="2"/>
+      <c r="AE882" s="2"/>
     </row>
     <row r="883">
       <c r="A883" s="2"/>
@@ -29052,6 +29977,7 @@
       <c r="AB883" s="2"/>
       <c r="AC883" s="2"/>
       <c r="AD883" s="2"/>
+      <c r="AE883" s="2"/>
     </row>
     <row r="884">
       <c r="A884" s="2"/>
@@ -29084,6 +30010,7 @@
       <c r="AB884" s="2"/>
       <c r="AC884" s="2"/>
       <c r="AD884" s="2"/>
+      <c r="AE884" s="2"/>
     </row>
     <row r="885">
       <c r="A885" s="2"/>
@@ -29116,6 +30043,7 @@
       <c r="AB885" s="2"/>
       <c r="AC885" s="2"/>
       <c r="AD885" s="2"/>
+      <c r="AE885" s="2"/>
     </row>
     <row r="886">
       <c r="A886" s="2"/>
@@ -29148,6 +30076,7 @@
       <c r="AB886" s="2"/>
       <c r="AC886" s="2"/>
       <c r="AD886" s="2"/>
+      <c r="AE886" s="2"/>
     </row>
     <row r="887">
       <c r="A887" s="2"/>
@@ -29180,6 +30109,7 @@
       <c r="AB887" s="2"/>
       <c r="AC887" s="2"/>
       <c r="AD887" s="2"/>
+      <c r="AE887" s="2"/>
     </row>
     <row r="888">
       <c r="A888" s="2"/>
@@ -29212,6 +30142,7 @@
       <c r="AB888" s="2"/>
       <c r="AC888" s="2"/>
       <c r="AD888" s="2"/>
+      <c r="AE888" s="2"/>
     </row>
     <row r="889">
       <c r="A889" s="2"/>
@@ -29244,6 +30175,7 @@
       <c r="AB889" s="2"/>
       <c r="AC889" s="2"/>
       <c r="AD889" s="2"/>
+      <c r="AE889" s="2"/>
     </row>
     <row r="890">
       <c r="A890" s="2"/>
@@ -29276,6 +30208,7 @@
       <c r="AB890" s="2"/>
       <c r="AC890" s="2"/>
       <c r="AD890" s="2"/>
+      <c r="AE890" s="2"/>
     </row>
     <row r="891">
       <c r="A891" s="2"/>
@@ -29308,6 +30241,7 @@
       <c r="AB891" s="2"/>
       <c r="AC891" s="2"/>
       <c r="AD891" s="2"/>
+      <c r="AE891" s="2"/>
     </row>
     <row r="892">
       <c r="A892" s="2"/>
@@ -29340,6 +30274,7 @@
       <c r="AB892" s="2"/>
       <c r="AC892" s="2"/>
       <c r="AD892" s="2"/>
+      <c r="AE892" s="2"/>
     </row>
     <row r="893">
       <c r="A893" s="2"/>
@@ -29372,6 +30307,7 @@
       <c r="AB893" s="2"/>
       <c r="AC893" s="2"/>
       <c r="AD893" s="2"/>
+      <c r="AE893" s="2"/>
     </row>
     <row r="894">
       <c r="A894" s="2"/>
@@ -29404,6 +30340,7 @@
       <c r="AB894" s="2"/>
       <c r="AC894" s="2"/>
       <c r="AD894" s="2"/>
+      <c r="AE894" s="2"/>
     </row>
     <row r="895">
       <c r="A895" s="2"/>
@@ -29436,6 +30373,7 @@
       <c r="AB895" s="2"/>
       <c r="AC895" s="2"/>
       <c r="AD895" s="2"/>
+      <c r="AE895" s="2"/>
     </row>
     <row r="896">
       <c r="A896" s="2"/>
@@ -29468,6 +30406,7 @@
       <c r="AB896" s="2"/>
       <c r="AC896" s="2"/>
       <c r="AD896" s="2"/>
+      <c r="AE896" s="2"/>
     </row>
     <row r="897">
       <c r="A897" s="2"/>
@@ -29500,6 +30439,7 @@
       <c r="AB897" s="2"/>
       <c r="AC897" s="2"/>
       <c r="AD897" s="2"/>
+      <c r="AE897" s="2"/>
     </row>
     <row r="898">
       <c r="A898" s="2"/>
@@ -29532,6 +30472,7 @@
       <c r="AB898" s="2"/>
       <c r="AC898" s="2"/>
       <c r="AD898" s="2"/>
+      <c r="AE898" s="2"/>
     </row>
     <row r="899">
       <c r="A899" s="2"/>
@@ -29564,6 +30505,7 @@
       <c r="AB899" s="2"/>
       <c r="AC899" s="2"/>
       <c r="AD899" s="2"/>
+      <c r="AE899" s="2"/>
     </row>
     <row r="900">
       <c r="A900" s="2"/>
@@ -29596,6 +30538,7 @@
       <c r="AB900" s="2"/>
       <c r="AC900" s="2"/>
       <c r="AD900" s="2"/>
+      <c r="AE900" s="2"/>
     </row>
     <row r="901">
       <c r="A901" s="2"/>
@@ -29628,6 +30571,7 @@
       <c r="AB901" s="2"/>
       <c r="AC901" s="2"/>
       <c r="AD901" s="2"/>
+      <c r="AE901" s="2"/>
     </row>
     <row r="902">
       <c r="A902" s="2"/>
@@ -29660,6 +30604,7 @@
       <c r="AB902" s="2"/>
       <c r="AC902" s="2"/>
       <c r="AD902" s="2"/>
+      <c r="AE902" s="2"/>
     </row>
     <row r="903">
       <c r="A903" s="2"/>
@@ -29692,6 +30637,7 @@
       <c r="AB903" s="2"/>
       <c r="AC903" s="2"/>
       <c r="AD903" s="2"/>
+      <c r="AE903" s="2"/>
     </row>
     <row r="904">
       <c r="A904" s="2"/>
@@ -29724,6 +30670,7 @@
       <c r="AB904" s="2"/>
       <c r="AC904" s="2"/>
       <c r="AD904" s="2"/>
+      <c r="AE904" s="2"/>
     </row>
     <row r="905">
       <c r="A905" s="2"/>
@@ -29756,6 +30703,7 @@
       <c r="AB905" s="2"/>
       <c r="AC905" s="2"/>
       <c r="AD905" s="2"/>
+      <c r="AE905" s="2"/>
     </row>
     <row r="906">
       <c r="A906" s="2"/>
@@ -29788,6 +30736,7 @@
       <c r="AB906" s="2"/>
       <c r="AC906" s="2"/>
       <c r="AD906" s="2"/>
+      <c r="AE906" s="2"/>
     </row>
     <row r="907">
       <c r="A907" s="2"/>
@@ -29820,6 +30769,7 @@
       <c r="AB907" s="2"/>
       <c r="AC907" s="2"/>
       <c r="AD907" s="2"/>
+      <c r="AE907" s="2"/>
     </row>
     <row r="908">
       <c r="A908" s="2"/>
@@ -29852,6 +30802,7 @@
       <c r="AB908" s="2"/>
       <c r="AC908" s="2"/>
       <c r="AD908" s="2"/>
+      <c r="AE908" s="2"/>
     </row>
     <row r="909">
       <c r="A909" s="2"/>
@@ -29884,6 +30835,7 @@
       <c r="AB909" s="2"/>
       <c r="AC909" s="2"/>
       <c r="AD909" s="2"/>
+      <c r="AE909" s="2"/>
     </row>
     <row r="910">
       <c r="A910" s="2"/>
@@ -29916,6 +30868,7 @@
       <c r="AB910" s="2"/>
       <c r="AC910" s="2"/>
       <c r="AD910" s="2"/>
+      <c r="AE910" s="2"/>
     </row>
     <row r="911">
       <c r="A911" s="2"/>
@@ -29948,6 +30901,7 @@
       <c r="AB911" s="2"/>
       <c r="AC911" s="2"/>
       <c r="AD911" s="2"/>
+      <c r="AE911" s="2"/>
     </row>
     <row r="912">
       <c r="A912" s="2"/>
@@ -29980,6 +30934,7 @@
       <c r="AB912" s="2"/>
       <c r="AC912" s="2"/>
       <c r="AD912" s="2"/>
+      <c r="AE912" s="2"/>
     </row>
     <row r="913">
       <c r="A913" s="2"/>
@@ -30012,6 +30967,7 @@
       <c r="AB913" s="2"/>
       <c r="AC913" s="2"/>
       <c r="AD913" s="2"/>
+      <c r="AE913" s="2"/>
     </row>
     <row r="914">
       <c r="A914" s="2"/>
@@ -30044,6 +31000,7 @@
       <c r="AB914" s="2"/>
       <c r="AC914" s="2"/>
       <c r="AD914" s="2"/>
+      <c r="AE914" s="2"/>
     </row>
     <row r="915">
       <c r="A915" s="2"/>
@@ -30076,6 +31033,7 @@
       <c r="AB915" s="2"/>
       <c r="AC915" s="2"/>
       <c r="AD915" s="2"/>
+      <c r="AE915" s="2"/>
     </row>
     <row r="916">
       <c r="A916" s="2"/>
@@ -30108,6 +31066,7 @@
       <c r="AB916" s="2"/>
       <c r="AC916" s="2"/>
       <c r="AD916" s="2"/>
+      <c r="AE916" s="2"/>
     </row>
     <row r="917">
       <c r="A917" s="2"/>
@@ -30140,6 +31099,7 @@
       <c r="AB917" s="2"/>
       <c r="AC917" s="2"/>
       <c r="AD917" s="2"/>
+      <c r="AE917" s="2"/>
     </row>
     <row r="918">
       <c r="A918" s="2"/>
@@ -30172,6 +31132,7 @@
       <c r="AB918" s="2"/>
       <c r="AC918" s="2"/>
       <c r="AD918" s="2"/>
+      <c r="AE918" s="2"/>
     </row>
     <row r="919">
       <c r="A919" s="2"/>
@@ -30204,6 +31165,7 @@
       <c r="AB919" s="2"/>
       <c r="AC919" s="2"/>
       <c r="AD919" s="2"/>
+      <c r="AE919" s="2"/>
     </row>
     <row r="920">
       <c r="A920" s="2"/>
@@ -30236,6 +31198,7 @@
       <c r="AB920" s="2"/>
       <c r="AC920" s="2"/>
       <c r="AD920" s="2"/>
+      <c r="AE920" s="2"/>
     </row>
     <row r="921">
       <c r="A921" s="2"/>
@@ -30268,6 +31231,7 @@
       <c r="AB921" s="2"/>
       <c r="AC921" s="2"/>
       <c r="AD921" s="2"/>
+      <c r="AE921" s="2"/>
     </row>
     <row r="922">
       <c r="A922" s="2"/>
@@ -30300,6 +31264,7 @@
       <c r="AB922" s="2"/>
       <c r="AC922" s="2"/>
       <c r="AD922" s="2"/>
+      <c r="AE922" s="2"/>
     </row>
     <row r="923">
       <c r="A923" s="2"/>
@@ -30332,6 +31297,7 @@
       <c r="AB923" s="2"/>
       <c r="AC923" s="2"/>
       <c r="AD923" s="2"/>
+      <c r="AE923" s="2"/>
     </row>
     <row r="924">
       <c r="A924" s="2"/>
@@ -30364,6 +31330,7 @@
       <c r="AB924" s="2"/>
       <c r="AC924" s="2"/>
       <c r="AD924" s="2"/>
+      <c r="AE924" s="2"/>
     </row>
     <row r="925">
       <c r="A925" s="2"/>
@@ -30396,6 +31363,7 @@
       <c r="AB925" s="2"/>
       <c r="AC925" s="2"/>
       <c r="AD925" s="2"/>
+      <c r="AE925" s="2"/>
     </row>
     <row r="926">
       <c r="A926" s="2"/>
@@ -30428,6 +31396,7 @@
       <c r="AB926" s="2"/>
       <c r="AC926" s="2"/>
       <c r="AD926" s="2"/>
+      <c r="AE926" s="2"/>
     </row>
     <row r="927">
       <c r="A927" s="2"/>
@@ -30460,6 +31429,7 @@
       <c r="AB927" s="2"/>
       <c r="AC927" s="2"/>
       <c r="AD927" s="2"/>
+      <c r="AE927" s="2"/>
     </row>
     <row r="928">
       <c r="A928" s="2"/>
@@ -30492,6 +31462,7 @@
       <c r="AB928" s="2"/>
       <c r="AC928" s="2"/>
       <c r="AD928" s="2"/>
+      <c r="AE928" s="2"/>
     </row>
     <row r="929">
       <c r="A929" s="2"/>
@@ -30524,6 +31495,7 @@
       <c r="AB929" s="2"/>
       <c r="AC929" s="2"/>
       <c r="AD929" s="2"/>
+      <c r="AE929" s="2"/>
     </row>
     <row r="930">
       <c r="A930" s="2"/>
@@ -30556,6 +31528,7 @@
       <c r="AB930" s="2"/>
       <c r="AC930" s="2"/>
       <c r="AD930" s="2"/>
+      <c r="AE930" s="2"/>
     </row>
     <row r="931">
       <c r="A931" s="2"/>
@@ -30588,6 +31561,7 @@
       <c r="AB931" s="2"/>
       <c r="AC931" s="2"/>
       <c r="AD931" s="2"/>
+      <c r="AE931" s="2"/>
     </row>
     <row r="932">
       <c r="A932" s="2"/>
@@ -30620,6 +31594,7 @@
       <c r="AB932" s="2"/>
       <c r="AC932" s="2"/>
       <c r="AD932" s="2"/>
+      <c r="AE932" s="2"/>
     </row>
     <row r="933">
       <c r="A933" s="2"/>
@@ -30652,6 +31627,7 @@
       <c r="AB933" s="2"/>
       <c r="AC933" s="2"/>
       <c r="AD933" s="2"/>
+      <c r="AE933" s="2"/>
     </row>
     <row r="934">
       <c r="A934" s="2"/>
@@ -30684,6 +31660,7 @@
       <c r="AB934" s="2"/>
       <c r="AC934" s="2"/>
       <c r="AD934" s="2"/>
+      <c r="AE934" s="2"/>
     </row>
     <row r="935">
       <c r="A935" s="2"/>
@@ -30716,6 +31693,7 @@
       <c r="AB935" s="2"/>
       <c r="AC935" s="2"/>
       <c r="AD935" s="2"/>
+      <c r="AE935" s="2"/>
     </row>
     <row r="936">
       <c r="A936" s="2"/>
@@ -30748,6 +31726,7 @@
       <c r="AB936" s="2"/>
       <c r="AC936" s="2"/>
       <c r="AD936" s="2"/>
+      <c r="AE936" s="2"/>
     </row>
     <row r="937">
       <c r="A937" s="2"/>
@@ -30780,6 +31759,7 @@
       <c r="AB937" s="2"/>
       <c r="AC937" s="2"/>
       <c r="AD937" s="2"/>
+      <c r="AE937" s="2"/>
     </row>
     <row r="938">
       <c r="A938" s="2"/>
@@ -30812,6 +31792,7 @@
       <c r="AB938" s="2"/>
       <c r="AC938" s="2"/>
       <c r="AD938" s="2"/>
+      <c r="AE938" s="2"/>
     </row>
     <row r="939">
       <c r="A939" s="2"/>
@@ -30844,6 +31825,7 @@
       <c r="AB939" s="2"/>
       <c r="AC939" s="2"/>
       <c r="AD939" s="2"/>
+      <c r="AE939" s="2"/>
     </row>
     <row r="940">
       <c r="A940" s="2"/>
@@ -30876,6 +31858,7 @@
       <c r="AB940" s="2"/>
       <c r="AC940" s="2"/>
       <c r="AD940" s="2"/>
+      <c r="AE940" s="2"/>
     </row>
     <row r="941">
       <c r="A941" s="2"/>
@@ -30908,6 +31891,7 @@
       <c r="AB941" s="2"/>
       <c r="AC941" s="2"/>
       <c r="AD941" s="2"/>
+      <c r="AE941" s="2"/>
     </row>
     <row r="942">
       <c r="A942" s="2"/>
@@ -30940,6 +31924,7 @@
       <c r="AB942" s="2"/>
       <c r="AC942" s="2"/>
       <c r="AD942" s="2"/>
+      <c r="AE942" s="2"/>
     </row>
     <row r="943">
       <c r="A943" s="2"/>
@@ -30972,6 +31957,7 @@
       <c r="AB943" s="2"/>
       <c r="AC943" s="2"/>
       <c r="AD943" s="2"/>
+      <c r="AE943" s="2"/>
     </row>
     <row r="944">
       <c r="A944" s="2"/>
@@ -31004,6 +31990,7 @@
       <c r="AB944" s="2"/>
       <c r="AC944" s="2"/>
       <c r="AD944" s="2"/>
+      <c r="AE944" s="2"/>
     </row>
     <row r="945">
       <c r="A945" s="2"/>
@@ -31036,6 +32023,7 @@
       <c r="AB945" s="2"/>
       <c r="AC945" s="2"/>
       <c r="AD945" s="2"/>
+      <c r="AE945" s="2"/>
     </row>
     <row r="946">
       <c r="A946" s="2"/>
@@ -31068,6 +32056,7 @@
       <c r="AB946" s="2"/>
       <c r="AC946" s="2"/>
       <c r="AD946" s="2"/>
+      <c r="AE946" s="2"/>
     </row>
     <row r="947">
       <c r="A947" s="2"/>
@@ -31100,6 +32089,7 @@
       <c r="AB947" s="2"/>
       <c r="AC947" s="2"/>
       <c r="AD947" s="2"/>
+      <c r="AE947" s="2"/>
     </row>
     <row r="948">
       <c r="A948" s="2"/>
@@ -31132,6 +32122,7 @@
       <c r="AB948" s="2"/>
       <c r="AC948" s="2"/>
       <c r="AD948" s="2"/>
+      <c r="AE948" s="2"/>
     </row>
     <row r="949">
       <c r="A949" s="2"/>
@@ -31164,6 +32155,7 @@
       <c r="AB949" s="2"/>
       <c r="AC949" s="2"/>
       <c r="AD949" s="2"/>
+      <c r="AE949" s="2"/>
     </row>
     <row r="950">
       <c r="A950" s="2"/>
@@ -31196,6 +32188,7 @@
       <c r="AB950" s="2"/>
       <c r="AC950" s="2"/>
       <c r="AD950" s="2"/>
+      <c r="AE950" s="2"/>
     </row>
     <row r="951">
       <c r="A951" s="2"/>
@@ -31228,6 +32221,7 @@
       <c r="AB951" s="2"/>
       <c r="AC951" s="2"/>
       <c r="AD951" s="2"/>
+      <c r="AE951" s="2"/>
     </row>
     <row r="952">
       <c r="A952" s="2"/>
@@ -31260,6 +32254,7 @@
       <c r="AB952" s="2"/>
       <c r="AC952" s="2"/>
       <c r="AD952" s="2"/>
+      <c r="AE952" s="2"/>
     </row>
     <row r="953">
       <c r="A953" s="2"/>
@@ -31292,6 +32287,7 @@
       <c r="AB953" s="2"/>
       <c r="AC953" s="2"/>
       <c r="AD953" s="2"/>
+      <c r="AE953" s="2"/>
     </row>
     <row r="954">
       <c r="A954" s="2"/>
@@ -31324,6 +32320,7 @@
       <c r="AB954" s="2"/>
       <c r="AC954" s="2"/>
       <c r="AD954" s="2"/>
+      <c r="AE954" s="2"/>
     </row>
     <row r="955">
       <c r="A955" s="2"/>
@@ -31356,6 +32353,7 @@
       <c r="AB955" s="2"/>
       <c r="AC955" s="2"/>
       <c r="AD955" s="2"/>
+      <c r="AE955" s="2"/>
     </row>
     <row r="956">
       <c r="A956" s="2"/>
@@ -31388,6 +32386,7 @@
       <c r="AB956" s="2"/>
       <c r="AC956" s="2"/>
       <c r="AD956" s="2"/>
+      <c r="AE956" s="2"/>
     </row>
     <row r="957">
       <c r="A957" s="2"/>
@@ -31420,6 +32419,7 @@
       <c r="AB957" s="2"/>
       <c r="AC957" s="2"/>
       <c r="AD957" s="2"/>
+      <c r="AE957" s="2"/>
     </row>
     <row r="958">
       <c r="A958" s="2"/>
@@ -31452,6 +32452,7 @@
       <c r="AB958" s="2"/>
       <c r="AC958" s="2"/>
       <c r="AD958" s="2"/>
+      <c r="AE958" s="2"/>
     </row>
     <row r="959">
       <c r="A959" s="2"/>
@@ -31484,6 +32485,7 @@
       <c r="AB959" s="2"/>
       <c r="AC959" s="2"/>
       <c r="AD959" s="2"/>
+      <c r="AE959" s="2"/>
     </row>
     <row r="960">
       <c r="A960" s="2"/>
@@ -31516,6 +32518,7 @@
       <c r="AB960" s="2"/>
       <c r="AC960" s="2"/>
       <c r="AD960" s="2"/>
+      <c r="AE960" s="2"/>
     </row>
     <row r="961">
       <c r="A961" s="2"/>
@@ -31548,6 +32551,7 @@
       <c r="AB961" s="2"/>
       <c r="AC961" s="2"/>
       <c r="AD961" s="2"/>
+      <c r="AE961" s="2"/>
     </row>
     <row r="962">
       <c r="A962" s="2"/>
@@ -31580,6 +32584,7 @@
       <c r="AB962" s="2"/>
       <c r="AC962" s="2"/>
       <c r="AD962" s="2"/>
+      <c r="AE962" s="2"/>
     </row>
     <row r="963">
       <c r="A963" s="2"/>
@@ -31612,6 +32617,7 @@
       <c r="AB963" s="2"/>
       <c r="AC963" s="2"/>
       <c r="AD963" s="2"/>
+      <c r="AE963" s="2"/>
     </row>
     <row r="964">
       <c r="A964" s="2"/>
@@ -31644,6 +32650,7 @@
       <c r="AB964" s="2"/>
       <c r="AC964" s="2"/>
       <c r="AD964" s="2"/>
+      <c r="AE964" s="2"/>
     </row>
     <row r="965">
       <c r="A965" s="2"/>
@@ -31676,6 +32683,7 @@
       <c r="AB965" s="2"/>
       <c r="AC965" s="2"/>
       <c r="AD965" s="2"/>
+      <c r="AE965" s="2"/>
     </row>
     <row r="966">
       <c r="A966" s="2"/>
@@ -31708,6 +32716,7 @@
       <c r="AB966" s="2"/>
       <c r="AC966" s="2"/>
       <c r="AD966" s="2"/>
+      <c r="AE966" s="2"/>
     </row>
     <row r="967">
       <c r="A967" s="2"/>
@@ -31740,6 +32749,7 @@
       <c r="AB967" s="2"/>
       <c r="AC967" s="2"/>
       <c r="AD967" s="2"/>
+      <c r="AE967" s="2"/>
     </row>
     <row r="968">
       <c r="A968" s="2"/>
@@ -31772,6 +32782,7 @@
       <c r="AB968" s="2"/>
       <c r="AC968" s="2"/>
       <c r="AD968" s="2"/>
+      <c r="AE968" s="2"/>
     </row>
     <row r="969">
       <c r="A969" s="2"/>
@@ -31804,6 +32815,7 @@
       <c r="AB969" s="2"/>
       <c r="AC969" s="2"/>
       <c r="AD969" s="2"/>
+      <c r="AE969" s="2"/>
     </row>
     <row r="970">
       <c r="A970" s="2"/>
@@ -31836,6 +32848,7 @@
       <c r="AB970" s="2"/>
       <c r="AC970" s="2"/>
       <c r="AD970" s="2"/>
+      <c r="AE970" s="2"/>
     </row>
     <row r="971">
       <c r="A971" s="2"/>
@@ -31868,6 +32881,7 @@
       <c r="AB971" s="2"/>
       <c r="AC971" s="2"/>
       <c r="AD971" s="2"/>
+      <c r="AE971" s="2"/>
     </row>
     <row r="972">
       <c r="A972" s="2"/>
@@ -31900,6 +32914,7 @@
       <c r="AB972" s="2"/>
       <c r="AC972" s="2"/>
       <c r="AD972" s="2"/>
+      <c r="AE972" s="2"/>
     </row>
     <row r="973">
       <c r="A973" s="2"/>
@@ -31932,6 +32947,7 @@
       <c r="AB973" s="2"/>
       <c r="AC973" s="2"/>
       <c r="AD973" s="2"/>
+      <c r="AE973" s="2"/>
     </row>
     <row r="974">
       <c r="A974" s="2"/>
@@ -31964,6 +32980,7 @@
       <c r="AB974" s="2"/>
       <c r="AC974" s="2"/>
       <c r="AD974" s="2"/>
+      <c r="AE974" s="2"/>
     </row>
     <row r="975">
       <c r="A975" s="2"/>
@@ -31996,6 +33013,7 @@
       <c r="AB975" s="2"/>
       <c r="AC975" s="2"/>
       <c r="AD975" s="2"/>
+      <c r="AE975" s="2"/>
     </row>
     <row r="976">
       <c r="A976" s="2"/>
@@ -32028,6 +33046,7 @@
       <c r="AB976" s="2"/>
       <c r="AC976" s="2"/>
       <c r="AD976" s="2"/>
+      <c r="AE976" s="2"/>
     </row>
     <row r="977">
       <c r="A977" s="2"/>
@@ -32060,6 +33079,7 @@
       <c r="AB977" s="2"/>
       <c r="AC977" s="2"/>
       <c r="AD977" s="2"/>
+      <c r="AE977" s="2"/>
     </row>
     <row r="978">
       <c r="A978" s="2"/>
@@ -32092,6 +33112,7 @@
       <c r="AB978" s="2"/>
       <c r="AC978" s="2"/>
       <c r="AD978" s="2"/>
+      <c r="AE978" s="2"/>
     </row>
     <row r="979">
       <c r="A979" s="2"/>
@@ -32124,6 +33145,7 @@
       <c r="AB979" s="2"/>
       <c r="AC979" s="2"/>
       <c r="AD979" s="2"/>
+      <c r="AE979" s="2"/>
     </row>
     <row r="980">
       <c r="A980" s="2"/>
@@ -32156,6 +33178,7 @@
       <c r="AB980" s="2"/>
       <c r="AC980" s="2"/>
       <c r="AD980" s="2"/>
+      <c r="AE980" s="2"/>
     </row>
     <row r="981">
       <c r="A981" s="2"/>
@@ -32188,6 +33211,7 @@
       <c r="AB981" s="2"/>
       <c r="AC981" s="2"/>
       <c r="AD981" s="2"/>
+      <c r="AE981" s="2"/>
     </row>
     <row r="982">
       <c r="A982" s="2"/>
@@ -32220,6 +33244,7 @@
       <c r="AB982" s="2"/>
       <c r="AC982" s="2"/>
       <c r="AD982" s="2"/>
+      <c r="AE982" s="2"/>
     </row>
     <row r="983">
       <c r="A983" s="2"/>
@@ -32252,6 +33277,7 @@
       <c r="AB983" s="2"/>
       <c r="AC983" s="2"/>
       <c r="AD983" s="2"/>
+      <c r="AE983" s="2"/>
     </row>
     <row r="984">
       <c r="A984" s="2"/>
@@ -32284,6 +33310,7 @@
       <c r="AB984" s="2"/>
       <c r="AC984" s="2"/>
       <c r="AD984" s="2"/>
+      <c r="AE984" s="2"/>
     </row>
     <row r="985">
       <c r="A985" s="2"/>
@@ -32316,6 +33343,7 @@
       <c r="AB985" s="2"/>
       <c r="AC985" s="2"/>
       <c r="AD985" s="2"/>
+      <c r="AE985" s="2"/>
     </row>
     <row r="986">
       <c r="A986" s="2"/>
@@ -32348,6 +33376,7 @@
       <c r="AB986" s="2"/>
       <c r="AC986" s="2"/>
       <c r="AD986" s="2"/>
+      <c r="AE986" s="2"/>
     </row>
     <row r="987">
       <c r="A987" s="2"/>
@@ -32380,6 +33409,7 @@
       <c r="AB987" s="2"/>
       <c r="AC987" s="2"/>
       <c r="AD987" s="2"/>
+      <c r="AE987" s="2"/>
     </row>
     <row r="988">
       <c r="A988" s="2"/>
@@ -32412,6 +33442,7 @@
       <c r="AB988" s="2"/>
       <c r="AC988" s="2"/>
       <c r="AD988" s="2"/>
+      <c r="AE988" s="2"/>
     </row>
     <row r="989">
       <c r="A989" s="2"/>
@@ -32444,6 +33475,7 @@
       <c r="AB989" s="2"/>
       <c r="AC989" s="2"/>
       <c r="AD989" s="2"/>
+      <c r="AE989" s="2"/>
     </row>
     <row r="990">
       <c r="A990" s="2"/>
@@ -32476,6 +33508,7 @@
       <c r="AB990" s="2"/>
       <c r="AC990" s="2"/>
       <c r="AD990" s="2"/>
+      <c r="AE990" s="2"/>
     </row>
     <row r="991">
       <c r="A991" s="2"/>
@@ -32508,6 +33541,7 @@
       <c r="AB991" s="2"/>
       <c r="AC991" s="2"/>
       <c r="AD991" s="2"/>
+      <c r="AE991" s="2"/>
     </row>
     <row r="992">
       <c r="A992" s="2"/>
@@ -32540,6 +33574,7 @@
       <c r="AB992" s="2"/>
       <c r="AC992" s="2"/>
       <c r="AD992" s="2"/>
+      <c r="AE992" s="2"/>
     </row>
     <row r="993">
       <c r="A993" s="2"/>
@@ -32572,6 +33607,7 @@
       <c r="AB993" s="2"/>
       <c r="AC993" s="2"/>
       <c r="AD993" s="2"/>
+      <c r="AE993" s="2"/>
     </row>
     <row r="994">
       <c r="A994" s="2"/>
@@ -32604,6 +33640,7 @@
       <c r="AB994" s="2"/>
       <c r="AC994" s="2"/>
       <c r="AD994" s="2"/>
+      <c r="AE994" s="2"/>
     </row>
     <row r="995">
       <c r="A995" s="2"/>
@@ -32636,6 +33673,7 @@
       <c r="AB995" s="2"/>
       <c r="AC995" s="2"/>
       <c r="AD995" s="2"/>
+      <c r="AE995" s="2"/>
     </row>
     <row r="996">
       <c r="A996" s="2"/>
@@ -32668,6 +33706,7 @@
       <c r="AB996" s="2"/>
       <c r="AC996" s="2"/>
       <c r="AD996" s="2"/>
+      <c r="AE996" s="2"/>
     </row>
     <row r="997">
       <c r="A997" s="2"/>
@@ -32700,6 +33739,7 @@
       <c r="AB997" s="2"/>
       <c r="AC997" s="2"/>
       <c r="AD997" s="2"/>
+      <c r="AE997" s="2"/>
     </row>
     <row r="998">
       <c r="A998" s="2"/>
@@ -32732,6 +33772,7 @@
       <c r="AB998" s="2"/>
       <c r="AC998" s="2"/>
       <c r="AD998" s="2"/>
+      <c r="AE998" s="2"/>
     </row>
     <row r="999">
       <c r="A999" s="2"/>
@@ -32764,6 +33805,7 @@
       <c r="AB999" s="2"/>
       <c r="AC999" s="2"/>
       <c r="AD999" s="2"/>
+      <c r="AE999" s="2"/>
     </row>
     <row r="1000">
       <c r="A1000" s="2"/>
@@ -32796,6 +33838,7 @@
       <c r="AB1000" s="2"/>
       <c r="AC1000" s="2"/>
       <c r="AD1000" s="2"/>
+      <c r="AE1000" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
